--- a/Report/Empirical Data.xlsx
+++ b/Report/Empirical Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617C404-88B2-4710-80C0-E6BE280F3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C855B24F-0B35-4854-A6D6-86B3FABAA886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
   <si>
     <t>Algorithm</t>
   </si>
@@ -181,16 +181,190 @@
   <si>
     <t>Descending Order Sorted Datasets</t>
   </si>
+  <si>
+    <t>Best Case</t>
+  </si>
+  <si>
+    <t>Worst Case</t>
+  </si>
+  <si>
+    <t>Average Case</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
+  </si>
+  <si>
+    <t>Stable?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Unoptomized</t>
+  </si>
+  <si>
+    <t>Recursive</t>
+  </si>
+  <si>
+    <t>Reursive with median of three pivot selection</t>
+  </si>
+  <si>
+    <t>Shell's standard sequence</t>
+  </si>
+  <si>
+    <r>
+      <t>O(n</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>bubble/shell</t>
+  </si>
+  <si>
+    <t>bubble/quick</t>
+  </si>
+  <si>
+    <t>quick/bubble</t>
+  </si>
+  <si>
+    <t>merge/bubble</t>
+  </si>
+  <si>
+    <t>insertion/bubble</t>
+  </si>
+  <si>
+    <t>selection/bubble</t>
+  </si>
+  <si>
+    <t>bubble/selection</t>
+  </si>
+  <si>
+    <t>shellsort/selection</t>
+  </si>
+  <si>
+    <t>quick/selection</t>
+  </si>
+  <si>
+    <t>merge/selection</t>
+  </si>
+  <si>
+    <t>insertion/selection</t>
+  </si>
+  <si>
+    <t>seslection/insesrtion</t>
+  </si>
+  <si>
+    <t>bubble/insertion</t>
+  </si>
+  <si>
+    <t>shell/insertion</t>
+  </si>
+  <si>
+    <t>quick/insertion</t>
+  </si>
+  <si>
+    <t>merge/insertion</t>
+  </si>
+  <si>
+    <t>insertion/merge</t>
+  </si>
+  <si>
+    <t>selction/merge</t>
+  </si>
+  <si>
+    <t>bubble/merge</t>
+  </si>
+  <si>
+    <t>shell/merge</t>
+  </si>
+  <si>
+    <t>quick/merge</t>
+  </si>
+  <si>
+    <t>merge/quick</t>
+  </si>
+  <si>
+    <t>insertion/quick</t>
+  </si>
+  <si>
+    <t>selection/quick</t>
+  </si>
+  <si>
+    <t>shell/quick</t>
+  </si>
+  <si>
+    <t>quick/shell</t>
+  </si>
+  <si>
+    <t>merge/shell</t>
+  </si>
+  <si>
+    <t>insertion/shell</t>
+  </si>
+  <si>
+    <t>selection/shell</t>
+  </si>
+  <si>
+    <t>shellsort/bubble</t>
+  </si>
+  <si>
+    <t>shell/log2(n) ~ insertion</t>
+  </si>
+  <si>
+    <t>if x/y &gt; 1 = n, then y is n times faster than x                    otherwise, x is 1/n times faster than  y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +424,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +453,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -482,12 +683,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,45 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,6 +834,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,6 +897,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6643,6 +6969,113 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$16:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8480000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4724000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6708E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2304000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4141999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0061999999999993E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7F6F-48D5-AFF6-50D009DD637B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -7208,126 +7641,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7F6F-48D5-AFF6-50D009DD637B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>Insertion Sort</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:prstDash val="lgDash"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:trendline>
-                  <c:spPr>
-                    <a:ln w="19050" cap="rnd">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:prstDash val="sysDot"/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:trendlineType val="power"/>
-                  <c:dispRSqr val="0"/>
-                  <c:dispEq val="0"/>
-                </c:trendline>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$16:$C$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>175000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>300000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>425000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>550000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$16:$L$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>0.56140385999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.2138705399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.8691384599999994</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>20.141167800000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>40.321519960000003</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>66.27940498000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-7F6F-48D5-AFF6-50D009DD637B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -7592,15 +7905,19 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
         <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
@@ -7609,8 +7926,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.13193231310097853"/>
           <c:y val="0.18759524796242574"/>
-          <c:w val="0.18255136601653571"/>
-          <c:h val="0.1552656444260257"/>
+          <c:w val="0.2263389301551694"/>
+          <c:h val="0.20133957362589888"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12511,7 +12828,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>588241</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>147205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12541,13 +12858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>897659</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>578717</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>148936</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12860,7 +13177,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>386485</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12898,7 +13215,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>440171</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>166255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12930,13 +13247,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>308841</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>440171</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12968,13 +13285,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>205611</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>51547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>383123</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>3633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13821,10 +14138,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AU39"/>
+  <dimension ref="A1:BI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+    <sheetView tabSelected="1" topLeftCell="S30" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU39" sqref="AC2:AU39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13840,65 +14157,107 @@
     <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.90625" customWidth="1"/>
+    <col min="41" max="41" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="15" t="s">
+    <row r="1" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AY1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="15" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
-      <c r="AD2" s="15" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="43"/>
+      <c r="AD2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="15" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="17"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="43"/>
+      <c r="AX2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="48"/>
     </row>
-    <row r="3" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -14019,30 +14378,56 @@
       <c r="AO3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AP3" s="38" t="s">
+      <c r="AP3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="AQ3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AR3" s="38" t="s">
+      <c r="AR3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="AS3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="38" t="s">
+      <c r="AT3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="41" t="s">
+      <c r="AU3" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="AX3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="47" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10">
@@ -14057,22 +14442,22 @@
       <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="15">
         <v>3.8503601000000001</v>
       </c>
       <c r="H4" s="13">
         <v>3.8283586000000001</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="15">
         <v>3.9090929000000001</v>
       </c>
       <c r="J4" s="13">
         <v>3.8392678</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="15">
         <v>3.8453523000000001</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="16">
         <f>AVERAGE(G4:K4)</f>
         <v>3.8544863399999998</v>
       </c>
@@ -14082,19 +14467,19 @@
       <c r="N4" s="13">
         <v>0.92794239999999995</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="15">
         <v>0.92337199999999997</v>
       </c>
       <c r="P4" s="13">
         <v>0.92662060000000002</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="15">
         <v>0.93493859999999995</v>
       </c>
       <c r="R4" s="13">
         <v>0.92477569999999998</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="16">
         <f>AVERAGE(N4:R4)</f>
         <v>0.92752985999999993</v>
       </c>
@@ -14116,51 +14501,51 @@
       <c r="Y4" s="13">
         <v>2.2142867000000002</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="16">
         <f>AVERAGE(U4:Y4)</f>
         <v>2.1795882600000001</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AC4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AD4" s="15">
         <v>3.8503601000000001</v>
       </c>
       <c r="AE4" s="13">
         <v>3.8283586000000001</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AF4" s="15">
         <v>3.9090929000000001</v>
       </c>
       <c r="AG4" s="13">
         <v>3.8392678</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="15">
         <v>3.8453523000000001</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4" s="16">
         <f>AVERAGE(AD4:AH4)</f>
         <v>3.8544863399999998</v>
       </c>
       <c r="AJ4" s="13">
         <v>0.92794239999999995</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AK4" s="15">
         <v>0.92337199999999997</v>
       </c>
       <c r="AL4" s="13">
         <v>0.92662060000000002</v>
       </c>
-      <c r="AM4" s="28">
+      <c r="AM4" s="15">
         <v>0.93493859999999995</v>
       </c>
       <c r="AN4" s="13">
         <v>0.92477569999999998</v>
       </c>
-      <c r="AO4" s="29">
+      <c r="AO4" s="16">
         <f>AVERAGE(AJ4:AN4)</f>
         <v>0.92752985999999993</v>
       </c>
@@ -14179,14 +14564,26 @@
       <c r="AT4" s="13">
         <v>2.2142867000000002</v>
       </c>
-      <c r="AU4" s="29">
+      <c r="AU4" s="16">
         <f>AVERAGE(AP4:AT4)</f>
         <v>2.1795882600000001</v>
       </c>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="48"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A5" s="54"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="5">
         <v>100000</v>
       </c>
@@ -14202,137 +14599,149 @@
         <f>D5*LOG(D5,2)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="17">
         <v>16.561350300000001</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="18">
         <v>16.374574200000001</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="17">
         <v>16.374686400000002</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="18">
         <v>16.345330799999999</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="17">
         <v>16.324471800000001</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="19">
         <f t="shared" ref="L5:L39" si="0">AVERAGE(G5:K5)</f>
         <v>16.396082700000001</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="20">
         <f>L5/L4</f>
         <v>4.2537659375905328</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="20">
         <v>3.7573869000000002</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="21">
         <v>3.6644293000000001</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="20">
         <v>3.6439064000000001</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="21">
         <v>3.9068008999999999</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="20">
         <v>3.9356388999999998</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="19">
         <f t="shared" ref="S5:S39" si="1">AVERAGE(N5:R5)</f>
         <v>3.7816324800000003</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="20">
         <f>S5/S4</f>
         <v>4.0771005259065198</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="20">
         <v>8.5239635000000007</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="20">
         <v>8.7298425000000002</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="20">
         <v>8.7067104999999998</v>
       </c>
-      <c r="X5" s="33">
+      <c r="X5" s="20">
         <v>8.7705885000000006</v>
       </c>
-      <c r="Y5" s="33">
+      <c r="Y5" s="20">
         <v>8.8558328999999993</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="19">
         <f t="shared" ref="Z5:Z39" si="2">AVERAGE(U5:Y5)</f>
         <v>8.7173875799999987</v>
       </c>
-      <c r="AA5" s="33">
+      <c r="AA5" s="20">
         <f>Z5/Z4</f>
         <v>3.9995570447787228</v>
       </c>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="30">
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="17">
         <v>16.561350300000001</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="18">
         <v>16.374574200000001</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="17">
         <v>16.374686400000002</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="18">
         <v>16.345330799999999</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="17">
         <v>16.324471800000001</v>
       </c>
-      <c r="AI5" s="32">
+      <c r="AI5" s="19">
         <f t="shared" ref="AI5:AI39" si="3">AVERAGE(AD5:AH5)</f>
         <v>16.396082700000001</v>
       </c>
-      <c r="AJ5" s="33">
+      <c r="AJ5" s="20">
         <v>3.7573869000000002</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AK5" s="21">
         <v>3.6644293000000001</v>
       </c>
-      <c r="AL5" s="33">
+      <c r="AL5" s="20">
         <v>3.6439064000000001</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AM5" s="21">
         <v>3.9068008999999999</v>
       </c>
-      <c r="AN5" s="33">
+      <c r="AN5" s="20">
         <v>3.9356388999999998</v>
       </c>
-      <c r="AO5" s="32">
+      <c r="AO5" s="19">
         <f t="shared" ref="AO5:AO39" si="4">AVERAGE(AJ5:AN5)</f>
         <v>3.7816324800000003</v>
       </c>
-      <c r="AP5" s="33">
+      <c r="AP5" s="20">
         <v>8.5239635000000007</v>
       </c>
-      <c r="AQ5" s="33">
+      <c r="AQ5" s="20">
         <v>8.7298425000000002</v>
       </c>
-      <c r="AR5" s="33">
+      <c r="AR5" s="20">
         <v>8.7067104999999998</v>
       </c>
-      <c r="AS5" s="33">
+      <c r="AS5" s="20">
         <v>8.7705885000000006</v>
       </c>
-      <c r="AT5" s="33">
+      <c r="AT5" s="20">
         <v>8.8558328999999993</v>
       </c>
-      <c r="AU5" s="32">
+      <c r="AU5" s="19">
         <f t="shared" ref="AU5:AU39" si="5">AVERAGE(AP5:AT5)</f>
         <v>8.7173875799999987</v>
       </c>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="48"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="5">
         <v>175000</v>
       </c>
@@ -14348,137 +14757,149 @@
         <f t="shared" ref="F6:F15" si="7">D6*LOG(D6,2)</f>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="17">
         <v>48.600735899999997</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="18">
         <v>48.680616000000001</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="17">
         <v>50.594881899999997</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="18">
         <v>49.578393699999999</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="17">
         <v>49.766435100000002</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>49.444212519999994</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="20">
         <f t="shared" ref="M6:M9" si="8">L6/L5</f>
         <v>3.0156113155003781</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="20">
         <v>11.5600103</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="21">
         <v>11.456926299999999</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="20">
         <v>11.4197589</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="21">
         <v>11.457620800000001</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="20">
         <v>11.718612800000001</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="19">
         <f t="shared" si="1"/>
         <v>11.52258582</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="20">
         <f t="shared" ref="T6:T9" si="9">S6/S5</f>
         <v>3.046987215426074</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="20">
         <v>26.128881199999999</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="20">
         <v>26.100149999999999</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="20">
         <v>26.571992900000001</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="20">
         <v>26.698799399999999</v>
       </c>
-      <c r="Y6" s="33">
+      <c r="Y6" s="20">
         <v>26.7329179</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="19">
         <f t="shared" si="2"/>
         <v>26.446548279999995</v>
       </c>
-      <c r="AA6" s="33">
+      <c r="AA6" s="20">
         <f t="shared" ref="AA6:AA9" si="10">Z6/Z5</f>
         <v>3.0337699267467926</v>
       </c>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="30">
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="17">
         <v>48.600735899999997</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AE6" s="18">
         <v>48.680616000000001</v>
       </c>
-      <c r="AF6" s="30">
+      <c r="AF6" s="17">
         <v>50.594881899999997</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AG6" s="18">
         <v>49.578393699999999</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="17">
         <v>49.766435100000002</v>
       </c>
-      <c r="AI6" s="32">
+      <c r="AI6" s="19">
         <f t="shared" si="3"/>
         <v>49.444212519999994</v>
       </c>
-      <c r="AJ6" s="33">
+      <c r="AJ6" s="20">
         <v>11.5600103</v>
       </c>
-      <c r="AK6" s="34">
+      <c r="AK6" s="21">
         <v>11.456926299999999</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="20">
         <v>11.4197589</v>
       </c>
-      <c r="AM6" s="34">
+      <c r="AM6" s="21">
         <v>11.457620800000001</v>
       </c>
-      <c r="AN6" s="33">
+      <c r="AN6" s="20">
         <v>11.718612800000001</v>
       </c>
-      <c r="AO6" s="32">
+      <c r="AO6" s="19">
         <f t="shared" si="4"/>
         <v>11.52258582</v>
       </c>
-      <c r="AP6" s="33">
+      <c r="AP6" s="20">
         <v>26.128881199999999</v>
       </c>
-      <c r="AQ6" s="33">
+      <c r="AQ6" s="20">
         <v>26.100149999999999</v>
       </c>
-      <c r="AR6" s="33">
+      <c r="AR6" s="20">
         <v>26.571992900000001</v>
       </c>
-      <c r="AS6" s="33">
+      <c r="AS6" s="20">
         <v>26.698799399999999</v>
       </c>
-      <c r="AT6" s="33">
+      <c r="AT6" s="20">
         <v>26.7329179</v>
       </c>
-      <c r="AU6" s="32">
+      <c r="AU6" s="19">
         <f t="shared" si="5"/>
         <v>26.446548279999995</v>
       </c>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="33"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="33"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="33"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="48"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5">
         <v>300000</v>
       </c>
@@ -14494,137 +14915,149 @@
         <f t="shared" si="7"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="17">
         <v>152.08774980000001</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="18">
         <v>150.29692499999999</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="17">
         <v>150.5528712</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="18">
         <v>151.22558119999999</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="17">
         <v>150.04175330000001</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="19">
         <f t="shared" si="0"/>
         <v>150.84097609999998</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="20">
         <f t="shared" si="8"/>
         <v>3.0507306803396936</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="20">
         <v>33.684926500000003</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="21">
         <v>33.663499600000002</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="20">
         <v>34.659556899999998</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="21">
         <v>34.500895300000003</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="20">
         <v>34.383432499999998</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="19">
         <f t="shared" si="1"/>
         <v>34.178462160000002</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="20">
         <f t="shared" si="9"/>
         <v>2.966214588801388</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="20">
         <v>80.369632699999997</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="20">
         <v>81.282623999999998</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="20">
         <v>81.875777400000004</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="20">
         <v>81.930251799999994</v>
       </c>
-      <c r="Y7" s="33">
+      <c r="Y7" s="20">
         <v>80.685685699999993</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="Z7" s="19">
         <f t="shared" si="2"/>
         <v>81.228794319999992</v>
       </c>
-      <c r="AA7" s="33">
+      <c r="AA7" s="20">
         <f t="shared" si="10"/>
         <v>3.0714327427533772</v>
       </c>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="30">
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="17">
         <v>152.08774980000001</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AE7" s="18">
         <v>150.29692499999999</v>
       </c>
-      <c r="AF7" s="30">
+      <c r="AF7" s="17">
         <v>150.5528712</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AG7" s="18">
         <v>151.22558119999999</v>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="17">
         <v>150.04175330000001</v>
       </c>
-      <c r="AI7" s="32">
+      <c r="AI7" s="19">
         <f t="shared" si="3"/>
         <v>150.84097609999998</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="20">
         <v>33.684926500000003</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="21">
         <v>33.663499600000002</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL7" s="20">
         <v>34.659556899999998</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="21">
         <v>34.500895300000003</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AN7" s="20">
         <v>34.383432499999998</v>
       </c>
-      <c r="AO7" s="32">
+      <c r="AO7" s="19">
         <f t="shared" si="4"/>
         <v>34.178462160000002</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="20">
         <v>80.369632699999997</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="20">
         <v>81.282623999999998</v>
       </c>
-      <c r="AR7" s="33">
+      <c r="AR7" s="20">
         <v>81.875777400000004</v>
       </c>
-      <c r="AS7" s="33">
+      <c r="AS7" s="20">
         <v>81.930251799999994</v>
       </c>
-      <c r="AT7" s="33">
+      <c r="AT7" s="20">
         <v>80.685685699999993</v>
       </c>
-      <c r="AU7" s="32">
+      <c r="AU7" s="19">
         <f t="shared" si="5"/>
         <v>81.228794319999992</v>
       </c>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="48"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="54"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5">
         <v>425000</v>
       </c>
@@ -14640,137 +15073,149 @@
         <f t="shared" si="7"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="17">
         <v>306.03274770000002</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="18">
         <v>306.99869000000001</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="17">
         <v>304.25347210000001</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="18">
         <v>310.62813629999999</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="17">
         <v>310.45732349999997</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
         <v>307.67407392000001</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="20">
         <f t="shared" si="8"/>
         <v>2.0397247609696425</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="20">
         <v>68.9593378</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="21">
         <v>68.857725700000003</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="20">
         <v>69.641427300000004</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="21">
         <v>68.382393399999998</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="20">
         <v>67.681019599999999</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="19">
         <f t="shared" si="1"/>
         <v>68.704380760000006</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="20">
         <f t="shared" si="9"/>
         <v>2.0101659471503854</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="20">
         <v>164.48117250000001</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="20">
         <v>156.06983550000001</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="20">
         <v>156.6599014</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="20">
         <v>159.75662489999999</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="20">
         <v>160.46309980000001</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="Z8" s="19">
         <f t="shared" si="2"/>
         <v>159.48612682000001</v>
       </c>
-      <c r="AA8" s="33">
+      <c r="AA8" s="20">
         <f t="shared" si="10"/>
         <v>1.963418614730462</v>
       </c>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="30">
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="17">
         <v>306.03274770000002</v>
       </c>
-      <c r="AE8" s="31">
+      <c r="AE8" s="18">
         <v>306.99869000000001</v>
       </c>
-      <c r="AF8" s="30">
+      <c r="AF8" s="17">
         <v>304.25347210000001</v>
       </c>
-      <c r="AG8" s="31">
+      <c r="AG8" s="18">
         <v>310.62813629999999</v>
       </c>
-      <c r="AH8" s="30">
+      <c r="AH8" s="17">
         <v>310.45732349999997</v>
       </c>
-      <c r="AI8" s="32">
+      <c r="AI8" s="19">
         <f t="shared" si="3"/>
         <v>307.67407392000001</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AJ8" s="20">
         <v>68.9593378</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK8" s="21">
         <v>68.857725700000003</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AL8" s="20">
         <v>69.641427300000004</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="21">
         <v>68.382393399999998</v>
       </c>
-      <c r="AN8" s="33">
+      <c r="AN8" s="20">
         <v>67.681019599999999</v>
       </c>
-      <c r="AO8" s="32">
+      <c r="AO8" s="19">
         <f t="shared" si="4"/>
         <v>68.704380760000006</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AP8" s="20">
         <v>164.48117250000001</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="20">
         <v>156.06983550000001</v>
       </c>
-      <c r="AR8" s="33">
+      <c r="AR8" s="20">
         <v>156.6599014</v>
       </c>
-      <c r="AS8" s="33">
+      <c r="AS8" s="20">
         <v>159.75662489999999</v>
       </c>
-      <c r="AT8" s="33">
+      <c r="AT8" s="20">
         <v>160.46309980000001</v>
       </c>
-      <c r="AU8" s="32">
+      <c r="AU8" s="19">
         <f t="shared" si="5"/>
         <v>159.48612682000001</v>
       </c>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="49"/>
     </row>
-    <row r="9" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="55"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6">
         <v>550000</v>
       </c>
@@ -14786,139 +15231,165 @@
         <f t="shared" si="7"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="22">
         <v>494.12157309999998</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="23">
         <v>501.75925389999998</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="22">
         <v>486.61969570000002</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="23">
         <v>494.65014029999998</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="22">
         <v>496.22755690000002</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="24">
         <f t="shared" si="0"/>
         <v>494.67564397999996</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="20">
         <f t="shared" si="8"/>
         <v>1.6077911202509161</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="25">
         <v>115.05571689999999</v>
       </c>
       <c r="O9" s="14">
         <v>114.62679730000001</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="25">
         <v>117.862792</v>
       </c>
       <c r="Q9" s="14">
         <v>117.619013</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="25">
         <v>116.91454210000001</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
         <v>116.41577226</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="20">
         <f t="shared" si="9"/>
         <v>1.6944446769219377</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="26">
         <v>270.1389375</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="26">
         <v>259.9608983</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="26">
         <v>263.655912</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="26">
         <v>259.37422320000002</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="26">
         <v>260.890017</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="24">
         <f t="shared" si="2"/>
         <v>262.80399759999995</v>
       </c>
-      <c r="AA9" s="33">
+      <c r="AA9" s="20">
         <f t="shared" si="10"/>
         <v>1.6478172919492053</v>
       </c>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="35">
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="22">
         <v>494.12157309999998</v>
       </c>
-      <c r="AE9" s="36">
+      <c r="AE9" s="23">
         <v>501.75925389999998</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="22">
         <v>486.61969570000002</v>
       </c>
-      <c r="AG9" s="36">
+      <c r="AG9" s="23">
         <v>494.65014029999998</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AH9" s="22">
         <v>496.22755690000002</v>
       </c>
-      <c r="AI9" s="37">
+      <c r="AI9" s="24">
         <f t="shared" si="3"/>
         <v>494.67564397999996</v>
       </c>
-      <c r="AJ9" s="38">
+      <c r="AJ9" s="25">
         <v>115.05571689999999</v>
       </c>
       <c r="AK9" s="14">
         <v>114.62679730000001</v>
       </c>
-      <c r="AL9" s="38">
+      <c r="AL9" s="25">
         <v>117.862792</v>
       </c>
       <c r="AM9" s="14">
         <v>117.619013</v>
       </c>
-      <c r="AN9" s="38">
+      <c r="AN9" s="25">
         <v>116.91454210000001</v>
       </c>
-      <c r="AO9" s="37">
+      <c r="AO9" s="24">
         <f t="shared" si="4"/>
         <v>116.41577226</v>
       </c>
-      <c r="AP9" s="39">
+      <c r="AP9" s="26">
         <v>270.1389375</v>
       </c>
-      <c r="AQ9" s="39">
+      <c r="AQ9" s="26">
         <v>259.9608983</v>
       </c>
-      <c r="AR9" s="39">
+      <c r="AR9" s="26">
         <v>263.655912</v>
       </c>
-      <c r="AS9" s="39">
+      <c r="AS9" s="26">
         <v>259.37422320000002</v>
       </c>
-      <c r="AT9" s="39">
+      <c r="AT9" s="26">
         <v>260.890017</v>
       </c>
-      <c r="AU9" s="37">
+      <c r="AU9" s="24">
         <f t="shared" si="5"/>
         <v>262.80399759999995</v>
       </c>
+      <c r="AX9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="47" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="10">
@@ -14933,22 +15404,22 @@
       <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="15">
         <v>0.89061100000000004</v>
       </c>
       <c r="H10" s="13">
         <v>0.86194709999999997</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="15">
         <v>0.87638539999999998</v>
       </c>
       <c r="J10" s="13">
         <v>0.87871900000000003</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="15">
         <v>0.84598700000000004</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
         <v>0.87072990000000006</v>
       </c>
@@ -14958,19 +15429,19 @@
       <c r="N10" s="13">
         <v>0.87028589999999995</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="15">
         <v>0.89422710000000005</v>
       </c>
       <c r="P10" s="13">
         <v>0.88075119999999996</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="15">
         <v>0.8716872</v>
       </c>
       <c r="R10" s="13">
         <v>0.89189050000000003</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="16">
         <f t="shared" si="1"/>
         <v>0.88176837999999991</v>
       </c>
@@ -14992,51 +15463,51 @@
       <c r="Y10" s="13">
         <v>0.88712849999999999</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="16">
         <f t="shared" si="2"/>
         <v>0.8840920000000001</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="42" t="s">
+      <c r="AC10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AD10" s="28">
+      <c r="AD10" s="15">
         <v>0.89061100000000004</v>
       </c>
       <c r="AE10" s="13">
         <v>0.86194709999999997</v>
       </c>
-      <c r="AF10" s="28">
+      <c r="AF10" s="15">
         <v>0.87638539999999998</v>
       </c>
       <c r="AG10" s="13">
         <v>0.87871900000000003</v>
       </c>
-      <c r="AH10" s="28">
+      <c r="AH10" s="15">
         <v>0.84598700000000004</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="16">
         <f t="shared" si="3"/>
         <v>0.87072990000000006</v>
       </c>
       <c r="AJ10" s="13">
         <v>0.87028589999999995</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="15">
         <v>0.89422710000000005</v>
       </c>
       <c r="AL10" s="13">
         <v>0.88075119999999996</v>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="15">
         <v>0.8716872</v>
       </c>
       <c r="AN10" s="13">
         <v>0.89189050000000003</v>
       </c>
-      <c r="AO10" s="29">
+      <c r="AO10" s="16">
         <f t="shared" si="4"/>
         <v>0.88176837999999991</v>
       </c>
@@ -15055,14 +15526,26 @@
       <c r="AT10" s="13">
         <v>0.88712849999999999</v>
       </c>
-      <c r="AU10" s="29">
+      <c r="AU10" s="16">
         <f t="shared" si="5"/>
         <v>0.8840920000000001</v>
       </c>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="48"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A11" s="54"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5">
         <v>100000</v>
       </c>
@@ -15078,137 +15561,149 @@
         <f>D11*LOG(D11,2)</f>
         <v>2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="17">
         <v>3.4680867000000002</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="18">
         <v>3.4940948000000001</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="17">
         <v>3.4456226999999999</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="18">
         <v>3.440439</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="17">
         <v>3.4791482999999999</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
         <v>3.4654782999999996</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="20">
         <f>L11/L10</f>
         <v>3.9799693337738824</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="20">
         <v>3.4719994999999999</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="21">
         <v>3.5226983000000001</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="20">
         <v>3.5195194999999999</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="21">
         <v>3.5085058999999998</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="20">
         <v>3.5381456999999998</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11" s="19">
         <f t="shared" si="1"/>
         <v>3.5121737799999999</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="20">
         <f>S11/S10</f>
         <v>3.9831024333170126</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="20">
         <v>3.5842619</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="20">
         <v>3.4624703999999999</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="20">
         <v>3.4977830000000001</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="20">
         <v>3.5559403000000001</v>
       </c>
-      <c r="Y11" s="33">
+      <c r="Y11" s="20">
         <v>3.6623644</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="19">
         <f t="shared" si="2"/>
         <v>3.5525640000000003</v>
       </c>
-      <c r="AA11" s="33">
+      <c r="AA11" s="20">
         <f>Z11/Z10</f>
         <v>4.0183193604285528</v>
       </c>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="30">
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="17">
         <v>3.4680867000000002</v>
       </c>
-      <c r="AE11" s="31">
+      <c r="AE11" s="18">
         <v>3.4940948000000001</v>
       </c>
-      <c r="AF11" s="30">
+      <c r="AF11" s="17">
         <v>3.4456226999999999</v>
       </c>
-      <c r="AG11" s="31">
+      <c r="AG11" s="18">
         <v>3.440439</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AH11" s="17">
         <v>3.4791482999999999</v>
       </c>
-      <c r="AI11" s="32">
+      <c r="AI11" s="19">
         <f t="shared" si="3"/>
         <v>3.4654782999999996</v>
       </c>
-      <c r="AJ11" s="33">
+      <c r="AJ11" s="20">
         <v>3.4719994999999999</v>
       </c>
-      <c r="AK11" s="34">
+      <c r="AK11" s="21">
         <v>3.5226983000000001</v>
       </c>
-      <c r="AL11" s="33">
+      <c r="AL11" s="20">
         <v>3.5195194999999999</v>
       </c>
-      <c r="AM11" s="34">
+      <c r="AM11" s="21">
         <v>3.5085058999999998</v>
       </c>
-      <c r="AN11" s="33">
+      <c r="AN11" s="20">
         <v>3.5381456999999998</v>
       </c>
-      <c r="AO11" s="32">
+      <c r="AO11" s="19">
         <f t="shared" si="4"/>
         <v>3.5121737799999999</v>
       </c>
-      <c r="AP11" s="33">
+      <c r="AP11" s="20">
         <v>3.5842619</v>
       </c>
-      <c r="AQ11" s="33">
+      <c r="AQ11" s="20">
         <v>3.4624703999999999</v>
       </c>
-      <c r="AR11" s="33">
+      <c r="AR11" s="20">
         <v>3.4977830000000001</v>
       </c>
-      <c r="AS11" s="33">
+      <c r="AS11" s="20">
         <v>3.5559403000000001</v>
       </c>
-      <c r="AT11" s="33">
+      <c r="AT11" s="20">
         <v>3.6623644</v>
       </c>
-      <c r="AU11" s="32">
+      <c r="AU11" s="19">
         <f t="shared" si="5"/>
         <v>3.5525640000000003</v>
       </c>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="48"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5">
         <v>175000</v>
       </c>
@@ -15224,137 +15719,149 @@
         <f t="shared" si="7"/>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="17">
         <v>10.414949500000001</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="18">
         <v>10.6478593</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="17">
         <v>11.105273499999999</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="18">
         <v>11.1216024</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="17">
         <v>11.2547915</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="19">
         <f t="shared" si="0"/>
         <v>10.908895239999998</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="20">
         <f t="shared" ref="M12:M15" si="11">L12/L11</f>
         <v>3.1478757896132259</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="20">
         <v>11.020503</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="21">
         <v>11.4371074</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="20">
         <v>11.233909199999999</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="21">
         <v>11.1973109</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="20">
         <v>11.1866425</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="19">
         <f t="shared" si="1"/>
         <v>11.215094599999999</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="20">
         <f t="shared" ref="T12:T15" si="12">S12/S11</f>
         <v>3.1932060605497714</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="20">
         <v>10.950929199999999</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="20">
         <v>11.0006199</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="20">
         <v>10.9295607</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="20">
         <v>10.917384699999999</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="20">
         <v>10.881433400000001</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="19">
         <f t="shared" si="2"/>
         <v>10.935985580000001</v>
       </c>
-      <c r="AA12" s="33">
+      <c r="AA12" s="20">
         <f t="shared" ref="AA12:AA15" si="13">Z12/Z11</f>
         <v>3.0783359793095917</v>
       </c>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="30">
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="17">
         <v>10.414949500000001</v>
       </c>
-      <c r="AE12" s="31">
+      <c r="AE12" s="18">
         <v>10.6478593</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AF12" s="17">
         <v>11.105273499999999</v>
       </c>
-      <c r="AG12" s="31">
+      <c r="AG12" s="18">
         <v>11.1216024</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AH12" s="17">
         <v>11.2547915</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="19">
         <f t="shared" si="3"/>
         <v>10.908895239999998</v>
       </c>
-      <c r="AJ12" s="33">
+      <c r="AJ12" s="20">
         <v>11.020503</v>
       </c>
-      <c r="AK12" s="34">
+      <c r="AK12" s="21">
         <v>11.4371074</v>
       </c>
-      <c r="AL12" s="33">
+      <c r="AL12" s="20">
         <v>11.233909199999999</v>
       </c>
-      <c r="AM12" s="34">
+      <c r="AM12" s="21">
         <v>11.1973109</v>
       </c>
-      <c r="AN12" s="33">
+      <c r="AN12" s="20">
         <v>11.1866425</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AO12" s="19">
         <f t="shared" si="4"/>
         <v>11.215094599999999</v>
       </c>
-      <c r="AP12" s="33">
+      <c r="AP12" s="20">
         <v>10.950929199999999</v>
       </c>
-      <c r="AQ12" s="33">
+      <c r="AQ12" s="20">
         <v>11.0006199</v>
       </c>
-      <c r="AR12" s="33">
+      <c r="AR12" s="20">
         <v>10.9295607</v>
       </c>
-      <c r="AS12" s="33">
+      <c r="AS12" s="20">
         <v>10.917384699999999</v>
       </c>
-      <c r="AT12" s="33">
+      <c r="AT12" s="20">
         <v>10.881433400000001</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AU12" s="19">
         <f t="shared" si="5"/>
         <v>10.935985580000001</v>
       </c>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="48"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A13" s="54"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="5">
         <v>300000</v>
       </c>
@@ -15370,137 +15877,149 @@
         <f t="shared" si="7"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="17">
         <v>31.609082699999998</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="18">
         <v>31.404137299999999</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="17">
         <v>31.480192200000001</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="18">
         <v>31.5979426</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="17">
         <v>31.548230499999999</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="19">
         <f t="shared" si="0"/>
         <v>31.52791706</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="20">
         <f t="shared" si="11"/>
         <v>2.8901109018258393</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="20">
         <v>32.693368399999997</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="21">
         <v>33.049621199999997</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="20">
         <v>33.194242600000003</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="21">
         <v>32.359794899999997</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="20">
         <v>32.084002900000002</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13" s="19">
         <f t="shared" si="1"/>
         <v>32.676205999999993</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="20">
         <f t="shared" si="12"/>
         <v>2.9135916517369367</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="20">
         <v>32.401791500000002</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="20">
         <v>31.927645399999999</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="20">
         <v>32.691670600000002</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="20">
         <v>32.610088500000003</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="20">
         <v>32.730861500000003</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="19">
         <f t="shared" si="2"/>
         <v>32.4724115</v>
       </c>
-      <c r="AA13" s="33">
+      <c r="AA13" s="20">
         <f t="shared" si="13"/>
         <v>2.96931732969604</v>
       </c>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="30">
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="17">
         <v>31.609082699999998</v>
       </c>
-      <c r="AE13" s="31">
+      <c r="AE13" s="18">
         <v>31.404137299999999</v>
       </c>
-      <c r="AF13" s="30">
+      <c r="AF13" s="17">
         <v>31.480192200000001</v>
       </c>
-      <c r="AG13" s="31">
+      <c r="AG13" s="18">
         <v>31.5979426</v>
       </c>
-      <c r="AH13" s="30">
+      <c r="AH13" s="17">
         <v>31.548230499999999</v>
       </c>
-      <c r="AI13" s="32">
+      <c r="AI13" s="19">
         <f t="shared" si="3"/>
         <v>31.52791706</v>
       </c>
-      <c r="AJ13" s="33">
+      <c r="AJ13" s="20">
         <v>32.693368399999997</v>
       </c>
-      <c r="AK13" s="34">
+      <c r="AK13" s="21">
         <v>33.049621199999997</v>
       </c>
-      <c r="AL13" s="33">
+      <c r="AL13" s="20">
         <v>33.194242600000003</v>
       </c>
-      <c r="AM13" s="34">
+      <c r="AM13" s="21">
         <v>32.359794899999997</v>
       </c>
-      <c r="AN13" s="33">
+      <c r="AN13" s="20">
         <v>32.084002900000002</v>
       </c>
-      <c r="AO13" s="32">
+      <c r="AO13" s="19">
         <f t="shared" si="4"/>
         <v>32.676205999999993</v>
       </c>
-      <c r="AP13" s="33">
+      <c r="AP13" s="20">
         <v>32.401791500000002</v>
       </c>
-      <c r="AQ13" s="33">
+      <c r="AQ13" s="20">
         <v>31.927645399999999</v>
       </c>
-      <c r="AR13" s="33">
+      <c r="AR13" s="20">
         <v>32.691670600000002</v>
       </c>
-      <c r="AS13" s="33">
+      <c r="AS13" s="20">
         <v>32.610088500000003</v>
       </c>
-      <c r="AT13" s="33">
+      <c r="AT13" s="20">
         <v>32.730861500000003</v>
       </c>
-      <c r="AU13" s="32">
+      <c r="AU13" s="19">
         <f t="shared" si="5"/>
         <v>32.4724115</v>
       </c>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="48"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="54"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="5">
         <v>425000</v>
       </c>
@@ -15516,137 +16035,149 @@
         <f t="shared" si="7"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="17">
         <v>64.806540699999999</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="18">
         <v>67.346581499999999</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="17">
         <v>68.409029599999997</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="18">
         <v>66.926253299999999</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="17">
         <v>66.027098600000002</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="19">
         <f t="shared" si="0"/>
         <v>66.703100739999996</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="20">
         <f t="shared" si="11"/>
         <v>2.1156837165315734</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="20">
         <v>66.032764799999995</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="21">
         <v>67.421672799999996</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="20">
         <v>65.350068699999994</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="21">
         <v>66.772015100000004</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="20">
         <v>64.619699600000004</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="19">
         <f t="shared" si="1"/>
         <v>66.039244200000013</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="20">
         <f t="shared" si="12"/>
         <v>2.0210193374347081</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="20">
         <v>64.892133400000006</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="20">
         <v>63.723070499999999</v>
       </c>
-      <c r="W14" s="33">
+      <c r="W14" s="20">
         <v>63.819937600000003</v>
       </c>
-      <c r="X14" s="33">
+      <c r="X14" s="20">
         <v>64.925417100000004</v>
       </c>
-      <c r="Y14" s="33">
+      <c r="Y14" s="20">
         <v>64.699296700000005</v>
       </c>
-      <c r="Z14" s="32">
+      <c r="Z14" s="19">
         <f t="shared" si="2"/>
         <v>64.411971059999999</v>
       </c>
-      <c r="AA14" s="33">
+      <c r="AA14" s="20">
         <f t="shared" si="13"/>
         <v>1.9835906261535272</v>
       </c>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="30">
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="17">
         <v>64.806540699999999</v>
       </c>
-      <c r="AE14" s="31">
+      <c r="AE14" s="18">
         <v>67.346581499999999</v>
       </c>
-      <c r="AF14" s="30">
+      <c r="AF14" s="17">
         <v>68.409029599999997</v>
       </c>
-      <c r="AG14" s="31">
+      <c r="AG14" s="18">
         <v>66.926253299999999</v>
       </c>
-      <c r="AH14" s="30">
+      <c r="AH14" s="17">
         <v>66.027098600000002</v>
       </c>
-      <c r="AI14" s="32">
+      <c r="AI14" s="19">
         <f t="shared" si="3"/>
         <v>66.703100739999996</v>
       </c>
-      <c r="AJ14" s="33">
+      <c r="AJ14" s="20">
         <v>66.032764799999995</v>
       </c>
-      <c r="AK14" s="34">
+      <c r="AK14" s="21">
         <v>67.421672799999996</v>
       </c>
-      <c r="AL14" s="33">
+      <c r="AL14" s="20">
         <v>65.350068699999994</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="21">
         <v>66.772015100000004</v>
       </c>
-      <c r="AN14" s="33">
+      <c r="AN14" s="20">
         <v>64.619699600000004</v>
       </c>
-      <c r="AO14" s="32">
+      <c r="AO14" s="19">
         <f t="shared" si="4"/>
         <v>66.039244200000013</v>
       </c>
-      <c r="AP14" s="33">
+      <c r="AP14" s="20">
         <v>64.892133400000006</v>
       </c>
-      <c r="AQ14" s="33">
+      <c r="AQ14" s="20">
         <v>63.723070499999999</v>
       </c>
-      <c r="AR14" s="33">
+      <c r="AR14" s="20">
         <v>63.819937600000003</v>
       </c>
-      <c r="AS14" s="33">
+      <c r="AS14" s="20">
         <v>64.925417100000004</v>
       </c>
-      <c r="AT14" s="33">
+      <c r="AT14" s="20">
         <v>64.699296700000005</v>
       </c>
-      <c r="AU14" s="32">
+      <c r="AU14" s="19">
         <f t="shared" si="5"/>
         <v>64.411971059999999</v>
       </c>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="49"/>
     </row>
-    <row r="15" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6">
         <v>550000</v>
       </c>
@@ -15662,139 +16193,165 @@
         <f t="shared" si="7"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="22">
         <v>106.85748359999999</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="23">
         <v>108.0880851</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="22">
         <v>108.83800890000001</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="23">
         <v>112.7331027</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="22">
         <v>112.1012817</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="24">
         <f t="shared" si="0"/>
         <v>109.7235924</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="20">
         <f t="shared" si="11"/>
         <v>1.6449548998882118</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="25">
         <v>108.3689445</v>
       </c>
       <c r="O15" s="14">
         <v>112.7772246</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="25">
         <v>112.5805323</v>
       </c>
       <c r="Q15" s="14">
         <v>111.0175593</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="25">
         <v>109.3390679</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
         <v>110.81666572000002</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="20">
         <f t="shared" si="12"/>
         <v>1.6780426103059489</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="25">
         <v>110.4811869</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="25">
         <v>109.1348787</v>
       </c>
-      <c r="W15" s="38">
+      <c r="W15" s="25">
         <v>107.7225772</v>
       </c>
-      <c r="X15" s="38">
+      <c r="X15" s="25">
         <v>113.56047649999999</v>
       </c>
-      <c r="Y15" s="38">
+      <c r="Y15" s="25">
         <v>113.26993659999999</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="24">
         <f t="shared" si="2"/>
         <v>110.83381118</v>
       </c>
-      <c r="AA15" s="33">
+      <c r="AA15" s="20">
         <f t="shared" si="13"/>
         <v>1.7207020582673658</v>
       </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="35">
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="22">
         <v>106.85748359999999</v>
       </c>
-      <c r="AE15" s="36">
+      <c r="AE15" s="23">
         <v>108.0880851</v>
       </c>
-      <c r="AF15" s="35">
+      <c r="AF15" s="22">
         <v>108.83800890000001</v>
       </c>
-      <c r="AG15" s="36">
+      <c r="AG15" s="23">
         <v>112.7331027</v>
       </c>
-      <c r="AH15" s="35">
+      <c r="AH15" s="22">
         <v>112.1012817</v>
       </c>
-      <c r="AI15" s="37">
+      <c r="AI15" s="24">
         <f t="shared" si="3"/>
         <v>109.7235924</v>
       </c>
-      <c r="AJ15" s="38">
+      <c r="AJ15" s="25">
         <v>108.3689445</v>
       </c>
       <c r="AK15" s="14">
         <v>112.7772246</v>
       </c>
-      <c r="AL15" s="38">
+      <c r="AL15" s="25">
         <v>112.5805323</v>
       </c>
       <c r="AM15" s="14">
         <v>111.0175593</v>
       </c>
-      <c r="AN15" s="38">
+      <c r="AN15" s="25">
         <v>109.3390679</v>
       </c>
-      <c r="AO15" s="37">
+      <c r="AO15" s="24">
         <f t="shared" si="4"/>
         <v>110.81666572000002</v>
       </c>
-      <c r="AP15" s="38">
+      <c r="AP15" s="25">
         <v>110.4811869</v>
       </c>
-      <c r="AQ15" s="38">
+      <c r="AQ15" s="25">
         <v>109.1348787</v>
       </c>
-      <c r="AR15" s="38">
+      <c r="AR15" s="25">
         <v>107.7225772</v>
       </c>
-      <c r="AS15" s="38">
+      <c r="AS15" s="25">
         <v>113.56047649999999</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="25">
         <v>113.26993659999999</v>
       </c>
-      <c r="AU15" s="37">
+      <c r="AU15" s="24">
         <f t="shared" si="5"/>
         <v>110.83381118</v>
       </c>
+      <c r="AX15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="47" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10">
@@ -15809,136 +16366,148 @@
       <c r="F16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="15">
         <v>0.56881490000000001</v>
       </c>
       <c r="H16" s="13">
         <v>0.55758560000000001</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="15">
         <v>0.55917830000000002</v>
       </c>
       <c r="J16" s="13">
         <v>0.55991429999999998</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="15">
         <v>0.56152619999999998</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
         <v>0.56140385999999998</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="20">
         <v>7.5699999999999997E-5</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="21">
         <v>1.8870000000000001E-4</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="20">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="21">
         <v>6.6299999999999999E-5</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="20">
         <v>8.6700000000000007E-5</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="16">
         <f t="shared" si="1"/>
         <v>9.8480000000000006E-5</v>
       </c>
       <c r="T16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="20">
         <v>1.0876026000000001</v>
       </c>
-      <c r="V16" s="33">
+      <c r="V16" s="20">
         <v>1.1079417</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="20">
         <v>1.1222122999999999</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="20">
         <v>1.1188175</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="20">
         <v>1.1501872</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="16">
         <f t="shared" si="2"/>
         <v>1.1173522599999999</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="42" t="s">
+      <c r="AC16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AD16" s="28">
+      <c r="AD16" s="15">
         <v>0.56881490000000001</v>
       </c>
       <c r="AE16" s="13">
         <v>0.55758560000000001</v>
       </c>
-      <c r="AF16" s="28">
+      <c r="AF16" s="15">
         <v>0.55917830000000002</v>
       </c>
       <c r="AG16" s="13">
         <v>0.55991429999999998</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="15">
         <v>0.56152619999999998</v>
       </c>
-      <c r="AI16" s="29">
+      <c r="AI16" s="16">
         <f t="shared" si="3"/>
         <v>0.56140385999999998</v>
       </c>
-      <c r="AJ16" s="33">
+      <c r="AJ16" s="20">
         <v>7.5699999999999997E-5</v>
       </c>
-      <c r="AK16" s="34">
+      <c r="AK16" s="21">
         <v>1.8870000000000001E-4</v>
       </c>
-      <c r="AL16" s="33">
+      <c r="AL16" s="20">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="21">
         <v>6.6299999999999999E-5</v>
       </c>
-      <c r="AN16" s="33">
+      <c r="AN16" s="20">
         <v>8.6700000000000007E-5</v>
       </c>
-      <c r="AO16" s="29">
+      <c r="AO16" s="16">
         <f t="shared" si="4"/>
         <v>9.8480000000000006E-5</v>
       </c>
-      <c r="AP16" s="33">
+      <c r="AP16" s="20">
         <v>1.0876026000000001</v>
       </c>
-      <c r="AQ16" s="33">
+      <c r="AQ16" s="20">
         <v>1.1079417</v>
       </c>
-      <c r="AR16" s="33">
+      <c r="AR16" s="20">
         <v>1.1222122999999999</v>
       </c>
-      <c r="AS16" s="33">
+      <c r="AS16" s="20">
         <v>1.1188175</v>
       </c>
-      <c r="AT16" s="33">
+      <c r="AT16" s="20">
         <v>1.1501872</v>
       </c>
-      <c r="AU16" s="29">
+      <c r="AU16" s="16">
         <f t="shared" si="5"/>
         <v>1.1173522599999999</v>
       </c>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="48"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5">
         <v>100000</v>
       </c>
@@ -15954,137 +16523,149 @@
         <f>D17*LOG(D17,2)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="17">
         <v>2.2090855999999999</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="18">
         <v>2.2099932999999998</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="17">
         <v>2.2098876999999999</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="18">
         <v>2.2130524</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="17">
         <v>2.2273337</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>2.2138705399999998</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="20">
         <f>L17/L16</f>
         <v>3.9434544322513205</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="20">
         <v>1.461E-4</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="21">
         <v>1.3449999999999999E-4</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="20">
         <v>1.349E-4</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="21">
         <v>1.526E-4</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="20">
         <v>1.6809999999999999E-4</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="19">
         <f t="shared" si="1"/>
         <v>1.4724000000000001E-4</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="20">
         <f>S17/S16</f>
         <v>1.4951259138911455</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="20">
         <v>4.2625006000000001</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="20">
         <v>4.2710279</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="20">
         <v>4.2785130999999996</v>
       </c>
-      <c r="X17" s="33">
+      <c r="X17" s="20">
         <v>4.414866</v>
       </c>
-      <c r="Y17" s="33">
+      <c r="Y17" s="20">
         <v>4.4334512999999998</v>
       </c>
-      <c r="Z17" s="32">
+      <c r="Z17" s="19">
         <f t="shared" si="2"/>
         <v>4.3320717799999997</v>
       </c>
-      <c r="AA17" s="33">
+      <c r="AA17" s="20">
         <f>Z17/Z16</f>
         <v>3.8770868732122135</v>
       </c>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="30">
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="17">
         <v>2.2090855999999999</v>
       </c>
-      <c r="AE17" s="31">
+      <c r="AE17" s="18">
         <v>2.2099932999999998</v>
       </c>
-      <c r="AF17" s="30">
+      <c r="AF17" s="17">
         <v>2.2098876999999999</v>
       </c>
-      <c r="AG17" s="31">
+      <c r="AG17" s="18">
         <v>2.2130524</v>
       </c>
-      <c r="AH17" s="30">
+      <c r="AH17" s="17">
         <v>2.2273337</v>
       </c>
-      <c r="AI17" s="32">
+      <c r="AI17" s="19">
         <f t="shared" si="3"/>
         <v>2.2138705399999998</v>
       </c>
-      <c r="AJ17" s="33">
+      <c r="AJ17" s="20">
         <v>1.461E-4</v>
       </c>
-      <c r="AK17" s="34">
+      <c r="AK17" s="21">
         <v>1.3449999999999999E-4</v>
       </c>
-      <c r="AL17" s="33">
+      <c r="AL17" s="20">
         <v>1.349E-4</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AM17" s="21">
         <v>1.526E-4</v>
       </c>
-      <c r="AN17" s="33">
+      <c r="AN17" s="20">
         <v>1.6809999999999999E-4</v>
       </c>
-      <c r="AO17" s="32">
+      <c r="AO17" s="19">
         <f t="shared" si="4"/>
         <v>1.4724000000000001E-4</v>
       </c>
-      <c r="AP17" s="33">
+      <c r="AP17" s="20">
         <v>4.2625006000000001</v>
       </c>
-      <c r="AQ17" s="33">
+      <c r="AQ17" s="20">
         <v>4.2710279</v>
       </c>
-      <c r="AR17" s="33">
+      <c r="AR17" s="20">
         <v>4.2785130999999996</v>
       </c>
-      <c r="AS17" s="33">
+      <c r="AS17" s="20">
         <v>4.414866</v>
       </c>
-      <c r="AT17" s="33">
+      <c r="AT17" s="20">
         <v>4.4334512999999998</v>
       </c>
-      <c r="AU17" s="32">
+      <c r="AU17" s="19">
         <f t="shared" si="5"/>
         <v>4.3320717799999997</v>
       </c>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="48"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="5">
         <v>175000</v>
       </c>
@@ -16100,137 +16681,149 @@
         <f t="shared" ref="F18:F21" si="15">D18*LOG(D18,2)</f>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="17">
         <v>6.9506424000000004</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="18">
         <v>7.0344553000000003</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="17">
         <v>6.7976302999999998</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="18">
         <v>6.7455376999999999</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="17">
         <v>6.8174266000000001</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>6.8691384599999994</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="20">
         <f t="shared" ref="M18:M21" si="16">L18/L17</f>
         <v>3.1027733265740101</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="20">
         <v>2.5149999999999999E-4</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="21">
         <v>2.2690000000000001E-4</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="20">
         <v>2.2379999999999999E-4</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="21">
         <v>2.4630000000000002E-4</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="20">
         <v>3.8690000000000003E-4</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="19">
         <f t="shared" si="1"/>
         <v>2.6708E-4</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="20">
         <f t="shared" ref="T18:T21" si="17">S18/S17</f>
         <v>1.8139092637870142</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="20">
         <v>13.047761400000001</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="20">
         <v>13.382273700000001</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W18" s="20">
         <v>13.371559899999999</v>
       </c>
-      <c r="X18" s="33">
+      <c r="X18" s="20">
         <v>13.411699499999999</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y18" s="20">
         <v>13.5598308</v>
       </c>
-      <c r="Z18" s="32">
+      <c r="Z18" s="19">
         <f t="shared" si="2"/>
         <v>13.35462506</v>
       </c>
-      <c r="AA18" s="33">
+      <c r="AA18" s="20">
         <f t="shared" ref="AA18:AA21" si="18">Z18/Z17</f>
         <v>3.0827340215493848</v>
       </c>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="30">
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="17">
         <v>6.9506424000000004</v>
       </c>
-      <c r="AE18" s="31">
+      <c r="AE18" s="18">
         <v>7.0344553000000003</v>
       </c>
-      <c r="AF18" s="30">
+      <c r="AF18" s="17">
         <v>6.7976302999999998</v>
       </c>
-      <c r="AG18" s="31">
+      <c r="AG18" s="18">
         <v>6.7455376999999999</v>
       </c>
-      <c r="AH18" s="30">
+      <c r="AH18" s="17">
         <v>6.8174266000000001</v>
       </c>
-      <c r="AI18" s="32">
+      <c r="AI18" s="19">
         <f t="shared" si="3"/>
         <v>6.8691384599999994</v>
       </c>
-      <c r="AJ18" s="33">
+      <c r="AJ18" s="20">
         <v>2.5149999999999999E-4</v>
       </c>
-      <c r="AK18" s="34">
+      <c r="AK18" s="21">
         <v>2.2690000000000001E-4</v>
       </c>
-      <c r="AL18" s="33">
+      <c r="AL18" s="20">
         <v>2.2379999999999999E-4</v>
       </c>
-      <c r="AM18" s="34">
+      <c r="AM18" s="21">
         <v>2.4630000000000002E-4</v>
       </c>
-      <c r="AN18" s="33">
+      <c r="AN18" s="20">
         <v>3.8690000000000003E-4</v>
       </c>
-      <c r="AO18" s="32">
+      <c r="AO18" s="19">
         <f t="shared" si="4"/>
         <v>2.6708E-4</v>
       </c>
-      <c r="AP18" s="33">
+      <c r="AP18" s="20">
         <v>13.047761400000001</v>
       </c>
-      <c r="AQ18" s="33">
+      <c r="AQ18" s="20">
         <v>13.382273700000001</v>
       </c>
-      <c r="AR18" s="33">
+      <c r="AR18" s="20">
         <v>13.371559899999999</v>
       </c>
-      <c r="AS18" s="33">
+      <c r="AS18" s="20">
         <v>13.411699499999999</v>
       </c>
-      <c r="AT18" s="33">
+      <c r="AT18" s="20">
         <v>13.5598308</v>
       </c>
-      <c r="AU18" s="32">
+      <c r="AU18" s="19">
         <f t="shared" si="5"/>
         <v>13.35462506</v>
       </c>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="48"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A19" s="54"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="5">
         <v>300000</v>
       </c>
@@ -16246,137 +16839,149 @@
         <f t="shared" si="15"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="17">
         <v>20.277472100000001</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="18">
         <v>20.1713916</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="17">
         <v>20.147594600000001</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="18">
         <v>19.9725334</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="17">
         <v>20.136847299999999</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>20.141167800000002</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="20">
         <f t="shared" si="16"/>
         <v>2.9321243001993591</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="20">
         <v>7.1239999999999997E-4</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="21">
         <v>6.2410000000000005E-4</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="20">
         <v>3.8559999999999999E-4</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="21">
         <v>4.6359999999999999E-4</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="20">
         <v>4.2949999999999998E-4</v>
       </c>
-      <c r="S19" s="32">
+      <c r="S19" s="19">
         <f t="shared" si="1"/>
         <v>5.2304000000000001E-4</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="20">
         <f t="shared" si="17"/>
         <v>1.9583645349707952</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="20">
         <v>40.860741099999998</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="20">
         <v>41.030571199999997</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="20">
         <v>41.041561199999997</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="20">
         <v>41.311354899999998</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="20">
         <v>41.462623999999998</v>
       </c>
-      <c r="Z19" s="32">
+      <c r="Z19" s="19">
         <f t="shared" si="2"/>
         <v>41.141370479999999</v>
       </c>
-      <c r="AA19" s="33">
+      <c r="AA19" s="20">
         <f t="shared" si="18"/>
         <v>3.0806833059826841</v>
       </c>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="30">
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="17">
         <v>20.277472100000001</v>
       </c>
-      <c r="AE19" s="31">
+      <c r="AE19" s="18">
         <v>20.1713916</v>
       </c>
-      <c r="AF19" s="30">
+      <c r="AF19" s="17">
         <v>20.147594600000001</v>
       </c>
-      <c r="AG19" s="31">
+      <c r="AG19" s="18">
         <v>19.9725334</v>
       </c>
-      <c r="AH19" s="30">
+      <c r="AH19" s="17">
         <v>20.136847299999999</v>
       </c>
-      <c r="AI19" s="32">
+      <c r="AI19" s="19">
         <f t="shared" si="3"/>
         <v>20.141167800000002</v>
       </c>
-      <c r="AJ19" s="33">
+      <c r="AJ19" s="20">
         <v>7.1239999999999997E-4</v>
       </c>
-      <c r="AK19" s="34">
+      <c r="AK19" s="21">
         <v>6.2410000000000005E-4</v>
       </c>
-      <c r="AL19" s="33">
+      <c r="AL19" s="20">
         <v>3.8559999999999999E-4</v>
       </c>
-      <c r="AM19" s="34">
+      <c r="AM19" s="21">
         <v>4.6359999999999999E-4</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AN19" s="20">
         <v>4.2949999999999998E-4</v>
       </c>
-      <c r="AO19" s="32">
+      <c r="AO19" s="19">
         <f t="shared" si="4"/>
         <v>5.2304000000000001E-4</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AP19" s="20">
         <v>40.860741099999998</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="20">
         <v>41.030571199999997</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="20">
         <v>41.041561199999997</v>
       </c>
-      <c r="AS19" s="33">
+      <c r="AS19" s="20">
         <v>41.311354899999998</v>
       </c>
-      <c r="AT19" s="33">
+      <c r="AT19" s="20">
         <v>41.462623999999998</v>
       </c>
-      <c r="AU19" s="32">
+      <c r="AU19" s="19">
         <f t="shared" si="5"/>
         <v>41.141370479999999</v>
       </c>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="48"/>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="54"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="5">
         <v>425000</v>
       </c>
@@ -16392,137 +16997,149 @@
         <f t="shared" si="15"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="17">
         <v>40.442981699999997</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="18">
         <v>40.685719800000001</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="17">
         <v>40.1152856</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="18">
         <v>40.119763800000001</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="17">
         <v>40.243848900000003</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>40.321519960000003</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="20">
         <f t="shared" si="16"/>
         <v>2.0019454860010648</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="18">
         <v>6.5850000000000001E-4</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="17">
         <v>6.826E-4</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="18">
         <v>6.045E-4</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="17">
         <v>6.5220000000000002E-4</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="18">
         <v>6.0930000000000001E-4</v>
       </c>
-      <c r="S20" s="32">
+      <c r="S20" s="19">
         <f t="shared" si="1"/>
         <v>6.4141999999999997E-4</v>
       </c>
-      <c r="T20" s="33">
+      <c r="T20" s="20">
         <f t="shared" si="17"/>
         <v>1.2263306821657998</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="20">
         <v>81.621755300000004</v>
       </c>
-      <c r="V20" s="33">
+      <c r="V20" s="20">
         <v>83.471276399999994</v>
       </c>
-      <c r="W20" s="33">
+      <c r="W20" s="20">
         <v>82.813548100000006</v>
       </c>
-      <c r="X20" s="33">
+      <c r="X20" s="20">
         <v>82.310394000000002</v>
       </c>
-      <c r="Y20" s="33">
+      <c r="Y20" s="20">
         <v>81.754149699999999</v>
       </c>
-      <c r="Z20" s="32">
+      <c r="Z20" s="19">
         <f t="shared" si="2"/>
         <v>82.394224699999995</v>
       </c>
-      <c r="AA20" s="33">
+      <c r="AA20" s="20">
         <f t="shared" si="18"/>
         <v>2.0027097721514697</v>
       </c>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="30">
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="17">
         <v>40.442981699999997</v>
       </c>
-      <c r="AE20" s="31">
+      <c r="AE20" s="18">
         <v>40.685719800000001</v>
       </c>
-      <c r="AF20" s="30">
+      <c r="AF20" s="17">
         <v>40.1152856</v>
       </c>
-      <c r="AG20" s="31">
+      <c r="AG20" s="18">
         <v>40.119763800000001</v>
       </c>
-      <c r="AH20" s="30">
+      <c r="AH20" s="17">
         <v>40.243848900000003</v>
       </c>
-      <c r="AI20" s="32">
+      <c r="AI20" s="19">
         <f t="shared" si="3"/>
         <v>40.321519960000003</v>
       </c>
-      <c r="AJ20" s="31">
+      <c r="AJ20" s="18">
         <v>6.5850000000000001E-4</v>
       </c>
-      <c r="AK20" s="30">
+      <c r="AK20" s="17">
         <v>6.826E-4</v>
       </c>
-      <c r="AL20" s="31">
+      <c r="AL20" s="18">
         <v>6.045E-4</v>
       </c>
-      <c r="AM20" s="30">
+      <c r="AM20" s="17">
         <v>6.5220000000000002E-4</v>
       </c>
-      <c r="AN20" s="31">
+      <c r="AN20" s="18">
         <v>6.0930000000000001E-4</v>
       </c>
-      <c r="AO20" s="32">
+      <c r="AO20" s="19">
         <f t="shared" si="4"/>
         <v>6.4141999999999997E-4</v>
       </c>
-      <c r="AP20" s="33">
+      <c r="AP20" s="20">
         <v>81.621755300000004</v>
       </c>
-      <c r="AQ20" s="33">
+      <c r="AQ20" s="20">
         <v>83.471276399999994</v>
       </c>
-      <c r="AR20" s="33">
+      <c r="AR20" s="20">
         <v>82.813548100000006</v>
       </c>
-      <c r="AS20" s="33">
+      <c r="AS20" s="20">
         <v>82.310394000000002</v>
       </c>
-      <c r="AT20" s="33">
+      <c r="AT20" s="20">
         <v>81.754149699999999</v>
       </c>
-      <c r="AU20" s="32">
+      <c r="AU20" s="19">
         <f t="shared" si="5"/>
         <v>82.394224699999995</v>
       </c>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="49"/>
     </row>
-    <row r="21" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="55"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="6">
         <v>550000</v>
       </c>
@@ -16538,139 +17155,165 @@
         <f t="shared" si="15"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="22">
         <v>66.8108407</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="23">
         <v>66.047149899999994</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="22">
         <v>65.774078099999997</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="23">
         <v>65.870783200000005</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="22">
         <v>66.894172999999995</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="24">
         <f t="shared" si="0"/>
         <v>66.27940498000001</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="20">
         <f t="shared" si="16"/>
         <v>1.6437724829260132</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="20">
         <v>7.2639999999999998E-4</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="21">
         <v>9.6409999999999996E-4</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="20">
         <v>7.7450000000000001E-4</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="21">
         <v>7.7050000000000003E-4</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="20">
         <v>7.6760000000000001E-4</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="24">
         <f t="shared" si="1"/>
         <v>8.0061999999999993E-4</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="20">
         <f t="shared" si="17"/>
         <v>1.2481993077858502</v>
       </c>
-      <c r="U21" s="39">
+      <c r="U21" s="26">
         <v>141.31139619999999</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="26">
         <v>139.90312180000001</v>
       </c>
-      <c r="W21" s="39">
+      <c r="W21" s="26">
         <v>132.35164900000001</v>
       </c>
-      <c r="X21" s="39">
+      <c r="X21" s="26">
         <v>133.54685269999999</v>
       </c>
-      <c r="Y21" s="39">
+      <c r="Y21" s="26">
         <v>132.62209770000001</v>
       </c>
-      <c r="Z21" s="37">
+      <c r="Z21" s="24">
         <f t="shared" si="2"/>
         <v>135.94702348000001</v>
       </c>
-      <c r="AA21" s="33">
+      <c r="AA21" s="20">
         <f t="shared" si="18"/>
         <v>1.6499581612059275</v>
       </c>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="35">
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="22">
         <v>66.8108407</v>
       </c>
-      <c r="AE21" s="36">
+      <c r="AE21" s="23">
         <v>66.047149899999994</v>
       </c>
-      <c r="AF21" s="35">
+      <c r="AF21" s="22">
         <v>65.774078099999997</v>
       </c>
-      <c r="AG21" s="36">
+      <c r="AG21" s="23">
         <v>65.870783200000005</v>
       </c>
-      <c r="AH21" s="35">
+      <c r="AH21" s="22">
         <v>66.894172999999995</v>
       </c>
-      <c r="AI21" s="37">
+      <c r="AI21" s="24">
         <f t="shared" si="3"/>
         <v>66.27940498000001</v>
       </c>
-      <c r="AJ21" s="33">
+      <c r="AJ21" s="20">
         <v>7.2639999999999998E-4</v>
       </c>
-      <c r="AK21" s="34">
+      <c r="AK21" s="21">
         <v>9.6409999999999996E-4</v>
       </c>
-      <c r="AL21" s="33">
+      <c r="AL21" s="20">
         <v>7.7450000000000001E-4</v>
       </c>
-      <c r="AM21" s="34">
+      <c r="AM21" s="21">
         <v>7.7050000000000003E-4</v>
       </c>
-      <c r="AN21" s="33">
+      <c r="AN21" s="20">
         <v>7.6760000000000001E-4</v>
       </c>
-      <c r="AO21" s="37">
+      <c r="AO21" s="24">
         <f t="shared" si="4"/>
         <v>8.0061999999999993E-4</v>
       </c>
-      <c r="AP21" s="39">
+      <c r="AP21" s="26">
         <v>141.31139619999999</v>
       </c>
-      <c r="AQ21" s="39">
+      <c r="AQ21" s="26">
         <v>139.90312180000001</v>
       </c>
-      <c r="AR21" s="39">
+      <c r="AR21" s="26">
         <v>132.35164900000001</v>
       </c>
-      <c r="AS21" s="39">
+      <c r="AS21" s="26">
         <v>133.54685269999999</v>
       </c>
-      <c r="AT21" s="39">
+      <c r="AT21" s="26">
         <v>132.62209770000001</v>
       </c>
-      <c r="AU21" s="37">
+      <c r="AU21" s="24">
         <f t="shared" si="5"/>
         <v>135.94702348000001</v>
       </c>
+      <c r="AX21" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="47" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="10">
@@ -16685,22 +17328,22 @@
       <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="15">
         <v>3.3158E-2</v>
       </c>
       <c r="H22" s="13">
         <v>2.49926E-2</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="15">
         <v>2.7162499999999999E-2</v>
       </c>
       <c r="J22" s="13">
         <v>2.4784899999999999E-2</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="15">
         <v>2.65524E-2</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="16">
         <f t="shared" si="0"/>
         <v>2.733008E-2</v>
       </c>
@@ -16710,19 +17353,19 @@
       <c r="N22" s="13">
         <v>3.5959900000000003E-2</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="15">
         <v>3.2436899999999998E-2</v>
       </c>
       <c r="P22" s="13">
         <v>3.1760799999999999E-2</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="15">
         <v>3.2480099999999998E-2</v>
       </c>
       <c r="R22" s="13">
         <v>2.9645700000000001E-2</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="16">
         <f t="shared" si="1"/>
         <v>3.2456680000000002E-2</v>
       </c>
@@ -16744,51 +17387,51 @@
       <c r="Y22" s="13">
         <v>2.05493E-2</v>
       </c>
-      <c r="Z22" s="29">
+      <c r="Z22" s="16">
         <f t="shared" si="2"/>
         <v>2.1009380000000001E-2</v>
       </c>
       <c r="AA22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="42" t="s">
+      <c r="AC22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AD22" s="28">
+      <c r="AD22" s="15">
         <v>3.3158E-2</v>
       </c>
       <c r="AE22" s="13">
         <v>2.49926E-2</v>
       </c>
-      <c r="AF22" s="28">
+      <c r="AF22" s="15">
         <v>2.7162499999999999E-2</v>
       </c>
       <c r="AG22" s="13">
         <v>2.4784899999999999E-2</v>
       </c>
-      <c r="AH22" s="28">
+      <c r="AH22" s="15">
         <v>2.65524E-2</v>
       </c>
-      <c r="AI22" s="29">
+      <c r="AI22" s="16">
         <f t="shared" si="3"/>
         <v>2.733008E-2</v>
       </c>
       <c r="AJ22" s="13">
         <v>3.5959900000000003E-2</v>
       </c>
-      <c r="AK22" s="28">
+      <c r="AK22" s="15">
         <v>3.2436899999999998E-2</v>
       </c>
       <c r="AL22" s="13">
         <v>3.1760799999999999E-2</v>
       </c>
-      <c r="AM22" s="28">
+      <c r="AM22" s="15">
         <v>3.2480099999999998E-2</v>
       </c>
       <c r="AN22" s="13">
         <v>2.9645700000000001E-2</v>
       </c>
-      <c r="AO22" s="29">
+      <c r="AO22" s="16">
         <f t="shared" si="4"/>
         <v>3.2456680000000002E-2</v>
       </c>
@@ -16807,14 +17450,26 @@
       <c r="AT22" s="13">
         <v>2.05493E-2</v>
       </c>
-      <c r="AU22" s="29">
+      <c r="AU22" s="16">
         <f t="shared" si="5"/>
         <v>2.1009380000000001E-2</v>
       </c>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="33"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="33"/>
+      <c r="BG22" s="37"/>
+      <c r="BH22" s="33"/>
+      <c r="BI22" s="48"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5">
         <v>100000</v>
       </c>
@@ -16830,137 +17485,149 @@
         <f>D23*LOG(D23,2)</f>
         <v>2</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="17">
         <v>4.7209399999999999E-2</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="18">
         <v>5.2738199999999999E-2</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="17">
         <v>4.8110399999999998E-2</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="18">
         <v>5.2482000000000001E-2</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="17">
         <v>4.7475200000000002E-2</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="19">
         <f t="shared" si="0"/>
         <v>4.9603040000000001E-2</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="20">
         <f>L23/L22</f>
         <v>1.8149613905264823</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="20">
         <v>4.6511400000000001E-2</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="21">
         <v>4.3684500000000001E-2</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="20">
         <v>4.5584199999999998E-2</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="21">
         <v>4.2670300000000001E-2</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="20">
         <v>4.6229800000000001E-2</v>
       </c>
-      <c r="S23" s="32">
+      <c r="S23" s="19">
         <f t="shared" si="1"/>
         <v>4.4936039999999997E-2</v>
       </c>
-      <c r="T23" s="33">
+      <c r="T23" s="20">
         <f>S23/S22</f>
         <v>1.3844928070277056</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="20">
         <v>3.6842899999999998E-2</v>
       </c>
-      <c r="V23" s="33">
+      <c r="V23" s="20">
         <v>4.2576900000000001E-2</v>
       </c>
-      <c r="W23" s="33">
+      <c r="W23" s="20">
         <v>3.6690800000000003E-2</v>
       </c>
-      <c r="X23" s="33">
+      <c r="X23" s="20">
         <v>4.1958599999999999E-2</v>
       </c>
-      <c r="Y23" s="33">
+      <c r="Y23" s="20">
         <v>3.7886200000000002E-2</v>
       </c>
-      <c r="Z23" s="32">
+      <c r="Z23" s="19">
         <f t="shared" si="2"/>
         <v>3.9191080000000003E-2</v>
       </c>
-      <c r="AA23" s="33">
+      <c r="AA23" s="20">
         <f>Z23/Z22</f>
         <v>1.8654086888808714</v>
       </c>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="30">
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="17">
         <v>4.7209399999999999E-2</v>
       </c>
-      <c r="AE23" s="31">
+      <c r="AE23" s="18">
         <v>5.2738199999999999E-2</v>
       </c>
-      <c r="AF23" s="30">
+      <c r="AF23" s="17">
         <v>4.8110399999999998E-2</v>
       </c>
-      <c r="AG23" s="31">
+      <c r="AG23" s="18">
         <v>5.2482000000000001E-2</v>
       </c>
-      <c r="AH23" s="30">
+      <c r="AH23" s="17">
         <v>4.7475200000000002E-2</v>
       </c>
-      <c r="AI23" s="32">
+      <c r="AI23" s="19">
         <f t="shared" si="3"/>
         <v>4.9603040000000001E-2</v>
       </c>
-      <c r="AJ23" s="33">
+      <c r="AJ23" s="20">
         <v>4.6511400000000001E-2</v>
       </c>
-      <c r="AK23" s="34">
+      <c r="AK23" s="21">
         <v>4.3684500000000001E-2</v>
       </c>
-      <c r="AL23" s="33">
+      <c r="AL23" s="20">
         <v>4.5584199999999998E-2</v>
       </c>
-      <c r="AM23" s="34">
+      <c r="AM23" s="21">
         <v>4.2670300000000001E-2</v>
       </c>
-      <c r="AN23" s="33">
+      <c r="AN23" s="20">
         <v>4.6229800000000001E-2</v>
       </c>
-      <c r="AO23" s="32">
+      <c r="AO23" s="19">
         <f t="shared" si="4"/>
         <v>4.4936039999999997E-2</v>
       </c>
-      <c r="AP23" s="33">
+      <c r="AP23" s="20">
         <v>3.6842899999999998E-2</v>
       </c>
-      <c r="AQ23" s="33">
+      <c r="AQ23" s="20">
         <v>4.2576900000000001E-2</v>
       </c>
-      <c r="AR23" s="33">
+      <c r="AR23" s="20">
         <v>3.6690800000000003E-2</v>
       </c>
-      <c r="AS23" s="33">
+      <c r="AS23" s="20">
         <v>4.1958599999999999E-2</v>
       </c>
-      <c r="AT23" s="33">
+      <c r="AT23" s="20">
         <v>3.7886200000000002E-2</v>
       </c>
-      <c r="AU23" s="32">
+      <c r="AU23" s="19">
         <f t="shared" si="5"/>
         <v>3.9191080000000003E-2</v>
       </c>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="33"/>
+      <c r="BI23" s="48"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5">
         <v>175000</v>
       </c>
@@ -16976,137 +17643,149 @@
         <f t="shared" ref="F24:F27" si="20">D24*LOG(D24,2)</f>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="17">
         <v>8.8226899999999997E-2</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="18">
         <v>7.9888399999999998E-2</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="17">
         <v>8.7163299999999999E-2</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="18">
         <v>7.8219300000000005E-2</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="17">
         <v>8.7377999999999997E-2</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="19">
         <f t="shared" si="0"/>
         <v>8.4175180000000002E-2</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="20">
         <f t="shared" ref="M24:M27" si="21">L24/L23</f>
         <v>1.6969762337147078</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="20">
         <v>7.3131399999999999E-2</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="21">
         <v>8.0477800000000002E-2</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="20">
         <v>7.4567700000000001E-2</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="21">
         <v>8.0060199999999998E-2</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="20">
         <v>7.4467099999999994E-2</v>
       </c>
-      <c r="S24" s="32">
+      <c r="S24" s="19">
         <f t="shared" si="1"/>
         <v>7.6540840000000013E-2</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="20">
         <f t="shared" ref="T24:T27" si="22">S24/S23</f>
         <v>1.703328553205846</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="20">
         <v>6.6186400000000006E-2</v>
       </c>
-      <c r="V24" s="33">
+      <c r="V24" s="20">
         <v>7.2501599999999999E-2</v>
       </c>
-      <c r="W24" s="33">
+      <c r="W24" s="20">
         <v>6.4273800000000006E-2</v>
       </c>
-      <c r="X24" s="33">
+      <c r="X24" s="20">
         <v>7.2145799999999996E-2</v>
       </c>
-      <c r="Y24" s="33">
+      <c r="Y24" s="20">
         <v>6.6806599999999994E-2</v>
       </c>
-      <c r="Z24" s="32">
+      <c r="Z24" s="19">
         <f t="shared" si="2"/>
         <v>6.838284E-2</v>
       </c>
-      <c r="AA24" s="33">
+      <c r="AA24" s="20">
         <f t="shared" ref="AA24:AA27" si="23">Z24/Z23</f>
         <v>1.7448572481289109</v>
       </c>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="30">
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="17">
         <v>8.8226899999999997E-2</v>
       </c>
-      <c r="AE24" s="31">
+      <c r="AE24" s="18">
         <v>7.9888399999999998E-2</v>
       </c>
-      <c r="AF24" s="30">
+      <c r="AF24" s="17">
         <v>8.7163299999999999E-2</v>
       </c>
-      <c r="AG24" s="31">
+      <c r="AG24" s="18">
         <v>7.8219300000000005E-2</v>
       </c>
-      <c r="AH24" s="30">
+      <c r="AH24" s="17">
         <v>8.7377999999999997E-2</v>
       </c>
-      <c r="AI24" s="32">
+      <c r="AI24" s="19">
         <f t="shared" si="3"/>
         <v>8.4175180000000002E-2</v>
       </c>
-      <c r="AJ24" s="33">
+      <c r="AJ24" s="20">
         <v>7.3131399999999999E-2</v>
       </c>
-      <c r="AK24" s="34">
+      <c r="AK24" s="21">
         <v>8.0477800000000002E-2</v>
       </c>
-      <c r="AL24" s="33">
+      <c r="AL24" s="20">
         <v>7.4567700000000001E-2</v>
       </c>
-      <c r="AM24" s="34">
+      <c r="AM24" s="21">
         <v>8.0060199999999998E-2</v>
       </c>
-      <c r="AN24" s="33">
+      <c r="AN24" s="20">
         <v>7.4467099999999994E-2</v>
       </c>
-      <c r="AO24" s="32">
+      <c r="AO24" s="19">
         <f t="shared" si="4"/>
         <v>7.6540840000000013E-2</v>
       </c>
-      <c r="AP24" s="33">
+      <c r="AP24" s="20">
         <v>6.6186400000000006E-2</v>
       </c>
-      <c r="AQ24" s="33">
+      <c r="AQ24" s="20">
         <v>7.2501599999999999E-2</v>
       </c>
-      <c r="AR24" s="33">
+      <c r="AR24" s="20">
         <v>6.4273800000000006E-2</v>
       </c>
-      <c r="AS24" s="33">
+      <c r="AS24" s="20">
         <v>7.2145799999999996E-2</v>
       </c>
-      <c r="AT24" s="33">
+      <c r="AT24" s="20">
         <v>6.6806599999999994E-2</v>
       </c>
-      <c r="AU24" s="32">
+      <c r="AU24" s="19">
         <f t="shared" si="5"/>
         <v>6.838284E-2</v>
       </c>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="48"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21"/>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A25" s="54"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5">
         <v>300000</v>
       </c>
@@ -17122,137 +17801,149 @@
         <f t="shared" si="20"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="17">
         <v>0.1522529</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="18">
         <v>0.13867689999999999</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="17">
         <v>0.15293660000000001</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="18">
         <v>0.13642280000000001</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="17">
         <v>0.1515079</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="19">
         <f t="shared" si="0"/>
         <v>0.14635941999999999</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="20">
         <f t="shared" si="21"/>
         <v>1.738747930209356</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="20">
         <v>0.13522229999999999</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="21">
         <v>0.12839010000000001</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="20">
         <v>0.13976810000000001</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="21">
         <v>0.12944510000000001</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="20">
         <v>0.142403</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="19">
         <f t="shared" si="1"/>
         <v>0.13504572000000001</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="20">
         <f t="shared" si="22"/>
         <v>1.7643616140089393</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="20">
         <v>0.12178</v>
       </c>
-      <c r="V25" s="33">
+      <c r="V25" s="20">
         <v>0.110601</v>
       </c>
-      <c r="W25" s="33">
+      <c r="W25" s="20">
         <v>0.12419289999999999</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="20">
         <v>0.1101193</v>
       </c>
-      <c r="Y25" s="33">
+      <c r="Y25" s="20">
         <v>0.1250452</v>
       </c>
-      <c r="Z25" s="32">
+      <c r="Z25" s="19">
         <f t="shared" si="2"/>
         <v>0.11834768</v>
       </c>
-      <c r="AA25" s="33">
+      <c r="AA25" s="20">
         <f t="shared" si="23"/>
         <v>1.7306634237478291</v>
       </c>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="30">
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="17">
         <v>0.1522529</v>
       </c>
-      <c r="AE25" s="31">
+      <c r="AE25" s="18">
         <v>0.13867689999999999</v>
       </c>
-      <c r="AF25" s="30">
+      <c r="AF25" s="17">
         <v>0.15293660000000001</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AG25" s="18">
         <v>0.13642280000000001</v>
       </c>
-      <c r="AH25" s="30">
+      <c r="AH25" s="17">
         <v>0.1515079</v>
       </c>
-      <c r="AI25" s="32">
+      <c r="AI25" s="19">
         <f t="shared" si="3"/>
         <v>0.14635941999999999</v>
       </c>
-      <c r="AJ25" s="33">
+      <c r="AJ25" s="20">
         <v>0.13522229999999999</v>
       </c>
-      <c r="AK25" s="34">
+      <c r="AK25" s="21">
         <v>0.12839010000000001</v>
       </c>
-      <c r="AL25" s="33">
+      <c r="AL25" s="20">
         <v>0.13976810000000001</v>
       </c>
-      <c r="AM25" s="34">
+      <c r="AM25" s="21">
         <v>0.12944510000000001</v>
       </c>
-      <c r="AN25" s="33">
+      <c r="AN25" s="20">
         <v>0.142403</v>
       </c>
-      <c r="AO25" s="32">
+      <c r="AO25" s="19">
         <f t="shared" si="4"/>
         <v>0.13504572000000001</v>
       </c>
-      <c r="AP25" s="33">
+      <c r="AP25" s="20">
         <v>0.12178</v>
       </c>
-      <c r="AQ25" s="33">
+      <c r="AQ25" s="20">
         <v>0.110601</v>
       </c>
-      <c r="AR25" s="33">
+      <c r="AR25" s="20">
         <v>0.12419289999999999</v>
       </c>
-      <c r="AS25" s="33">
+      <c r="AS25" s="20">
         <v>0.1101193</v>
       </c>
-      <c r="AT25" s="33">
+      <c r="AT25" s="20">
         <v>0.1250452</v>
       </c>
-      <c r="AU25" s="32">
+      <c r="AU25" s="19">
         <f t="shared" si="5"/>
         <v>0.11834768</v>
       </c>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="33"/>
+      <c r="BE25" s="32"/>
+      <c r="BF25" s="33"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="33"/>
+      <c r="BI25" s="48"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21"/>
+    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5">
         <v>425000</v>
       </c>
@@ -17268,137 +17959,149 @@
         <f t="shared" si="20"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="17">
         <v>0.21302299999999999</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="18">
         <v>0.19026989999999999</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="17">
         <v>0.2123709</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="18">
         <v>0.19472880000000001</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="17">
         <v>0.21886539999999999</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="19">
         <f t="shared" si="0"/>
         <v>0.2058516</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="20">
         <f t="shared" si="21"/>
         <v>1.4064800202132532</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="20">
         <v>0.18866440000000001</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="21">
         <v>0.19789970000000001</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="20">
         <v>0.1853591</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="21">
         <v>0.20303470000000001</v>
       </c>
-      <c r="R26" s="33">
+      <c r="R26" s="20">
         <v>0.1899264</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="19">
         <f t="shared" si="1"/>
         <v>0.19297686</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="20">
         <f t="shared" si="22"/>
         <v>1.4289742762673263</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="20">
         <v>0.15834970000000001</v>
       </c>
-      <c r="V26" s="33">
+      <c r="V26" s="20">
         <v>0.1731722</v>
       </c>
-      <c r="W26" s="33">
+      <c r="W26" s="20">
         <v>0.1545792</v>
       </c>
-      <c r="X26" s="33">
+      <c r="X26" s="20">
         <v>0.17828830000000001</v>
       </c>
-      <c r="Y26" s="33">
+      <c r="Y26" s="20">
         <v>0.15979070000000001</v>
       </c>
-      <c r="Z26" s="32">
+      <c r="Z26" s="19">
         <f t="shared" si="2"/>
         <v>0.16483602000000003</v>
       </c>
-      <c r="AA26" s="33">
+      <c r="AA26" s="20">
         <f t="shared" si="23"/>
         <v>1.392811587012099</v>
       </c>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="30">
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="17">
         <v>0.21302299999999999</v>
       </c>
-      <c r="AE26" s="31">
+      <c r="AE26" s="18">
         <v>0.19026989999999999</v>
       </c>
-      <c r="AF26" s="30">
+      <c r="AF26" s="17">
         <v>0.2123709</v>
       </c>
-      <c r="AG26" s="31">
+      <c r="AG26" s="18">
         <v>0.19472880000000001</v>
       </c>
-      <c r="AH26" s="30">
+      <c r="AH26" s="17">
         <v>0.21886539999999999</v>
       </c>
-      <c r="AI26" s="32">
+      <c r="AI26" s="19">
         <f t="shared" si="3"/>
         <v>0.2058516</v>
       </c>
-      <c r="AJ26" s="33">
+      <c r="AJ26" s="20">
         <v>0.18866440000000001</v>
       </c>
-      <c r="AK26" s="34">
+      <c r="AK26" s="21">
         <v>0.19789970000000001</v>
       </c>
-      <c r="AL26" s="33">
+      <c r="AL26" s="20">
         <v>0.1853591</v>
       </c>
-      <c r="AM26" s="34">
+      <c r="AM26" s="21">
         <v>0.20303470000000001</v>
       </c>
-      <c r="AN26" s="33">
+      <c r="AN26" s="20">
         <v>0.1899264</v>
       </c>
-      <c r="AO26" s="32">
+      <c r="AO26" s="19">
         <f t="shared" si="4"/>
         <v>0.19297686</v>
       </c>
-      <c r="AP26" s="33">
+      <c r="AP26" s="20">
         <v>0.15834970000000001</v>
       </c>
-      <c r="AQ26" s="33">
+      <c r="AQ26" s="20">
         <v>0.1731722</v>
       </c>
-      <c r="AR26" s="33">
+      <c r="AR26" s="20">
         <v>0.1545792</v>
       </c>
-      <c r="AS26" s="33">
+      <c r="AS26" s="20">
         <v>0.17828830000000001</v>
       </c>
-      <c r="AT26" s="33">
+      <c r="AT26" s="20">
         <v>0.15979070000000001</v>
       </c>
-      <c r="AU26" s="32">
+      <c r="AU26" s="19">
         <f t="shared" si="5"/>
         <v>0.16483602000000003</v>
       </c>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="35"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="35"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="35"/>
+      <c r="BI26" s="49"/>
     </row>
-    <row r="27" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22"/>
+    <row r="27" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="55"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="6">
         <v>550000</v>
       </c>
@@ -17414,139 +18117,165 @@
         <f t="shared" si="20"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="22">
         <v>0.2533029</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="23">
         <v>0.27934999999999999</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="22">
         <v>0.25799539999999999</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="23">
         <v>0.28315800000000002</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="22">
         <v>0.25543979999999999</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="24">
         <f t="shared" si="0"/>
         <v>0.26584922</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="20">
         <f t="shared" si="21"/>
         <v>1.291460547306895</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="25">
         <v>0.25739210000000001</v>
       </c>
       <c r="O27" s="14">
         <v>0.24481810000000001</v>
       </c>
-      <c r="P27" s="38">
+      <c r="P27" s="25">
         <v>0.2571794</v>
       </c>
       <c r="Q27" s="14">
         <v>0.24408089999999999</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="25">
         <v>0.2566425</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="24">
         <f t="shared" si="1"/>
         <v>0.25202259999999999</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="20">
         <f t="shared" si="22"/>
         <v>1.3059731617562851</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="25">
         <v>0.2284928</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="25">
         <v>0.20143269999999999</v>
       </c>
-      <c r="W27" s="38">
+      <c r="W27" s="25">
         <v>0.2281531</v>
       </c>
-      <c r="X27" s="38">
+      <c r="X27" s="25">
         <v>0.20309740000000001</v>
       </c>
-      <c r="Y27" s="38">
+      <c r="Y27" s="25">
         <v>0.2260112</v>
       </c>
-      <c r="Z27" s="37">
+      <c r="Z27" s="24">
         <f t="shared" si="2"/>
         <v>0.21743744000000001</v>
       </c>
-      <c r="AA27" s="33">
+      <c r="AA27" s="20">
         <f t="shared" si="23"/>
         <v>1.3191136257718428</v>
       </c>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="35">
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="22">
         <v>0.2533029</v>
       </c>
-      <c r="AE27" s="36">
+      <c r="AE27" s="23">
         <v>0.27934999999999999</v>
       </c>
-      <c r="AF27" s="35">
+      <c r="AF27" s="22">
         <v>0.25799539999999999</v>
       </c>
-      <c r="AG27" s="36">
+      <c r="AG27" s="23">
         <v>0.28315800000000002</v>
       </c>
-      <c r="AH27" s="35">
+      <c r="AH27" s="22">
         <v>0.25543979999999999</v>
       </c>
-      <c r="AI27" s="37">
+      <c r="AI27" s="24">
         <f t="shared" si="3"/>
         <v>0.26584922</v>
       </c>
-      <c r="AJ27" s="38">
+      <c r="AJ27" s="25">
         <v>0.25739210000000001</v>
       </c>
       <c r="AK27" s="14">
         <v>0.24481810000000001</v>
       </c>
-      <c r="AL27" s="38">
+      <c r="AL27" s="25">
         <v>0.2571794</v>
       </c>
       <c r="AM27" s="14">
         <v>0.24408089999999999</v>
       </c>
-      <c r="AN27" s="38">
+      <c r="AN27" s="25">
         <v>0.2566425</v>
       </c>
-      <c r="AO27" s="37">
+      <c r="AO27" s="24">
         <f t="shared" si="4"/>
         <v>0.25202259999999999</v>
       </c>
-      <c r="AP27" s="38">
+      <c r="AP27" s="25">
         <v>0.2284928</v>
       </c>
-      <c r="AQ27" s="38">
+      <c r="AQ27" s="25">
         <v>0.20143269999999999</v>
       </c>
-      <c r="AR27" s="38">
+      <c r="AR27" s="25">
         <v>0.2281531</v>
       </c>
-      <c r="AS27" s="38">
+      <c r="AS27" s="25">
         <v>0.20309740000000001</v>
       </c>
-      <c r="AT27" s="38">
+      <c r="AT27" s="25">
         <v>0.2260112</v>
       </c>
-      <c r="AU27" s="37">
+      <c r="AU27" s="24">
         <f t="shared" si="5"/>
         <v>0.21743744000000001</v>
       </c>
+      <c r="AX27" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH27" s="59"/>
+      <c r="BI27" s="47" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="10">
@@ -17561,22 +18290,22 @@
       <c r="F28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="15">
         <v>4.0302000000000003E-3</v>
       </c>
       <c r="H28" s="13">
         <v>3.6359999999999999E-3</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="15">
         <v>3.7257000000000002E-3</v>
       </c>
       <c r="J28" s="13">
         <v>3.6484E-3</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="15">
         <v>3.6237999999999999E-3</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="16">
         <f t="shared" si="0"/>
         <v>3.73282E-3</v>
       </c>
@@ -17586,19 +18315,19 @@
       <c r="N28" s="13">
         <v>1.9949E-3</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="15">
         <v>1.7110999999999999E-3</v>
       </c>
       <c r="P28" s="13">
         <v>1.1724999999999999E-3</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="15">
         <v>1.1182E-3</v>
       </c>
       <c r="R28" s="13">
         <v>9.990000000000001E-4</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="16">
         <f t="shared" si="1"/>
         <v>1.3991399999999999E-3</v>
       </c>
@@ -17620,51 +18349,51 @@
       <c r="Y28" s="13">
         <v>2.1056999999999998E-3</v>
       </c>
-      <c r="Z28" s="29">
+      <c r="Z28" s="16">
         <f t="shared" si="2"/>
         <v>2.1247800000000002E-3</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC28" s="42" t="s">
+      <c r="AC28" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AD28" s="28">
+      <c r="AD28" s="15">
         <v>4.0302000000000003E-3</v>
       </c>
       <c r="AE28" s="13">
         <v>3.6359999999999999E-3</v>
       </c>
-      <c r="AF28" s="28">
+      <c r="AF28" s="15">
         <v>3.7257000000000002E-3</v>
       </c>
       <c r="AG28" s="13">
         <v>3.6484E-3</v>
       </c>
-      <c r="AH28" s="28">
+      <c r="AH28" s="15">
         <v>3.6237999999999999E-3</v>
       </c>
-      <c r="AI28" s="29">
+      <c r="AI28" s="16">
         <f t="shared" si="3"/>
         <v>3.73282E-3</v>
       </c>
       <c r="AJ28" s="13">
         <v>1.9949E-3</v>
       </c>
-      <c r="AK28" s="28">
+      <c r="AK28" s="15">
         <v>1.7110999999999999E-3</v>
       </c>
       <c r="AL28" s="13">
         <v>1.1724999999999999E-3</v>
       </c>
-      <c r="AM28" s="28">
+      <c r="AM28" s="15">
         <v>1.1182E-3</v>
       </c>
       <c r="AN28" s="13">
         <v>9.990000000000001E-4</v>
       </c>
-      <c r="AO28" s="29">
+      <c r="AO28" s="16">
         <f t="shared" si="4"/>
         <v>1.3991399999999999E-3</v>
       </c>
@@ -17683,14 +18412,26 @@
       <c r="AT28" s="13">
         <v>2.1056999999999998E-3</v>
       </c>
-      <c r="AU28" s="29">
+      <c r="AU28" s="16">
         <f t="shared" si="5"/>
         <v>2.1247800000000002E-3</v>
       </c>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="60"/>
+      <c r="BH28" s="61"/>
+      <c r="BI28" s="48"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21"/>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5">
         <v>100000</v>
       </c>
@@ -17706,137 +18447,149 @@
         <f>D29*LOG(D29,2)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="17">
         <v>9.1038999999999998E-3</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="18">
         <v>7.3057E-3</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="17">
         <v>7.5629E-3</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="18">
         <v>7.4771000000000004E-3</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="17">
         <v>8.2232E-3</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="19">
         <f t="shared" si="0"/>
         <v>7.9345600000000002E-3</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="20">
         <f>L29/L28</f>
         <v>2.1256208442946618</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="20">
         <v>2.2640999999999998E-3</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="21">
         <v>2.4149000000000002E-3</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="20">
         <v>2.2594999999999998E-3</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="21">
         <v>2.1616999999999999E-3</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="20">
         <v>2.2461999999999998E-3</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="19">
         <f t="shared" si="1"/>
         <v>2.2692799999999998E-3</v>
       </c>
-      <c r="T29" s="33">
+      <c r="T29" s="20">
         <f>S29/S28</f>
         <v>1.6219106022270824</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="20">
         <v>4.313E-3</v>
       </c>
-      <c r="V29" s="33">
+      <c r="V29" s="20">
         <v>4.2884999999999998E-3</v>
       </c>
-      <c r="W29" s="33">
+      <c r="W29" s="20">
         <v>4.0705999999999997E-3</v>
       </c>
-      <c r="X29" s="33">
+      <c r="X29" s="20">
         <v>4.0130000000000001E-3</v>
       </c>
-      <c r="Y29" s="33">
+      <c r="Y29" s="20">
         <v>4.1974999999999998E-3</v>
       </c>
-      <c r="Z29" s="32">
+      <c r="Z29" s="19">
         <f t="shared" si="2"/>
         <v>4.1765199999999995E-3</v>
       </c>
-      <c r="AA29" s="33">
+      <c r="AA29" s="20">
         <f>Z29/Z28</f>
         <v>1.9656246764370895</v>
       </c>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="30">
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="17">
         <v>9.1038999999999998E-3</v>
       </c>
-      <c r="AE29" s="31">
+      <c r="AE29" s="18">
         <v>7.3057E-3</v>
       </c>
-      <c r="AF29" s="30">
+      <c r="AF29" s="17">
         <v>7.5629E-3</v>
       </c>
-      <c r="AG29" s="31">
+      <c r="AG29" s="18">
         <v>7.4771000000000004E-3</v>
       </c>
-      <c r="AH29" s="30">
+      <c r="AH29" s="17">
         <v>8.2232E-3</v>
       </c>
-      <c r="AI29" s="32">
+      <c r="AI29" s="19">
         <f t="shared" si="3"/>
         <v>7.9345600000000002E-3</v>
       </c>
-      <c r="AJ29" s="33">
+      <c r="AJ29" s="20">
         <v>2.2640999999999998E-3</v>
       </c>
-      <c r="AK29" s="34">
+      <c r="AK29" s="21">
         <v>2.4149000000000002E-3</v>
       </c>
-      <c r="AL29" s="33">
+      <c r="AL29" s="20">
         <v>2.2594999999999998E-3</v>
       </c>
-      <c r="AM29" s="34">
+      <c r="AM29" s="21">
         <v>2.1616999999999999E-3</v>
       </c>
-      <c r="AN29" s="33">
+      <c r="AN29" s="20">
         <v>2.2461999999999998E-3</v>
       </c>
-      <c r="AO29" s="32">
+      <c r="AO29" s="19">
         <f t="shared" si="4"/>
         <v>2.2692799999999998E-3</v>
       </c>
-      <c r="AP29" s="33">
+      <c r="AP29" s="20">
         <v>4.313E-3</v>
       </c>
-      <c r="AQ29" s="33">
+      <c r="AQ29" s="20">
         <v>4.2884999999999998E-3</v>
       </c>
-      <c r="AR29" s="33">
+      <c r="AR29" s="20">
         <v>4.0705999999999997E-3</v>
       </c>
-      <c r="AS29" s="33">
+      <c r="AS29" s="20">
         <v>4.0130000000000001E-3</v>
       </c>
-      <c r="AT29" s="33">
+      <c r="AT29" s="20">
         <v>4.1974999999999998E-3</v>
       </c>
-      <c r="AU29" s="32">
+      <c r="AU29" s="19">
         <f t="shared" si="5"/>
         <v>4.1765199999999995E-3</v>
       </c>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="32"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="60"/>
+      <c r="BH29" s="61"/>
+      <c r="BI29" s="48"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21"/>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A30" s="54"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5">
         <v>175000</v>
       </c>
@@ -17852,137 +18605,149 @@
         <f t="shared" ref="F30:F33" si="25">D30*LOG(D30,2)</f>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="17">
         <v>1.41674E-2</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="18">
         <v>1.4419299999999999E-2</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="17">
         <v>1.41292E-2</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="18">
         <v>1.3562299999999999E-2</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="17">
         <v>1.3794600000000001E-2</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="19">
         <f t="shared" si="0"/>
         <v>1.4014560000000001E-2</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="20">
         <f t="shared" ref="M30:M33" si="26">L30/L29</f>
         <v>1.7662680728357969</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N30" s="20">
         <v>4.3211999999999999E-3</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="21">
         <v>6.2481000000000004E-3</v>
       </c>
-      <c r="P30" s="33">
+      <c r="P30" s="20">
         <v>4.0547999999999999E-3</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="21">
         <v>4.5886E-3</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="20">
         <v>4.0372000000000003E-3</v>
       </c>
-      <c r="S30" s="32">
+      <c r="S30" s="19">
         <f t="shared" si="1"/>
         <v>4.6499799999999997E-3</v>
       </c>
-      <c r="T30" s="33">
+      <c r="T30" s="20">
         <f t="shared" ref="T30:T33" si="27">S30/S29</f>
         <v>2.049099273778467</v>
       </c>
-      <c r="U30" s="33">
+      <c r="U30" s="20">
         <v>7.5751000000000004E-3</v>
       </c>
-      <c r="V30" s="33">
+      <c r="V30" s="20">
         <v>9.2452000000000003E-3</v>
       </c>
-      <c r="W30" s="33">
+      <c r="W30" s="20">
         <v>7.7866000000000003E-3</v>
       </c>
-      <c r="X30" s="33">
+      <c r="X30" s="20">
         <v>7.1488000000000003E-3</v>
       </c>
-      <c r="Y30" s="33">
+      <c r="Y30" s="20">
         <v>7.8995000000000003E-3</v>
       </c>
-      <c r="Z30" s="32">
+      <c r="Z30" s="19">
         <f t="shared" si="2"/>
         <v>7.9310400000000003E-3</v>
       </c>
-      <c r="AA30" s="33">
+      <c r="AA30" s="20">
         <f t="shared" ref="AA30:AA33" si="28">Z30/Z29</f>
         <v>1.8989589418942088</v>
       </c>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="30">
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="17">
         <v>1.41674E-2</v>
       </c>
-      <c r="AE30" s="31">
+      <c r="AE30" s="18">
         <v>1.4419299999999999E-2</v>
       </c>
-      <c r="AF30" s="30">
+      <c r="AF30" s="17">
         <v>1.41292E-2</v>
       </c>
-      <c r="AG30" s="31">
+      <c r="AG30" s="18">
         <v>1.3562299999999999E-2</v>
       </c>
-      <c r="AH30" s="30">
+      <c r="AH30" s="17">
         <v>1.3794600000000001E-2</v>
       </c>
-      <c r="AI30" s="32">
+      <c r="AI30" s="19">
         <f t="shared" si="3"/>
         <v>1.4014560000000001E-2</v>
       </c>
-      <c r="AJ30" s="33">
+      <c r="AJ30" s="20">
         <v>4.3211999999999999E-3</v>
       </c>
-      <c r="AK30" s="34">
+      <c r="AK30" s="21">
         <v>6.2481000000000004E-3</v>
       </c>
-      <c r="AL30" s="33">
+      <c r="AL30" s="20">
         <v>4.0547999999999999E-3</v>
       </c>
-      <c r="AM30" s="34">
+      <c r="AM30" s="21">
         <v>4.5886E-3</v>
       </c>
-      <c r="AN30" s="33">
+      <c r="AN30" s="20">
         <v>4.0372000000000003E-3</v>
       </c>
-      <c r="AO30" s="32">
+      <c r="AO30" s="19">
         <f t="shared" si="4"/>
         <v>4.6499799999999997E-3</v>
       </c>
-      <c r="AP30" s="33">
+      <c r="AP30" s="20">
         <v>7.5751000000000004E-3</v>
       </c>
-      <c r="AQ30" s="33">
+      <c r="AQ30" s="20">
         <v>9.2452000000000003E-3</v>
       </c>
-      <c r="AR30" s="33">
+      <c r="AR30" s="20">
         <v>7.7866000000000003E-3</v>
       </c>
-      <c r="AS30" s="33">
+      <c r="AS30" s="20">
         <v>7.1488000000000003E-3</v>
       </c>
-      <c r="AT30" s="33">
+      <c r="AT30" s="20">
         <v>7.8995000000000003E-3</v>
       </c>
-      <c r="AU30" s="32">
+      <c r="AU30" s="19">
         <f t="shared" si="5"/>
         <v>7.9310400000000003E-3</v>
       </c>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="33"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="33"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="33"/>
+      <c r="BE30" s="32"/>
+      <c r="BF30" s="33"/>
+      <c r="BG30" s="60"/>
+      <c r="BH30" s="61"/>
+      <c r="BI30" s="48"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A31" s="54"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="5">
         <v>300000</v>
       </c>
@@ -17998,137 +18763,149 @@
         <f t="shared" si="25"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="17">
         <v>2.50371E-2</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="18">
         <v>2.5150200000000001E-2</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="17">
         <v>2.5241699999999999E-2</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="18">
         <v>2.4894599999999999E-2</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="17">
         <v>2.50967E-2</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="19">
         <f t="shared" si="0"/>
         <v>2.5084059999999998E-2</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="20">
         <f t="shared" si="26"/>
         <v>1.7898571200237465</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="20">
         <v>6.9208000000000004E-3</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="21">
         <v>6.1244999999999997E-3</v>
       </c>
-      <c r="P31" s="33">
+      <c r="P31" s="20">
         <v>6.2744000000000003E-3</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="21">
         <v>6.5335999999999997E-3</v>
       </c>
-      <c r="R31" s="33">
+      <c r="R31" s="20">
         <v>6.5529000000000004E-3</v>
       </c>
-      <c r="S31" s="32">
+      <c r="S31" s="19">
         <f t="shared" si="1"/>
         <v>6.4812399999999992E-3</v>
       </c>
-      <c r="T31" s="33">
+      <c r="T31" s="20">
         <f t="shared" si="27"/>
         <v>1.3938210486926825</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="20">
         <v>1.36528E-2</v>
       </c>
-      <c r="V31" s="33">
+      <c r="V31" s="20">
         <v>1.41469E-2</v>
       </c>
-      <c r="W31" s="33">
+      <c r="W31" s="20">
         <v>1.3438E-2</v>
       </c>
-      <c r="X31" s="33">
+      <c r="X31" s="20">
         <v>1.37591E-2</v>
       </c>
-      <c r="Y31" s="33">
+      <c r="Y31" s="20">
         <v>1.35464E-2</v>
       </c>
-      <c r="Z31" s="32">
+      <c r="Z31" s="19">
         <f t="shared" si="2"/>
         <v>1.3708639999999999E-2</v>
       </c>
-      <c r="AA31" s="33">
+      <c r="AA31" s="20">
         <f t="shared" si="28"/>
         <v>1.7284794932316567</v>
       </c>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="30">
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="17">
         <v>2.50371E-2</v>
       </c>
-      <c r="AE31" s="31">
+      <c r="AE31" s="18">
         <v>2.5150200000000001E-2</v>
       </c>
-      <c r="AF31" s="30">
+      <c r="AF31" s="17">
         <v>2.5241699999999999E-2</v>
       </c>
-      <c r="AG31" s="31">
+      <c r="AG31" s="18">
         <v>2.4894599999999999E-2</v>
       </c>
-      <c r="AH31" s="30">
+      <c r="AH31" s="17">
         <v>2.50967E-2</v>
       </c>
-      <c r="AI31" s="32">
+      <c r="AI31" s="19">
         <f t="shared" si="3"/>
         <v>2.5084059999999998E-2</v>
       </c>
-      <c r="AJ31" s="33">
+      <c r="AJ31" s="20">
         <v>6.9208000000000004E-3</v>
       </c>
-      <c r="AK31" s="34">
+      <c r="AK31" s="21">
         <v>6.1244999999999997E-3</v>
       </c>
-      <c r="AL31" s="33">
+      <c r="AL31" s="20">
         <v>6.2744000000000003E-3</v>
       </c>
-      <c r="AM31" s="34">
+      <c r="AM31" s="21">
         <v>6.5335999999999997E-3</v>
       </c>
-      <c r="AN31" s="33">
+      <c r="AN31" s="20">
         <v>6.5529000000000004E-3</v>
       </c>
-      <c r="AO31" s="32">
+      <c r="AO31" s="19">
         <f t="shared" si="4"/>
         <v>6.4812399999999992E-3</v>
       </c>
-      <c r="AP31" s="33">
+      <c r="AP31" s="20">
         <v>1.36528E-2</v>
       </c>
-      <c r="AQ31" s="33">
+      <c r="AQ31" s="20">
         <v>1.41469E-2</v>
       </c>
-      <c r="AR31" s="33">
+      <c r="AR31" s="20">
         <v>1.3438E-2</v>
       </c>
-      <c r="AS31" s="33">
+      <c r="AS31" s="20">
         <v>1.37591E-2</v>
       </c>
-      <c r="AT31" s="33">
+      <c r="AT31" s="20">
         <v>1.35464E-2</v>
       </c>
-      <c r="AU31" s="32">
+      <c r="AU31" s="19">
         <f t="shared" si="5"/>
         <v>1.3708639999999999E-2</v>
       </c>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="33"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="33"/>
+      <c r="BE31" s="32"/>
+      <c r="BF31" s="33"/>
+      <c r="BG31" s="60"/>
+      <c r="BH31" s="61"/>
+      <c r="BI31" s="48"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21"/>
+    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="54"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="5">
         <v>425000</v>
       </c>
@@ -18144,137 +18921,149 @@
         <f t="shared" si="25"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="17">
         <v>3.6630900000000001E-2</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="18">
         <v>3.6930200000000003E-2</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="17">
         <v>3.6297099999999999E-2</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="18">
         <v>3.5845299999999997E-2</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="17">
         <v>3.6161600000000002E-2</v>
       </c>
-      <c r="L32" s="32">
+      <c r="L32" s="19">
         <f t="shared" si="0"/>
         <v>3.6373019999999999E-2</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="20">
         <f t="shared" si="26"/>
         <v>1.4500451681266908</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="20">
         <v>1.03827E-2</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="21">
         <v>9.5872000000000006E-3</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="20">
         <v>1.03465E-2</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="21">
         <v>1.0363199999999999E-2</v>
       </c>
-      <c r="R32" s="33">
+      <c r="R32" s="20">
         <v>9.6225000000000008E-3</v>
       </c>
-      <c r="S32" s="32">
+      <c r="S32" s="19">
         <f t="shared" si="1"/>
         <v>1.0060419999999999E-2</v>
       </c>
-      <c r="T32" s="33">
+      <c r="T32" s="20">
         <f t="shared" si="27"/>
         <v>1.5522369176268738</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="20">
         <v>1.97342E-2</v>
       </c>
-      <c r="V32" s="33">
+      <c r="V32" s="20">
         <v>2.03944E-2</v>
       </c>
-      <c r="W32" s="33">
+      <c r="W32" s="20">
         <v>1.9473299999999999E-2</v>
       </c>
-      <c r="X32" s="33">
+      <c r="X32" s="20">
         <v>1.99802E-2</v>
       </c>
-      <c r="Y32" s="33">
+      <c r="Y32" s="20">
         <v>1.9841500000000001E-2</v>
       </c>
-      <c r="Z32" s="32">
+      <c r="Z32" s="19">
         <f t="shared" si="2"/>
         <v>1.9884720000000002E-2</v>
       </c>
-      <c r="AA32" s="33">
+      <c r="AA32" s="20">
         <f t="shared" si="28"/>
         <v>1.4505246326404371</v>
       </c>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="30">
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="17">
         <v>3.6630900000000001E-2</v>
       </c>
-      <c r="AE32" s="31">
+      <c r="AE32" s="18">
         <v>3.6930200000000003E-2</v>
       </c>
-      <c r="AF32" s="30">
+      <c r="AF32" s="17">
         <v>3.6297099999999999E-2</v>
       </c>
-      <c r="AG32" s="31">
+      <c r="AG32" s="18">
         <v>3.5845299999999997E-2</v>
       </c>
-      <c r="AH32" s="30">
+      <c r="AH32" s="17">
         <v>3.6161600000000002E-2</v>
       </c>
-      <c r="AI32" s="32">
+      <c r="AI32" s="19">
         <f t="shared" si="3"/>
         <v>3.6373019999999999E-2</v>
       </c>
-      <c r="AJ32" s="33">
+      <c r="AJ32" s="20">
         <v>1.03827E-2</v>
       </c>
-      <c r="AK32" s="34">
+      <c r="AK32" s="21">
         <v>9.5872000000000006E-3</v>
       </c>
-      <c r="AL32" s="33">
+      <c r="AL32" s="20">
         <v>1.03465E-2</v>
       </c>
-      <c r="AM32" s="34">
+      <c r="AM32" s="21">
         <v>1.0363199999999999E-2</v>
       </c>
-      <c r="AN32" s="33">
+      <c r="AN32" s="20">
         <v>9.6225000000000008E-3</v>
       </c>
-      <c r="AO32" s="32">
+      <c r="AO32" s="19">
         <f t="shared" si="4"/>
         <v>1.0060419999999999E-2</v>
       </c>
-      <c r="AP32" s="33">
+      <c r="AP32" s="20">
         <v>1.97342E-2</v>
       </c>
-      <c r="AQ32" s="33">
+      <c r="AQ32" s="20">
         <v>2.03944E-2</v>
       </c>
-      <c r="AR32" s="33">
+      <c r="AR32" s="20">
         <v>1.9473299999999999E-2</v>
       </c>
-      <c r="AS32" s="33">
+      <c r="AS32" s="20">
         <v>1.99802E-2</v>
       </c>
-      <c r="AT32" s="33">
+      <c r="AT32" s="20">
         <v>1.9841500000000001E-2</v>
       </c>
-      <c r="AU32" s="32">
+      <c r="AU32" s="19">
         <f t="shared" si="5"/>
         <v>1.9884720000000002E-2</v>
       </c>
+      <c r="AX32" s="38"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="35"/>
+      <c r="BA32" s="38"/>
+      <c r="BB32" s="35"/>
+      <c r="BC32" s="38"/>
+      <c r="BD32" s="35"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="35"/>
+      <c r="BG32" s="62"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="49"/>
     </row>
-    <row r="33" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
+    <row r="33" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="6">
         <v>550000</v>
       </c>
@@ -18290,139 +19079,165 @@
         <f t="shared" si="25"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="22">
         <v>4.8419499999999997E-2</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="23">
         <v>4.9242300000000003E-2</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="22">
         <v>4.7020300000000001E-2</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="23">
         <v>4.6913000000000003E-2</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="22">
         <v>4.7524999999999998E-2</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="24">
         <f t="shared" si="0"/>
         <v>4.7824020000000002E-2</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="20">
         <f t="shared" si="26"/>
         <v>1.3148212603737606</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="25">
         <v>1.20441E-2</v>
       </c>
       <c r="O33" s="14">
         <v>1.3041799999999999E-2</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="25">
         <v>1.2166099999999999E-2</v>
       </c>
       <c r="Q33" s="14">
         <v>1.2560699999999999E-2</v>
       </c>
-      <c r="R33" s="38">
+      <c r="R33" s="25">
         <v>1.26924E-2</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="24">
         <f t="shared" si="1"/>
         <v>1.2501020000000002E-2</v>
       </c>
-      <c r="T33" s="33">
+      <c r="T33" s="20">
         <f t="shared" si="27"/>
         <v>1.2425942455682768</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="25">
         <v>2.56008E-2</v>
       </c>
-      <c r="V33" s="38">
+      <c r="V33" s="25">
         <v>2.88618E-2</v>
       </c>
-      <c r="W33" s="38">
+      <c r="W33" s="25">
         <v>2.5558999999999998E-2</v>
       </c>
-      <c r="X33" s="38">
+      <c r="X33" s="25">
         <v>2.6895100000000002E-2</v>
       </c>
-      <c r="Y33" s="38">
+      <c r="Y33" s="25">
         <v>2.73493E-2</v>
       </c>
-      <c r="Z33" s="37">
+      <c r="Z33" s="24">
         <f t="shared" si="2"/>
         <v>2.6853200000000001E-2</v>
       </c>
-      <c r="AA33" s="33">
+      <c r="AA33" s="20">
         <f t="shared" si="28"/>
         <v>1.350443958979558</v>
       </c>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="35">
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="22">
         <v>4.8419499999999997E-2</v>
       </c>
-      <c r="AE33" s="36">
+      <c r="AE33" s="23">
         <v>4.9242300000000003E-2</v>
       </c>
-      <c r="AF33" s="35">
+      <c r="AF33" s="22">
         <v>4.7020300000000001E-2</v>
       </c>
-      <c r="AG33" s="36">
+      <c r="AG33" s="23">
         <v>4.6913000000000003E-2</v>
       </c>
-      <c r="AH33" s="35">
+      <c r="AH33" s="22">
         <v>4.7524999999999998E-2</v>
       </c>
-      <c r="AI33" s="37">
+      <c r="AI33" s="24">
         <f t="shared" si="3"/>
         <v>4.7824020000000002E-2</v>
       </c>
-      <c r="AJ33" s="38">
+      <c r="AJ33" s="25">
         <v>1.20441E-2</v>
       </c>
       <c r="AK33" s="14">
         <v>1.3041799999999999E-2</v>
       </c>
-      <c r="AL33" s="38">
+      <c r="AL33" s="25">
         <v>1.2166099999999999E-2</v>
       </c>
       <c r="AM33" s="14">
         <v>1.2560699999999999E-2</v>
       </c>
-      <c r="AN33" s="38">
+      <c r="AN33" s="25">
         <v>1.26924E-2</v>
       </c>
-      <c r="AO33" s="37">
+      <c r="AO33" s="24">
         <f t="shared" si="4"/>
         <v>1.2501020000000002E-2</v>
       </c>
-      <c r="AP33" s="38">
+      <c r="AP33" s="25">
         <v>2.56008E-2</v>
       </c>
-      <c r="AQ33" s="38">
+      <c r="AQ33" s="25">
         <v>2.88618E-2</v>
       </c>
-      <c r="AR33" s="38">
+      <c r="AR33" s="25">
         <v>2.5558999999999998E-2</v>
       </c>
-      <c r="AS33" s="38">
+      <c r="AS33" s="25">
         <v>2.6895100000000002E-2</v>
       </c>
-      <c r="AT33" s="38">
+      <c r="AT33" s="25">
         <v>2.73493E-2</v>
       </c>
-      <c r="AU33" s="37">
+      <c r="AU33" s="24">
         <f t="shared" si="5"/>
         <v>2.6853200000000001E-2</v>
       </c>
+      <c r="AX33" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH33" s="59"/>
+      <c r="BI33" s="48" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A34" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="7">
@@ -18437,44 +19252,44 @@
       <c r="F34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="21">
         <v>8.8313000000000003E-3</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="20">
         <v>7.5388E-3</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="21">
         <v>7.2817999999999997E-3</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="20">
         <v>7.0006000000000001E-3</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="21">
         <v>7.4174999999999996E-3</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="27">
         <f t="shared" si="0"/>
         <v>7.6139999999999984E-3</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="20">
         <v>1.1233E-3</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="21">
         <v>1.1513999999999999E-3</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="20">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="21">
         <v>1.1330999999999999E-3</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="20">
         <v>1.1039000000000001E-3</v>
       </c>
-      <c r="S34" s="40">
+      <c r="S34" s="27">
         <f t="shared" si="1"/>
         <v>1.1025400000000002E-3</v>
       </c>
@@ -18496,51 +19311,51 @@
       <c r="Y34" s="13">
         <v>1.7941000000000001E-3</v>
       </c>
-      <c r="Z34" s="40">
+      <c r="Z34" s="27">
         <f t="shared" si="2"/>
         <v>1.7947400000000002E-3</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AC34" s="42" t="s">
+      <c r="AC34" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AD34" s="34">
+      <c r="AD34" s="21">
         <v>8.8313000000000003E-3</v>
       </c>
-      <c r="AE34" s="33">
+      <c r="AE34" s="20">
         <v>7.5388E-3</v>
       </c>
-      <c r="AF34" s="34">
+      <c r="AF34" s="21">
         <v>7.2817999999999997E-3</v>
       </c>
-      <c r="AG34" s="33">
+      <c r="AG34" s="20">
         <v>7.0006000000000001E-3</v>
       </c>
-      <c r="AH34" s="34">
+      <c r="AH34" s="21">
         <v>7.4174999999999996E-3</v>
       </c>
-      <c r="AI34" s="40">
+      <c r="AI34" s="27">
         <f t="shared" si="3"/>
         <v>7.6139999999999984E-3</v>
       </c>
-      <c r="AJ34" s="33">
+      <c r="AJ34" s="20">
         <v>1.1233E-3</v>
       </c>
-      <c r="AK34" s="34">
+      <c r="AK34" s="21">
         <v>1.1513999999999999E-3</v>
       </c>
-      <c r="AL34" s="33">
+      <c r="AL34" s="20">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="AM34" s="34">
+      <c r="AM34" s="21">
         <v>1.1330999999999999E-3</v>
       </c>
-      <c r="AN34" s="33">
+      <c r="AN34" s="20">
         <v>1.1039000000000001E-3</v>
       </c>
-      <c r="AO34" s="40">
+      <c r="AO34" s="27">
         <f t="shared" si="4"/>
         <v>1.1025400000000002E-3</v>
       </c>
@@ -18559,14 +19374,26 @@
       <c r="AT34" s="13">
         <v>1.7941000000000001E-3</v>
       </c>
-      <c r="AU34" s="40">
+      <c r="AU34" s="27">
         <f t="shared" si="5"/>
         <v>1.7947400000000002E-3</v>
       </c>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="33"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="33"/>
+      <c r="BE34" s="32"/>
+      <c r="BF34" s="33"/>
+      <c r="BG34" s="60"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="48"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="5">
         <v>100000</v>
       </c>
@@ -18582,137 +19409,149 @@
         <f>D35*LOG(D35,2)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="17">
         <v>1.6564200000000001E-2</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="18">
         <v>1.6214099999999999E-2</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="17">
         <v>1.5792400000000002E-2</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="18">
         <v>1.60964E-2</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="17">
         <v>1.6517899999999999E-2</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="19">
         <f t="shared" si="0"/>
         <v>1.6236999999999998E-2</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="20">
         <f>L35/L34</f>
         <v>2.1325190438665618</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="20">
         <v>2.1361000000000002E-3</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="21">
         <v>2.9185000000000001E-3</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="20">
         <v>2.1223000000000001E-3</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="21">
         <v>2.0991999999999999E-3</v>
       </c>
-      <c r="R35" s="33">
+      <c r="R35" s="20">
         <v>2.1654000000000001E-3</v>
       </c>
-      <c r="S35" s="32">
+      <c r="S35" s="19">
         <f t="shared" si="1"/>
         <v>2.2882999999999996E-3</v>
       </c>
-      <c r="T35" s="33">
+      <c r="T35" s="20">
         <f>S35/S34</f>
         <v>2.0754802546846367</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="20">
         <v>3.2815000000000001E-3</v>
       </c>
-      <c r="V35" s="33">
+      <c r="V35" s="20">
         <v>3.2460000000000002E-3</v>
       </c>
-      <c r="W35" s="33">
+      <c r="W35" s="20">
         <v>3.2948000000000001E-3</v>
       </c>
-      <c r="X35" s="33">
+      <c r="X35" s="20">
         <v>3.0866000000000001E-3</v>
       </c>
-      <c r="Y35" s="33">
+      <c r="Y35" s="20">
         <v>3.4102E-3</v>
       </c>
-      <c r="Z35" s="32">
+      <c r="Z35" s="19">
         <f t="shared" si="2"/>
         <v>3.2638199999999997E-3</v>
       </c>
-      <c r="AA35" s="33">
+      <c r="AA35" s="20">
         <f>Z35/Z34</f>
         <v>1.8185475333474483</v>
       </c>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="30">
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="17">
         <v>1.6564200000000001E-2</v>
       </c>
-      <c r="AE35" s="31">
+      <c r="AE35" s="18">
         <v>1.6214099999999999E-2</v>
       </c>
-      <c r="AF35" s="30">
+      <c r="AF35" s="17">
         <v>1.5792400000000002E-2</v>
       </c>
-      <c r="AG35" s="31">
+      <c r="AG35" s="18">
         <v>1.60964E-2</v>
       </c>
-      <c r="AH35" s="30">
+      <c r="AH35" s="17">
         <v>1.6517899999999999E-2</v>
       </c>
-      <c r="AI35" s="32">
+      <c r="AI35" s="19">
         <f t="shared" si="3"/>
         <v>1.6236999999999998E-2</v>
       </c>
-      <c r="AJ35" s="33">
+      <c r="AJ35" s="20">
         <v>2.1361000000000002E-3</v>
       </c>
-      <c r="AK35" s="34">
+      <c r="AK35" s="21">
         <v>2.9185000000000001E-3</v>
       </c>
-      <c r="AL35" s="33">
+      <c r="AL35" s="20">
         <v>2.1223000000000001E-3</v>
       </c>
-      <c r="AM35" s="34">
+      <c r="AM35" s="21">
         <v>2.0991999999999999E-3</v>
       </c>
-      <c r="AN35" s="33">
+      <c r="AN35" s="20">
         <v>2.1654000000000001E-3</v>
       </c>
-      <c r="AO35" s="32">
+      <c r="AO35" s="19">
         <f t="shared" si="4"/>
         <v>2.2882999999999996E-3</v>
       </c>
-      <c r="AP35" s="33">
+      <c r="AP35" s="20">
         <v>3.2815000000000001E-3</v>
       </c>
-      <c r="AQ35" s="33">
+      <c r="AQ35" s="20">
         <v>3.2460000000000002E-3</v>
       </c>
-      <c r="AR35" s="33">
+      <c r="AR35" s="20">
         <v>3.2948000000000001E-3</v>
       </c>
-      <c r="AS35" s="33">
+      <c r="AS35" s="20">
         <v>3.0866000000000001E-3</v>
       </c>
-      <c r="AT35" s="33">
+      <c r="AT35" s="20">
         <v>3.4102E-3</v>
       </c>
-      <c r="AU35" s="32">
+      <c r="AU35" s="19">
         <f t="shared" si="5"/>
         <v>3.2638199999999997E-3</v>
       </c>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="33"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="32"/>
+      <c r="BF35" s="33"/>
+      <c r="BG35" s="60"/>
+      <c r="BH35" s="61"/>
+      <c r="BI35" s="48"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="21"/>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A36" s="54"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="5">
         <v>175000</v>
       </c>
@@ -18728,137 +19567,149 @@
         <f t="shared" ref="F36:F39" si="30">D36*LOG(D36,2)</f>
         <v>1.4128711136008072</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="17">
         <v>2.9172799999999999E-2</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="18">
         <v>2.9468299999999999E-2</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="17">
         <v>2.9020299999999999E-2</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="18">
         <v>2.93631E-2</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="17">
         <v>3.0270499999999999E-2</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="19">
         <f t="shared" si="0"/>
         <v>2.9459000000000003E-2</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="20">
         <f t="shared" ref="M36:M39" si="31">L36/L35</f>
         <v>1.814312988852621</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="20">
         <v>3.9119000000000003E-3</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="21">
         <v>4.2281000000000003E-3</v>
       </c>
-      <c r="P36" s="33">
+      <c r="P36" s="20">
         <v>3.9591000000000001E-3</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="21">
         <v>4.0768999999999996E-3</v>
       </c>
-      <c r="R36" s="33">
+      <c r="R36" s="20">
         <v>4.1980999999999997E-3</v>
       </c>
-      <c r="S36" s="32">
+      <c r="S36" s="19">
         <f t="shared" si="1"/>
         <v>4.0748200000000007E-3</v>
       </c>
-      <c r="T36" s="33">
+      <c r="T36" s="20">
         <f t="shared" ref="T36:T39" si="32">S36/S35</f>
         <v>1.7807193112791162</v>
       </c>
-      <c r="U36" s="33">
+      <c r="U36" s="20">
         <v>7.4361000000000002E-3</v>
       </c>
-      <c r="V36" s="33">
+      <c r="V36" s="20">
         <v>5.5846000000000003E-3</v>
       </c>
-      <c r="W36" s="33">
+      <c r="W36" s="20">
         <v>5.6917000000000001E-3</v>
       </c>
-      <c r="X36" s="33">
+      <c r="X36" s="20">
         <v>5.9611999999999998E-3</v>
       </c>
-      <c r="Y36" s="33">
+      <c r="Y36" s="20">
         <v>6.6128000000000003E-3</v>
       </c>
-      <c r="Z36" s="32">
+      <c r="Z36" s="19">
         <f t="shared" si="2"/>
         <v>6.2572799999999996E-3</v>
       </c>
-      <c r="AA36" s="33">
+      <c r="AA36" s="20">
         <f t="shared" ref="AA36:AA39" si="33">Z36/Z35</f>
         <v>1.9171645495155982</v>
       </c>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="30">
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="17">
         <v>2.9172799999999999E-2</v>
       </c>
-      <c r="AE36" s="31">
+      <c r="AE36" s="18">
         <v>2.9468299999999999E-2</v>
       </c>
-      <c r="AF36" s="30">
+      <c r="AF36" s="17">
         <v>2.9020299999999999E-2</v>
       </c>
-      <c r="AG36" s="31">
+      <c r="AG36" s="18">
         <v>2.93631E-2</v>
       </c>
-      <c r="AH36" s="30">
+      <c r="AH36" s="17">
         <v>3.0270499999999999E-2</v>
       </c>
-      <c r="AI36" s="32">
+      <c r="AI36" s="19">
         <f t="shared" si="3"/>
         <v>2.9459000000000003E-2</v>
       </c>
-      <c r="AJ36" s="33">
+      <c r="AJ36" s="20">
         <v>3.9119000000000003E-3</v>
       </c>
-      <c r="AK36" s="34">
+      <c r="AK36" s="21">
         <v>4.2281000000000003E-3</v>
       </c>
-      <c r="AL36" s="33">
+      <c r="AL36" s="20">
         <v>3.9591000000000001E-3</v>
       </c>
-      <c r="AM36" s="34">
+      <c r="AM36" s="21">
         <v>4.0768999999999996E-3</v>
       </c>
-      <c r="AN36" s="33">
+      <c r="AN36" s="20">
         <v>4.1980999999999997E-3</v>
       </c>
-      <c r="AO36" s="32">
+      <c r="AO36" s="19">
         <f t="shared" si="4"/>
         <v>4.0748200000000007E-3</v>
       </c>
-      <c r="AP36" s="33">
+      <c r="AP36" s="20">
         <v>7.4361000000000002E-3</v>
       </c>
-      <c r="AQ36" s="33">
+      <c r="AQ36" s="20">
         <v>5.5846000000000003E-3</v>
       </c>
-      <c r="AR36" s="33">
+      <c r="AR36" s="20">
         <v>5.6917000000000001E-3</v>
       </c>
-      <c r="AS36" s="33">
+      <c r="AS36" s="20">
         <v>5.9611999999999998E-3</v>
       </c>
-      <c r="AT36" s="33">
+      <c r="AT36" s="20">
         <v>6.6128000000000003E-3</v>
       </c>
-      <c r="AU36" s="32">
+      <c r="AU36" s="19">
         <f t="shared" si="5"/>
         <v>6.2572799999999996E-3</v>
       </c>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="32"/>
+      <c r="BF36" s="33"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="48"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A37" s="54"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="5">
         <v>300000</v>
       </c>
@@ -18874,137 +19725,149 @@
         <f t="shared" si="30"/>
         <v>1.3330415634232318</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="17">
         <v>5.6950800000000003E-2</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="18">
         <v>5.5904200000000001E-2</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="17">
         <v>5.5635299999999999E-2</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="18">
         <v>5.5237799999999997E-2</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="17">
         <v>5.72113E-2</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="19">
         <f t="shared" si="0"/>
         <v>5.6187880000000003E-2</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="20">
         <f t="shared" si="31"/>
         <v>1.9073247564411555</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="20">
         <v>6.9160000000000003E-3</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="21">
         <v>7.5722999999999997E-3</v>
       </c>
-      <c r="P37" s="33">
+      <c r="P37" s="20">
         <v>7.1714999999999999E-3</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="21">
         <v>7.2640999999999999E-3</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="20">
         <v>7.2224000000000003E-3</v>
       </c>
-      <c r="S37" s="32">
+      <c r="S37" s="19">
         <f t="shared" si="1"/>
         <v>7.2292599999999995E-3</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="20">
         <f t="shared" si="32"/>
         <v>1.7741299002164508</v>
       </c>
-      <c r="U37" s="33">
+      <c r="U37" s="20">
         <v>1.0884400000000001E-2</v>
       </c>
-      <c r="V37" s="33">
+      <c r="V37" s="20">
         <v>1.0806899999999999E-2</v>
       </c>
-      <c r="W37" s="33">
+      <c r="W37" s="20">
         <v>1.0020899999999999E-2</v>
       </c>
-      <c r="X37" s="33">
+      <c r="X37" s="20">
         <v>1.1213900000000001E-2</v>
       </c>
-      <c r="Y37" s="33">
+      <c r="Y37" s="20">
         <v>1.09687E-2</v>
       </c>
-      <c r="Z37" s="32">
+      <c r="Z37" s="19">
         <f t="shared" si="2"/>
         <v>1.0778959999999999E-2</v>
       </c>
-      <c r="AA37" s="33">
+      <c r="AA37" s="20">
         <f t="shared" si="33"/>
         <v>1.7226270839725886</v>
       </c>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="30">
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="17">
         <v>5.6950800000000003E-2</v>
       </c>
-      <c r="AE37" s="31">
+      <c r="AE37" s="18">
         <v>5.5904200000000001E-2</v>
       </c>
-      <c r="AF37" s="30">
+      <c r="AF37" s="17">
         <v>5.5635299999999999E-2</v>
       </c>
-      <c r="AG37" s="31">
+      <c r="AG37" s="18">
         <v>5.5237799999999997E-2</v>
       </c>
-      <c r="AH37" s="30">
+      <c r="AH37" s="17">
         <v>5.72113E-2</v>
       </c>
-      <c r="AI37" s="32">
+      <c r="AI37" s="19">
         <f t="shared" si="3"/>
         <v>5.6187880000000003E-2</v>
       </c>
-      <c r="AJ37" s="33">
+      <c r="AJ37" s="20">
         <v>6.9160000000000003E-3</v>
       </c>
-      <c r="AK37" s="34">
+      <c r="AK37" s="21">
         <v>7.5722999999999997E-3</v>
       </c>
-      <c r="AL37" s="33">
+      <c r="AL37" s="20">
         <v>7.1714999999999999E-3</v>
       </c>
-      <c r="AM37" s="34">
+      <c r="AM37" s="21">
         <v>7.2640999999999999E-3</v>
       </c>
-      <c r="AN37" s="33">
+      <c r="AN37" s="20">
         <v>7.2224000000000003E-3</v>
       </c>
-      <c r="AO37" s="32">
+      <c r="AO37" s="19">
         <f t="shared" si="4"/>
         <v>7.2292599999999995E-3</v>
       </c>
-      <c r="AP37" s="33">
+      <c r="AP37" s="20">
         <v>1.0884400000000001E-2</v>
       </c>
-      <c r="AQ37" s="33">
+      <c r="AQ37" s="20">
         <v>1.0806899999999999E-2</v>
       </c>
-      <c r="AR37" s="33">
+      <c r="AR37" s="20">
         <v>1.0020899999999999E-2</v>
       </c>
-      <c r="AS37" s="33">
+      <c r="AS37" s="20">
         <v>1.1213900000000001E-2</v>
       </c>
-      <c r="AT37" s="33">
+      <c r="AT37" s="20">
         <v>1.09687E-2</v>
       </c>
-      <c r="AU37" s="32">
+      <c r="AU37" s="19">
         <f t="shared" si="5"/>
         <v>1.0778959999999999E-2</v>
       </c>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="33"/>
+      <c r="BE37" s="32"/>
+      <c r="BF37" s="33"/>
+      <c r="BG37" s="60"/>
+      <c r="BH37" s="61"/>
+      <c r="BI37" s="48"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="54"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="5">
         <v>425000</v>
       </c>
@@ -19020,137 +19883,149 @@
         <f t="shared" si="30"/>
         <v>0.71187548241634313</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="17">
         <v>7.8412700000000002E-2</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="18">
         <v>8.0129900000000004E-2</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="17">
         <v>8.2781800000000003E-2</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="18">
         <v>8.2230800000000007E-2</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="17">
         <v>8.0296500000000007E-2</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="19">
         <f t="shared" si="0"/>
         <v>8.0770339999999996E-2</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="20">
         <f t="shared" si="31"/>
         <v>1.4375046718260236</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N38" s="20">
         <v>1.01201E-2</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="21">
         <v>9.8750999999999995E-3</v>
       </c>
-      <c r="P38" s="33">
+      <c r="P38" s="20">
         <v>9.8890000000000002E-3</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="21">
         <v>1.0354500000000001E-2</v>
       </c>
-      <c r="R38" s="33">
+      <c r="R38" s="20">
         <v>1.06573E-2</v>
       </c>
-      <c r="S38" s="32">
+      <c r="S38" s="19">
         <f t="shared" si="1"/>
         <v>1.0179200000000001E-2</v>
       </c>
-      <c r="T38" s="33">
+      <c r="T38" s="20">
         <f t="shared" si="32"/>
         <v>1.4080555962850971</v>
       </c>
-      <c r="U38" s="33">
+      <c r="U38" s="20">
         <v>1.5783700000000001E-2</v>
       </c>
-      <c r="V38" s="33">
+      <c r="V38" s="20">
         <v>1.52129E-2</v>
       </c>
-      <c r="W38" s="33">
+      <c r="W38" s="20">
         <v>1.4568599999999999E-2</v>
       </c>
-      <c r="X38" s="33">
+      <c r="X38" s="20">
         <v>1.50096E-2</v>
       </c>
-      <c r="Y38" s="33">
+      <c r="Y38" s="20">
         <v>1.5428799999999999E-2</v>
       </c>
-      <c r="Z38" s="32">
+      <c r="Z38" s="19">
         <f t="shared" si="2"/>
         <v>1.5200720000000001E-2</v>
       </c>
-      <c r="AA38" s="33">
+      <c r="AA38" s="20">
         <f t="shared" si="33"/>
         <v>1.4102213942718038</v>
       </c>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="30">
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="17">
         <v>7.8412700000000002E-2</v>
       </c>
-      <c r="AE38" s="31">
+      <c r="AE38" s="18">
         <v>8.0129900000000004E-2</v>
       </c>
-      <c r="AF38" s="30">
+      <c r="AF38" s="17">
         <v>8.2781800000000003E-2</v>
       </c>
-      <c r="AG38" s="31">
+      <c r="AG38" s="18">
         <v>8.2230800000000007E-2</v>
       </c>
-      <c r="AH38" s="30">
+      <c r="AH38" s="17">
         <v>8.0296500000000007E-2</v>
       </c>
-      <c r="AI38" s="32">
+      <c r="AI38" s="19">
         <f t="shared" si="3"/>
         <v>8.0770339999999996E-2</v>
       </c>
-      <c r="AJ38" s="33">
+      <c r="AJ38" s="20">
         <v>1.01201E-2</v>
       </c>
-      <c r="AK38" s="34">
+      <c r="AK38" s="21">
         <v>9.8750999999999995E-3</v>
       </c>
-      <c r="AL38" s="33">
+      <c r="AL38" s="20">
         <v>9.8890000000000002E-3</v>
       </c>
-      <c r="AM38" s="34">
+      <c r="AM38" s="21">
         <v>1.0354500000000001E-2</v>
       </c>
-      <c r="AN38" s="33">
+      <c r="AN38" s="20">
         <v>1.06573E-2</v>
       </c>
-      <c r="AO38" s="32">
+      <c r="AO38" s="19">
         <f t="shared" si="4"/>
         <v>1.0179200000000001E-2</v>
       </c>
-      <c r="AP38" s="33">
+      <c r="AP38" s="20">
         <v>1.5783700000000001E-2</v>
       </c>
-      <c r="AQ38" s="33">
+      <c r="AQ38" s="20">
         <v>1.52129E-2</v>
       </c>
-      <c r="AR38" s="33">
+      <c r="AR38" s="20">
         <v>1.4568599999999999E-2</v>
       </c>
-      <c r="AS38" s="33">
+      <c r="AS38" s="20">
         <v>1.50096E-2</v>
       </c>
-      <c r="AT38" s="33">
+      <c r="AT38" s="20">
         <v>1.5428799999999999E-2</v>
       </c>
-      <c r="AU38" s="32">
+      <c r="AU38" s="19">
         <f t="shared" si="5"/>
         <v>1.5200720000000001E-2</v>
       </c>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="35"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="35"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="63"/>
+      <c r="BI38" s="49"/>
     </row>
-    <row r="39" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22"/>
+    <row r="39" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="55"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="6">
         <v>550000</v>
       </c>
@@ -19166,145 +20041,1110 @@
         <f t="shared" si="30"/>
         <v>0.48137135897135735</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="22">
         <v>0.1090362</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="23">
         <v>0.1079669</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="22">
         <v>0.10891190000000001</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="23">
         <v>0.1100739</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="22">
         <v>0.1089287</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="24">
         <f t="shared" si="0"/>
         <v>0.10898352</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="23">
         <f t="shared" si="31"/>
         <v>1.3493012410248615</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="25">
         <v>1.39034E-2</v>
       </c>
       <c r="O39" s="14">
         <v>1.4744E-2</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39" s="25">
         <v>1.3627800000000001E-2</v>
       </c>
       <c r="Q39" s="14">
         <v>1.33814E-2</v>
       </c>
-      <c r="R39" s="38">
+      <c r="R39" s="25">
         <v>1.36262E-2</v>
       </c>
-      <c r="S39" s="37">
+      <c r="S39" s="24">
         <f t="shared" si="1"/>
         <v>1.385656E-2</v>
       </c>
-      <c r="T39" s="36">
+      <c r="T39" s="23">
         <f t="shared" si="32"/>
         <v>1.3612621817038666</v>
       </c>
-      <c r="U39" s="38">
+      <c r="U39" s="25">
         <v>2.00632E-2</v>
       </c>
-      <c r="V39" s="38">
+      <c r="V39" s="25">
         <v>2.0836E-2</v>
       </c>
-      <c r="W39" s="38">
+      <c r="W39" s="25">
         <v>2.04212E-2</v>
       </c>
-      <c r="X39" s="38">
+      <c r="X39" s="25">
         <v>2.06912E-2</v>
       </c>
-      <c r="Y39" s="38">
+      <c r="Y39" s="25">
         <v>2.0744599999999998E-2</v>
       </c>
-      <c r="Z39" s="37">
+      <c r="Z39" s="24">
         <f t="shared" si="2"/>
         <v>2.0551239999999998E-2</v>
       </c>
-      <c r="AA39" s="36">
+      <c r="AA39" s="23">
         <f t="shared" si="33"/>
         <v>1.3519912214684566</v>
       </c>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="35">
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="22">
         <v>0.1090362</v>
       </c>
-      <c r="AE39" s="36">
+      <c r="AE39" s="23">
         <v>0.1079669</v>
       </c>
-      <c r="AF39" s="35">
+      <c r="AF39" s="22">
         <v>0.10891190000000001</v>
       </c>
-      <c r="AG39" s="36">
+      <c r="AG39" s="23">
         <v>0.1100739</v>
       </c>
-      <c r="AH39" s="35">
+      <c r="AH39" s="22">
         <v>0.1089287</v>
       </c>
-      <c r="AI39" s="37">
+      <c r="AI39" s="24">
         <f t="shared" si="3"/>
         <v>0.10898352</v>
       </c>
-      <c r="AJ39" s="38">
+      <c r="AJ39" s="25">
         <v>1.39034E-2</v>
       </c>
       <c r="AK39" s="14">
         <v>1.4744E-2</v>
       </c>
-      <c r="AL39" s="38">
+      <c r="AL39" s="25">
         <v>1.3627800000000001E-2</v>
       </c>
       <c r="AM39" s="14">
         <v>1.33814E-2</v>
       </c>
-      <c r="AN39" s="38">
+      <c r="AN39" s="25">
         <v>1.36262E-2</v>
       </c>
-      <c r="AO39" s="37">
+      <c r="AO39" s="24">
         <f t="shared" si="4"/>
         <v>1.385656E-2</v>
       </c>
-      <c r="AP39" s="38">
+      <c r="AP39" s="25">
         <v>2.00632E-2</v>
       </c>
-      <c r="AQ39" s="38">
+      <c r="AQ39" s="25">
         <v>2.0836E-2</v>
       </c>
-      <c r="AR39" s="38">
+      <c r="AR39" s="25">
         <v>2.04212E-2</v>
       </c>
-      <c r="AS39" s="38">
+      <c r="AS39" s="25">
         <v>2.06912E-2</v>
       </c>
-      <c r="AT39" s="38">
+      <c r="AT39" s="25">
         <v>2.0744599999999998E-2</v>
       </c>
-      <c r="AU39" s="37">
+      <c r="AU39" s="24">
         <f t="shared" si="5"/>
         <v>2.0551239999999998E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AI45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AI46">
+        <f>$AI$34/AI4</f>
+        <v>1.9753604834412252E-3</v>
+      </c>
+      <c r="AK46">
+        <f>AI28/AI4</f>
+        <v>9.6843513525073229E-4</v>
+      </c>
+      <c r="AM46">
+        <f>AI22/AI4</f>
+        <v>7.0904596849602538E-3</v>
+      </c>
+      <c r="AO46">
+        <f>AI16/AI4</f>
+        <v>0.14564946155704886</v>
+      </c>
+      <c r="AQ46">
+        <f>AI10/AI4</f>
+        <v>0.2259003724994392</v>
+      </c>
+      <c r="AS46" s="65">
+        <f>AI4/AI10</f>
+        <v>4.4267301949777993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AI47">
+        <f>$AI$35/AI5</f>
+        <v>9.9029751783332961E-4</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" ref="AK47:AK51" si="34">AI29/AI5</f>
+        <v>4.8393022560199697E-4</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" ref="AM47:AM51" si="35">AI23/AI5</f>
+        <v>3.0252982317538566E-3</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" ref="AO47:AO51" si="36">AI17/AI5</f>
+        <v>0.13502435798277596</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" ref="AQ47:AQ51" si="37">AI11/AI5</f>
+        <v>0.21136013787000474</v>
+      </c>
+      <c r="AS47" s="65">
+        <f t="shared" ref="AS47:AS51" si="38">AI5/AI11</f>
+        <v>4.7312611075937205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AI48">
+        <f>$AI$36/AI6</f>
+        <v>5.9580279467660554E-4</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="34"/>
+        <v>2.8344186884018355E-4</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="35"/>
+        <v>1.7024273562037512E-3</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="36"/>
+        <v>0.1389270474723702</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="37"/>
+        <v>0.22063037682291717</v>
+      </c>
+      <c r="AS48" s="65">
+        <f t="shared" si="38"/>
+        <v>4.5324674435135561</v>
+      </c>
+    </row>
+    <row r="49" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI49">
+        <f>$AI$37/AI7</f>
+        <v>3.7249745694266964E-4</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="34"/>
+        <v>1.6629473402088389E-4</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="35"/>
+        <v>9.7028953129401035E-4</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="36"/>
+        <v>0.13352583840777735</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="37"/>
+        <v>0.20901427367520201</v>
+      </c>
+      <c r="AS49" s="65">
+        <f t="shared" si="38"/>
+        <v>4.7843622467332123</v>
+      </c>
+    </row>
+    <row r="50" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI50">
+        <f>$AI$38/AI8</f>
+        <v>2.6251916182252496E-4</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="34"/>
+        <v>1.1821932064856899E-4</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="35"/>
+        <v>6.6905734817787924E-4</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="36"/>
+        <v>0.13105270602190622</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="37"/>
+        <v>0.21679792479799201</v>
+      </c>
+      <c r="AS50" s="65">
+        <f t="shared" si="38"/>
+        <v>4.6125902770138607</v>
+      </c>
+    </row>
+    <row r="51" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI51">
+        <f>$AI$39/AI9</f>
+        <v>2.2031309066109241E-4</v>
+      </c>
+      <c r="AK51">
+        <f>AI33/AI9</f>
+        <v>9.6677531190384535E-5</v>
+      </c>
+      <c r="AM51">
+        <f>AI27/AI9</f>
+        <v>5.3742128450283769E-4</v>
+      </c>
+      <c r="AO51">
+        <f>AI21/AI9</f>
+        <v>0.13398558386003684</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" si="37"/>
+        <v>0.2218091667444945</v>
+      </c>
+      <c r="AS51" s="65">
+        <f t="shared" si="38"/>
+        <v>4.5083799496524684</v>
+      </c>
+    </row>
+    <row r="52" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI53">
+        <f>$AI$34/AI10</f>
+        <v>8.7443878980152153E-3</v>
+      </c>
+      <c r="AK53">
+        <f>AI28/AI10</f>
+        <v>4.2870010550918256E-3</v>
+      </c>
+      <c r="AM53">
+        <f>AI22/AI10</f>
+        <v>3.1387551983686326E-2</v>
+      </c>
+      <c r="AO53">
+        <f>AI16/AI10</f>
+        <v>0.64475086935684645</v>
+      </c>
+      <c r="AQ53">
+        <f>AI10/AI16</f>
+        <v>1.5509866640389685</v>
+      </c>
+      <c r="AS53">
+        <f>AI4/AI16</f>
+        <v>6.8657994977091894</v>
+      </c>
+    </row>
+    <row r="54" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI54">
+        <f>$AI$35/AI11</f>
+        <v>4.6853561310714314E-3</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" ref="AK54:AK58" si="39">AI29/AI11</f>
+        <v>2.2896002551797833E-3</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" ref="AM54:AM58" si="40">AI23/AI11</f>
+        <v>1.4313475862769076E-2</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" ref="AO54:AO58" si="41">AI17/AI11</f>
+        <v>0.63883549350171953</v>
+      </c>
+      <c r="AQ54">
+        <f t="shared" ref="AQ54:AQ58" si="42">AI11/AI17</f>
+        <v>1.5653482158898053</v>
+      </c>
+      <c r="AS54">
+        <f t="shared" ref="AS54:AS58" si="43">AI5/AI17</f>
+        <v>7.406071133680654</v>
+      </c>
+    </row>
+    <row r="55" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI55">
+        <f>$AI$36/AI12</f>
+        <v>2.7004567696261063E-3</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="39"/>
+        <v>1.2846910426467717E-3</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="40"/>
+        <v>7.7161965669403582E-3</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="41"/>
+        <v>0.62968231969198019</v>
+      </c>
+      <c r="AQ55">
+        <f t="shared" si="42"/>
+        <v>1.5881023950127218</v>
+      </c>
+      <c r="AS55">
+        <f t="shared" si="43"/>
+        <v>7.1980224023610671</v>
+      </c>
+      <c r="AV55" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW55" s="64"/>
+      <c r="AX55" s="64"/>
+      <c r="AY55" s="64"/>
+    </row>
+    <row r="56" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI56">
+        <f>$AI$37/AI13</f>
+        <v>1.7821627700006391E-3</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="39"/>
+        <v>7.9561424728005802E-4</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="40"/>
+        <v>4.6422166019235269E-3</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="41"/>
+        <v>0.63883598024156951</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="42"/>
+        <v>1.5653470232247406</v>
+      </c>
+      <c r="AS56">
+        <f t="shared" si="43"/>
+        <v>7.4891872009526663</v>
+      </c>
+      <c r="AV56" s="64"/>
+      <c r="AW56" s="64"/>
+      <c r="AX56" s="64"/>
+      <c r="AY56" s="64"/>
+    </row>
+    <row r="57" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI57">
+        <f>$AI$38/AI14</f>
+        <v>1.2108933333524069E-3</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="39"/>
+        <v>5.4529728897877324E-4</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="40"/>
+        <v>3.0860874189699628E-3</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="41"/>
+        <v>0.60449243757300042</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="42"/>
+        <v>1.6542804141850607</v>
+      </c>
+      <c r="AS57">
+        <f t="shared" si="43"/>
+        <v>7.6305177539244724</v>
+      </c>
+      <c r="AV57" s="64"/>
+      <c r="AW57" s="64"/>
+      <c r="AX57" s="64"/>
+      <c r="AY57" s="64"/>
+    </row>
+    <row r="58" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI58">
+        <f>$AI$39/AI15</f>
+        <v>9.9325512058243549E-4</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="39"/>
+        <v>4.3585904320063076E-4</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="40"/>
+        <v>2.4228993435690682E-3</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="41"/>
+        <v>0.60405791981706947</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="42"/>
+        <v>1.6554703898308893</v>
+      </c>
+      <c r="AS58">
+        <f>AI9/AI21</f>
+        <v>7.4634895127569365</v>
+      </c>
+      <c r="AV58" s="64"/>
+      <c r="AW58" s="64"/>
+      <c r="AX58" s="64"/>
+      <c r="AY58" s="64"/>
+    </row>
+    <row r="59" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV59" s="64"/>
+      <c r="AW59" s="64"/>
+      <c r="AX59" s="64"/>
+      <c r="AY59" s="64"/>
+    </row>
+    <row r="60" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI60">
+        <f>$AI$34/AI16</f>
+        <v>1.3562429015005345E-2</v>
+      </c>
+      <c r="AK60">
+        <f>AI28/AI16</f>
+        <v>6.6490814651684084E-3</v>
+      </c>
+      <c r="AM60">
+        <f>AI22/AI16</f>
+        <v>4.8681674543527363E-2</v>
+      </c>
+      <c r="AO60" s="68">
+        <f>AI16/AI22</f>
+        <v>20.541610562427916</v>
+      </c>
+      <c r="AQ60">
+        <f>AI10/AI22</f>
+        <v>31.859764040207715</v>
+      </c>
+      <c r="AS60" s="69">
+        <f>AI4/AI22</f>
+        <v>141.03457948165538</v>
+      </c>
+      <c r="AV60" s="64"/>
+      <c r="AW60" s="64"/>
+      <c r="AX60" s="64"/>
+      <c r="AY60" s="64"/>
+    </row>
+    <row r="61" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI61">
+        <f>$AI$35/AI17</f>
+        <v>7.3342138605810257E-3</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" ref="AK61:AK65" si="44">AI29/AI17</f>
+        <v>3.5840216745465165E-3</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" ref="AM61:AM65" si="45">AI23/AI17</f>
+        <v>2.2405573904967363E-2</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" ref="AO61:AO65" si="46">AI17/AI23</f>
+        <v>44.631751199120046</v>
+      </c>
+      <c r="AQ61" s="69">
+        <f t="shared" ref="AQ61:AQ65" si="47">AI11/AI23</f>
+        <v>69.86423211158025</v>
+      </c>
+      <c r="AS61">
+        <f t="shared" ref="AS61:AS65" si="48">AI5/AI23</f>
+        <v>330.54592420141995</v>
+      </c>
+      <c r="AV61" s="64"/>
+      <c r="AW61" s="64"/>
+      <c r="AX61" s="64"/>
+      <c r="AY61" s="64"/>
+    </row>
+    <row r="62" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI62">
+        <f>$AI$36/AI18</f>
+        <v>4.2886018634715369E-3</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="44"/>
+        <v>2.0402209216787287E-3</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="45"/>
+        <v>1.2254110248346925E-2</v>
+      </c>
+      <c r="AO62" s="67">
+        <f t="shared" si="46"/>
+        <v>81.605272005358344</v>
+      </c>
+      <c r="AQ62" s="69">
+        <f t="shared" si="47"/>
+        <v>129.59752791737418</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="48"/>
+        <v>587.39657604533772</v>
+      </c>
+      <c r="AV62" s="64"/>
+      <c r="AW62" s="64"/>
+      <c r="AX62" s="64"/>
+      <c r="AY62" s="64"/>
+    </row>
+    <row r="63" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI63">
+        <f>$AI$37/AI19</f>
+        <v>2.7897031869224581E-3</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="44"/>
+        <v>1.2454123936150314E-3</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="45"/>
+        <v>7.266679938985463E-3</v>
+      </c>
+      <c r="AO63" s="69">
+        <f t="shared" si="46"/>
+        <v>137.61442755102476</v>
+      </c>
+      <c r="AQ63">
+        <f t="shared" si="47"/>
+        <v>215.41433451977332</v>
+      </c>
+      <c r="AS63">
+        <f t="shared" si="48"/>
+        <v>1030.6202094815626</v>
+      </c>
+      <c r="AV63" s="64"/>
+      <c r="AW63" s="64"/>
+      <c r="AX63" s="64"/>
+      <c r="AY63" s="64"/>
+    </row>
+    <row r="64" spans="35:51" x14ac:dyDescent="0.35">
+      <c r="AI64">
+        <f>$AI$38/AI20</f>
+        <v>2.0031571250321485E-3</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="44"/>
+        <v>9.0207462506579567E-4</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="45"/>
+        <v>5.1052539736649348E-3</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="46"/>
+        <v>195.87664103655257</v>
+      </c>
+      <c r="AQ64">
+        <f t="shared" si="47"/>
+        <v>324.03489086312663</v>
+      </c>
+      <c r="AS64">
+        <f t="shared" si="48"/>
+        <v>1494.6401870085053</v>
+      </c>
+    </row>
+    <row r="65" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI65">
+        <f>$AI$39/AI21</f>
+        <v>1.6443044416721315E-3</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="44"/>
+        <v>7.2155174015866663E-4</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="45"/>
+        <v>4.011038120819291E-3</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="46"/>
+        <v>249.31201596152891</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="47"/>
+        <v>412.72866025335713</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" si="48"/>
+        <v>1860.7376165331611</v>
+      </c>
+    </row>
+    <row r="66" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI67">
+        <f>$AI$34/AI22</f>
+        <v>0.27859413510681263</v>
+      </c>
+      <c r="AK67">
+        <f>AI28/AI22</f>
+        <v>0.13658284205534707</v>
+      </c>
+      <c r="AM67" s="65">
+        <f>AI22/AI28</f>
+        <v>7.3215638578876021</v>
+      </c>
+      <c r="AO67">
+        <f>AI16/AI28</f>
+        <v>150.39671347667448</v>
+      </c>
+      <c r="AQ67">
+        <f>AI10/AI28</f>
+        <v>233.26329691761191</v>
+      </c>
+      <c r="AS67">
+        <f>AI4/AI28</f>
+        <v>1032.5936798452644</v>
+      </c>
+    </row>
+    <row r="68" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI68">
+        <f>$AI$35/AI23</f>
+        <v>0.32733880826659006</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" ref="AK68:AK72" si="49">AI29/AI23</f>
+        <v>0.15996116367061375</v>
+      </c>
+      <c r="AM68" s="65">
+        <f t="shared" ref="AM68:AM72" si="50">AI23/AI29</f>
+        <v>6.2515174124337074</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" ref="AO68:AO72" si="51">AI17/AI29</f>
+        <v>279.01616976870798</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" ref="AQ68:AQ72" si="52">AI11/AI29</f>
+        <v>436.75746355185407</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" ref="AS68:AS72" si="53">AI5/AI29</f>
+        <v>2066.4136007541692</v>
+      </c>
+    </row>
+    <row r="69" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI69">
+        <f>$AI$36/AI24</f>
+        <v>0.34997252159128145</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="49"/>
+        <v>0.16649278326461553</v>
+      </c>
+      <c r="AM69" s="65">
+        <f t="shared" si="50"/>
+        <v>6.0062663401491019</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="51"/>
+        <v>490.1429984244956</v>
+      </c>
+      <c r="AQ69">
+        <f t="shared" si="52"/>
+        <v>778.3972696966581</v>
+      </c>
+      <c r="AS69">
+        <f t="shared" si="53"/>
+        <v>3528.0602830199446</v>
+      </c>
+    </row>
+    <row r="70" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI70">
+        <f>$AI$37/AI25</f>
+        <v>0.3839034071056035</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" si="49"/>
+        <v>0.17138671361228405</v>
+      </c>
+      <c r="AM70" s="65">
+        <f t="shared" si="50"/>
+        <v>5.8347580096682909</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="51"/>
+        <v>802.94688339925847</v>
+      </c>
+      <c r="AQ70">
+        <f t="shared" si="52"/>
+        <v>1256.8905137366121</v>
+      </c>
+      <c r="AS70">
+        <f t="shared" si="53"/>
+        <v>6013.4195221985592</v>
+      </c>
+    </row>
+    <row r="71" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI71">
+        <f>$AI$38/AI26</f>
+        <v>0.3923716891197348</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" si="49"/>
+        <v>0.17669534752219559</v>
+      </c>
+      <c r="AM71" s="65">
+        <f t="shared" si="50"/>
+        <v>5.6594585767142789</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="51"/>
+        <v>1108.5557360923015</v>
+      </c>
+      <c r="AQ71">
+        <f t="shared" si="52"/>
+        <v>1833.8620422499973</v>
+      </c>
+      <c r="AS71">
+        <f t="shared" si="53"/>
+        <v>8458.8542254671192</v>
+      </c>
+    </row>
+    <row r="72" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI72">
+        <f>$AI$39/AI27</f>
+        <v>0.40994485520777529</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" si="49"/>
+        <v>0.17989151895950645</v>
+      </c>
+      <c r="AM72" s="65">
+        <f t="shared" si="50"/>
+        <v>5.5589057548905334</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="51"/>
+        <v>1385.9020002919037</v>
+      </c>
+      <c r="AQ72">
+        <f t="shared" si="52"/>
+        <v>2294.319724690647</v>
+      </c>
+      <c r="AS72">
+        <f t="shared" si="53"/>
+        <v>10343.665044887484</v>
+      </c>
+    </row>
+    <row r="73" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI74" s="65">
+        <f>$AI$34/AI28</f>
+        <v>2.0397447506174951</v>
+      </c>
+      <c r="AK74">
+        <f>AI28/AI34</f>
+        <v>0.4902574205411086</v>
+      </c>
+      <c r="AM74">
+        <f>AI22/AI34</f>
+        <v>3.5894510112949836</v>
+      </c>
+      <c r="AO74" s="69">
+        <f>AI16/AI34</f>
+        <v>73.733104806934605</v>
+      </c>
+      <c r="AQ74" s="67">
+        <f>AI10/AI34</f>
+        <v>114.35906225374313</v>
+      </c>
+      <c r="AS74">
+        <f>AI4/AI34</f>
+        <v>506.23671394799061</v>
+      </c>
+    </row>
+    <row r="75" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI75" s="65">
+        <f>$AI$35/AI29</f>
+        <v>2.0463642596438865</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" ref="AK75:AK79" si="54">AI29/AI35</f>
+        <v>0.48867155262671685</v>
+      </c>
+      <c r="AM75">
+        <f t="shared" ref="AM75:AM79" si="55">AI23/AI35</f>
+        <v>3.0549387202069354</v>
+      </c>
+      <c r="AO75" s="69">
+        <f t="shared" ref="AO75:AO79" si="56">AI17/AI35</f>
+        <v>136.34726488883416</v>
+      </c>
+      <c r="AQ75">
+        <f t="shared" ref="AQ75:AQ79" si="57">AI11/AI35</f>
+        <v>213.43094783519123</v>
+      </c>
+      <c r="AS75">
+        <f t="shared" ref="AS75:AS79" si="58">AI5/AI35</f>
+        <v>1009.7975426495044</v>
+      </c>
+    </row>
+    <row r="76" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI76" s="65">
+        <f>$AI$36/AI30</f>
+        <v>2.1020281764108186</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" si="54"/>
+        <v>0.47573101598832274</v>
+      </c>
+      <c r="AM76">
+        <f t="shared" si="55"/>
+        <v>2.8573671882955969</v>
+      </c>
+      <c r="AO76">
+        <f t="shared" si="56"/>
+        <v>233.17622662004817</v>
+      </c>
+      <c r="AQ76">
+        <f t="shared" si="57"/>
+        <v>370.30772395532762</v>
+      </c>
+      <c r="AS76">
+        <f t="shared" si="58"/>
+        <v>1678.4077029091275</v>
+      </c>
+    </row>
+    <row r="77" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI77" s="65">
+        <f>$AI$37/AI31</f>
+        <v>2.2399834795483669</v>
+      </c>
+      <c r="AK77">
+        <f t="shared" si="54"/>
+        <v>0.44643186395357853</v>
+      </c>
+      <c r="AM77">
+        <f t="shared" si="55"/>
+        <v>2.6048218939742873</v>
+      </c>
+      <c r="AO77">
+        <f t="shared" si="56"/>
+        <v>358.46107381164762</v>
+      </c>
+      <c r="AQ77">
+        <f t="shared" si="57"/>
+        <v>561.1159748330067</v>
+      </c>
+      <c r="AS77">
+        <f t="shared" si="58"/>
+        <v>2684.5820860299405</v>
+      </c>
+    </row>
+    <row r="78" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI78" s="65">
+        <f>$AI$38/AI32</f>
+        <v>2.2206113212485517</v>
+      </c>
+      <c r="AK78">
+        <f t="shared" si="54"/>
+        <v>0.45032644408826311</v>
+      </c>
+      <c r="AM78">
+        <f t="shared" si="55"/>
+        <v>2.5486038563165638</v>
+      </c>
+      <c r="AO78">
+        <f t="shared" si="56"/>
+        <v>499.21196270809315</v>
+      </c>
+      <c r="AQ78">
+        <f t="shared" si="57"/>
+        <v>825.83657243488142</v>
+      </c>
+      <c r="AS78">
+        <f t="shared" si="58"/>
+        <v>3809.2457444155866</v>
+      </c>
+    </row>
+    <row r="79" spans="35:45" x14ac:dyDescent="0.35">
+      <c r="AI79" s="65">
+        <f>$AI$39/AI33</f>
+        <v>2.2788448148022686</v>
+      </c>
+      <c r="AK79">
+        <f t="shared" si="54"/>
+        <v>0.43881882324960692</v>
+      </c>
+      <c r="AM79">
+        <f t="shared" si="55"/>
+        <v>2.439352481916532</v>
+      </c>
+      <c r="AO79">
+        <f t="shared" si="56"/>
+        <v>608.15988490736959</v>
+      </c>
+      <c r="AQ79">
+        <f t="shared" si="57"/>
+        <v>1006.7906817471119</v>
+      </c>
+      <c r="AS79">
+        <f t="shared" si="58"/>
+        <v>4538.9949230856182</v>
+      </c>
+    </row>
+    <row r="85" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO86" s="66">
+        <f>AO34/LOG(C34, 2)</f>
+        <v>7.0631991928678879E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO87" s="66">
+        <f t="shared" ref="AO87:AO91" si="59">AO35/LOG(C35, 2)</f>
+        <v>1.377693878155776E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO88" s="66">
+        <f t="shared" si="59"/>
+        <v>2.3395654113913096E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO89" s="66">
+        <f t="shared" si="59"/>
+        <v>3.9732991205526619E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO90" s="66">
+        <f t="shared" si="59"/>
+        <v>5.4442657924767943E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO91" s="66">
+        <f t="shared" si="59"/>
+        <v>7.266509839790635E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AC28:AC33"/>
-    <mergeCell ref="AC34:AC39"/>
-    <mergeCell ref="AC4:AC9"/>
-    <mergeCell ref="AC10:AC15"/>
-    <mergeCell ref="AC16:AC21"/>
+  <mergeCells count="74">
+    <mergeCell ref="BG3:BH8"/>
+    <mergeCell ref="BG1:BH2"/>
+    <mergeCell ref="AV55:AY63"/>
+    <mergeCell ref="BG33:BH38"/>
+    <mergeCell ref="BG27:BH32"/>
+    <mergeCell ref="BG21:BH26"/>
+    <mergeCell ref="BG15:BH20"/>
+    <mergeCell ref="BG9:BH14"/>
+    <mergeCell ref="BI27:BI32"/>
+    <mergeCell ref="BI33:BI38"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BI3:BI8"/>
+    <mergeCell ref="BI9:BI14"/>
+    <mergeCell ref="BI15:BI20"/>
+    <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
@@ -19320,6 +21160,50 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AC28:AC33"/>
+    <mergeCell ref="AC34:AC39"/>
+    <mergeCell ref="AC4:AC9"/>
+    <mergeCell ref="AC10:AC15"/>
+    <mergeCell ref="AC16:AC21"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AX27:AX32"/>
+    <mergeCell ref="AX33:AX38"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AP2:AU2"/>
+    <mergeCell ref="AY1:BD1"/>
+    <mergeCell ref="BE1:BF2"/>
+    <mergeCell ref="AX3:AX8"/>
+    <mergeCell ref="AX9:AX14"/>
+    <mergeCell ref="AX15:AX20"/>
+    <mergeCell ref="AY3:AZ8"/>
+    <mergeCell ref="BA3:BB8"/>
+    <mergeCell ref="BC3:BD8"/>
+    <mergeCell ref="AY33:AZ38"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AY9:AZ14"/>
+    <mergeCell ref="AY15:AZ20"/>
+    <mergeCell ref="AY21:AZ26"/>
+    <mergeCell ref="AY27:AZ32"/>
+    <mergeCell ref="BA9:BB14"/>
+    <mergeCell ref="BA15:BB20"/>
+    <mergeCell ref="BA21:BB26"/>
+    <mergeCell ref="BA27:BB32"/>
+    <mergeCell ref="BE27:BF32"/>
+    <mergeCell ref="BA33:BB38"/>
+    <mergeCell ref="BC33:BD38"/>
+    <mergeCell ref="BE33:BF38"/>
+    <mergeCell ref="BE3:BF8"/>
+    <mergeCell ref="BC9:BD14"/>
+    <mergeCell ref="BE9:BF14"/>
+    <mergeCell ref="BC15:BD20"/>
+    <mergeCell ref="BE15:BF20"/>
+    <mergeCell ref="BC21:BD26"/>
+    <mergeCell ref="BE21:BF26"/>
+    <mergeCell ref="BC27:BD32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/Empirical Data.xlsx
+++ b/Report/Empirical Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C855B24F-0B35-4854-A6D6-86B3FABAA886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237D3DD-9C91-435E-A8FB-C488AD8973B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,56 +837,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +888,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,32 +922,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14164,97 +14163,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AY1" s="42" t="s">
+      <c r="AY1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="46" t="s">
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="46" t="s">
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="31"/>
+      <c r="BH1" s="35"/>
       <c r="BI1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="42" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="43"/>
-      <c r="AD2" s="42" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="52"/>
+      <c r="AD2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="42" t="s">
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="43"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="52"/>
       <c r="AX2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="40" t="s">
+      <c r="AY2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42" t="s">
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="41" t="s">
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="BD2" s="44"/>
+      <c r="BD2" s="65"/>
       <c r="BE2" s="38"/>
-      <c r="BF2" s="35"/>
+      <c r="BF2" s="39"/>
       <c r="BG2" s="38"/>
-      <c r="BH2" s="35"/>
+      <c r="BH2" s="39"/>
       <c r="BI2" s="48"/>
     </row>
     <row r="3" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -14396,38 +14395,38 @@
       <c r="AU3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AX3" s="46" t="s">
+      <c r="AX3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="39" t="s">
+      <c r="AY3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="36" t="s">
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="36" t="s">
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="30" t="s">
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="46" t="s">
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="BH3" s="31"/>
+      <c r="BH3" s="35"/>
       <c r="BI3" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10">
@@ -14568,22 +14567,22 @@
         <f>AVERAGE(AP4:AT4)</f>
         <v>2.1795882600000001</v>
       </c>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="33"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="37"/>
       <c r="BI4" s="48"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="5">
         <v>100000</v>
       </c>
@@ -14726,22 +14725,22 @@
         <f t="shared" ref="AU5:AU39" si="5">AVERAGE(AP5:AT5)</f>
         <v>8.7173875799999987</v>
       </c>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="33"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="37"/>
       <c r="BI5" s="48"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="5">
         <v>175000</v>
       </c>
@@ -14884,22 +14883,22 @@
         <f t="shared" si="5"/>
         <v>26.446548279999995</v>
       </c>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="33"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="37"/>
       <c r="BI6" s="48"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5">
         <v>300000</v>
       </c>
@@ -15042,22 +15041,22 @@
         <f t="shared" si="5"/>
         <v>81.228794319999992</v>
       </c>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="33"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="37"/>
       <c r="BI7" s="48"/>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="54"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="5">
         <v>425000</v>
       </c>
@@ -15202,20 +15201,20 @@
       </c>
       <c r="AX8" s="38"/>
       <c r="AY8" s="38"/>
-      <c r="AZ8" s="35"/>
+      <c r="AZ8" s="39"/>
       <c r="BA8" s="38"/>
-      <c r="BB8" s="35"/>
+      <c r="BB8" s="39"/>
       <c r="BC8" s="38"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="35"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="39"/>
       <c r="BG8" s="38"/>
-      <c r="BH8" s="35"/>
+      <c r="BH8" s="39"/>
       <c r="BI8" s="49"/>
     </row>
     <row r="9" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="55"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="6">
         <v>550000</v>
       </c>
@@ -15358,38 +15357,38 @@
         <f t="shared" si="5"/>
         <v>262.80399759999995</v>
       </c>
-      <c r="AX9" s="37" t="s">
+      <c r="AX9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" s="36" t="s">
+      <c r="AY9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="36" t="s">
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="36" t="s">
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="30" t="s">
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="46" t="s">
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="BH9" s="31"/>
+      <c r="BH9" s="35"/>
       <c r="BI9" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="10">
@@ -15530,22 +15529,22 @@
         <f t="shared" si="5"/>
         <v>0.8840920000000001</v>
       </c>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="32"/>
-      <c r="BF10" s="33"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="33"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="37"/>
       <c r="BI10" s="48"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="5">
         <v>100000</v>
       </c>
@@ -15688,22 +15687,22 @@
         <f t="shared" si="5"/>
         <v>3.5525640000000003</v>
       </c>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="33"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="37"/>
       <c r="BI11" s="48"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="5">
         <v>175000</v>
       </c>
@@ -15846,22 +15845,22 @@
         <f t="shared" si="5"/>
         <v>10.935985580000001</v>
       </c>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="37"/>
-      <c r="BH12" s="33"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="37"/>
       <c r="BI12" s="48"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="5">
         <v>300000</v>
       </c>
@@ -16004,22 +16003,22 @@
         <f t="shared" si="5"/>
         <v>32.4724115</v>
       </c>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="32"/>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="33"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="37"/>
       <c r="BI13" s="48"/>
     </row>
     <row r="14" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="54"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="5">
         <v>425000</v>
       </c>
@@ -16164,20 +16163,20 @@
       </c>
       <c r="AX14" s="38"/>
       <c r="AY14" s="38"/>
-      <c r="AZ14" s="35"/>
+      <c r="AZ14" s="39"/>
       <c r="BA14" s="38"/>
-      <c r="BB14" s="35"/>
+      <c r="BB14" s="39"/>
       <c r="BC14" s="38"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="35"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="39"/>
       <c r="BG14" s="38"/>
-      <c r="BH14" s="35"/>
+      <c r="BH14" s="39"/>
       <c r="BI14" s="49"/>
     </row>
     <row r="15" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="55"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="6">
         <v>550000</v>
       </c>
@@ -16320,38 +16319,38 @@
         <f t="shared" si="5"/>
         <v>110.83381118</v>
       </c>
-      <c r="AX15" s="46" t="s">
+      <c r="AX15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AY15" s="36" t="s">
+      <c r="AY15" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="36" t="s">
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="36" t="s">
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="30" t="s">
+      <c r="BD15" s="35"/>
+      <c r="BE15" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="46" t="s">
+      <c r="BF15" s="35"/>
+      <c r="BG15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="BH15" s="31"/>
+      <c r="BH15" s="35"/>
       <c r="BI15" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10">
@@ -16492,22 +16491,22 @@
         <f t="shared" si="5"/>
         <v>1.1173522599999999</v>
       </c>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="32"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="37"/>
-      <c r="BH16" s="33"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="37"/>
       <c r="BI16" s="48"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="5">
         <v>100000</v>
       </c>
@@ -16650,22 +16649,22 @@
         <f t="shared" si="5"/>
         <v>4.3320717799999997</v>
       </c>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="32"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="37"/>
-      <c r="BH17" s="33"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="37"/>
       <c r="BI17" s="48"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="5">
         <v>175000</v>
       </c>
@@ -16808,22 +16807,22 @@
         <f t="shared" si="5"/>
         <v>13.35462506</v>
       </c>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="33"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="37"/>
       <c r="BI18" s="48"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="5">
         <v>300000</v>
       </c>
@@ -16966,22 +16965,22 @@
         <f t="shared" si="5"/>
         <v>41.141370479999999</v>
       </c>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="37"/>
-      <c r="BD19" s="33"/>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="37"/>
-      <c r="BH19" s="33"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="37"/>
       <c r="BI19" s="48"/>
     </row>
     <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="54"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="5">
         <v>425000</v>
       </c>
@@ -17126,20 +17125,20 @@
       </c>
       <c r="AX20" s="38"/>
       <c r="AY20" s="38"/>
-      <c r="AZ20" s="35"/>
+      <c r="AZ20" s="39"/>
       <c r="BA20" s="38"/>
-      <c r="BB20" s="35"/>
+      <c r="BB20" s="39"/>
       <c r="BC20" s="38"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="35"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="39"/>
       <c r="BG20" s="38"/>
-      <c r="BH20" s="35"/>
+      <c r="BH20" s="39"/>
       <c r="BI20" s="49"/>
     </row>
     <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="55"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="6">
         <v>550000</v>
       </c>
@@ -17282,38 +17281,38 @@
         <f t="shared" si="5"/>
         <v>135.94702348000001</v>
       </c>
-      <c r="AX21" s="46" t="s">
+      <c r="AX21" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AY21" s="36" t="s">
+      <c r="AY21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="36" t="s">
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="36" t="s">
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="30" t="s">
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="46" t="s">
+      <c r="BF21" s="35"/>
+      <c r="BG21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="BH21" s="31"/>
+      <c r="BH21" s="35"/>
       <c r="BI21" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="10">
@@ -17454,22 +17453,22 @@
         <f t="shared" si="5"/>
         <v>2.1009380000000001E-2</v>
       </c>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="32"/>
-      <c r="BF22" s="33"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="33"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="37"/>
       <c r="BI22" s="48"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="5">
         <v>100000</v>
       </c>
@@ -17612,22 +17611,22 @@
         <f t="shared" si="5"/>
         <v>3.9191080000000003E-2</v>
       </c>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="33"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="33"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="33"/>
-      <c r="BG23" s="37"/>
-      <c r="BH23" s="33"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="37"/>
       <c r="BI23" s="48"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="5">
         <v>175000</v>
       </c>
@@ -17770,22 +17769,22 @@
         <f t="shared" si="5"/>
         <v>6.838284E-2</v>
       </c>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="33"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="32"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="37"/>
-      <c r="BH24" s="33"/>
+      <c r="AX24" s="36"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="36"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="36"/>
+      <c r="BH24" s="37"/>
       <c r="BI24" s="48"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="5">
         <v>300000</v>
       </c>
@@ -17928,22 +17927,22 @@
         <f t="shared" si="5"/>
         <v>0.11834768</v>
       </c>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="33"/>
-      <c r="BC25" s="37"/>
-      <c r="BD25" s="33"/>
-      <c r="BE25" s="32"/>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="37"/>
-      <c r="BH25" s="33"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="37"/>
       <c r="BI25" s="48"/>
     </row>
     <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="5">
         <v>425000</v>
       </c>
@@ -18088,20 +18087,20 @@
       </c>
       <c r="AX26" s="38"/>
       <c r="AY26" s="38"/>
-      <c r="AZ26" s="35"/>
+      <c r="AZ26" s="39"/>
       <c r="BA26" s="38"/>
-      <c r="BB26" s="35"/>
+      <c r="BB26" s="39"/>
       <c r="BC26" s="38"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="35"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="39"/>
       <c r="BG26" s="38"/>
-      <c r="BH26" s="35"/>
+      <c r="BH26" s="39"/>
       <c r="BI26" s="49"/>
     </row>
     <row r="27" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="55"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="6">
         <v>550000</v>
       </c>
@@ -18244,38 +18243,38 @@
         <f t="shared" si="5"/>
         <v>0.21743744000000001</v>
       </c>
-      <c r="AX27" s="46" t="s">
+      <c r="AX27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AY27" s="36" t="s">
+      <c r="AY27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="36" t="s">
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="36" t="s">
+      <c r="BB27" s="35"/>
+      <c r="BC27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="30" t="s">
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="58" t="s">
+      <c r="BF27" s="35"/>
+      <c r="BG27" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="BH27" s="59"/>
+      <c r="BH27" s="42"/>
       <c r="BI27" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="10">
@@ -18416,22 +18415,22 @@
         <f t="shared" si="5"/>
         <v>2.1247800000000002E-3</v>
       </c>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="60"/>
-      <c r="BH28" s="61"/>
+      <c r="AX28" s="36"/>
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="67"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="44"/>
       <c r="BI28" s="48"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="5">
         <v>100000</v>
       </c>
@@ -18574,22 +18573,22 @@
         <f t="shared" si="5"/>
         <v>4.1765199999999995E-3</v>
       </c>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="60"/>
-      <c r="BH29" s="61"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="44"/>
       <c r="BI29" s="48"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="5">
         <v>175000</v>
       </c>
@@ -18732,22 +18731,22 @@
         <f t="shared" si="5"/>
         <v>7.9310400000000003E-3</v>
       </c>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="37"/>
-      <c r="BD30" s="33"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="33"/>
-      <c r="BG30" s="60"/>
-      <c r="BH30" s="61"/>
+      <c r="AX30" s="36"/>
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="67"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="43"/>
+      <c r="BH30" s="44"/>
       <c r="BI30" s="48"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="5">
         <v>300000</v>
       </c>
@@ -18890,22 +18889,22 @@
         <f t="shared" si="5"/>
         <v>1.3708639999999999E-2</v>
       </c>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="33"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="33"/>
-      <c r="BE31" s="32"/>
-      <c r="BF31" s="33"/>
-      <c r="BG31" s="60"/>
-      <c r="BH31" s="61"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="37"/>
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="37"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="37"/>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="44"/>
       <c r="BI31" s="48"/>
     </row>
     <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="54"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="5">
         <v>425000</v>
       </c>
@@ -19050,20 +19049,20 @@
       </c>
       <c r="AX32" s="38"/>
       <c r="AY32" s="38"/>
-      <c r="AZ32" s="35"/>
+      <c r="AZ32" s="39"/>
       <c r="BA32" s="38"/>
-      <c r="BB32" s="35"/>
+      <c r="BB32" s="39"/>
       <c r="BC32" s="38"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="35"/>
-      <c r="BG32" s="62"/>
-      <c r="BH32" s="63"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="45"/>
+      <c r="BH32" s="46"/>
       <c r="BI32" s="49"/>
     </row>
     <row r="33" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="55"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="6">
         <v>550000</v>
       </c>
@@ -19206,38 +19205,38 @@
         <f t="shared" si="5"/>
         <v>2.6853200000000001E-2</v>
       </c>
-      <c r="AX33" s="46" t="s">
+      <c r="AX33" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AY33" s="36" t="s">
+      <c r="AY33" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="36" t="s">
+      <c r="AZ33" s="35"/>
+      <c r="BA33" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="36" t="s">
+      <c r="BB33" s="35"/>
+      <c r="BC33" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="30" t="s">
+      <c r="BD33" s="35"/>
+      <c r="BE33" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BF33" s="31"/>
-      <c r="BG33" s="58" t="s">
+      <c r="BF33" s="35"/>
+      <c r="BG33" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="BH33" s="59"/>
+      <c r="BH33" s="42"/>
       <c r="BI33" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="53" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="7">
@@ -19378,22 +19377,22 @@
         <f t="shared" si="5"/>
         <v>1.7947400000000002E-3</v>
       </c>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="60"/>
-      <c r="BH34" s="61"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="43"/>
+      <c r="BH34" s="44"/>
       <c r="BI34" s="48"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="5">
         <v>100000</v>
       </c>
@@ -19536,22 +19535,22 @@
         <f t="shared" si="5"/>
         <v>3.2638199999999997E-3</v>
       </c>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="33"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="32"/>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="60"/>
-      <c r="BH35" s="61"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="43"/>
+      <c r="BH35" s="44"/>
       <c r="BI35" s="48"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="5">
         <v>175000</v>
       </c>
@@ -19694,22 +19693,22 @@
         <f t="shared" si="5"/>
         <v>6.2572799999999996E-3</v>
       </c>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="60"/>
-      <c r="BH36" s="61"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="43"/>
+      <c r="BH36" s="44"/>
       <c r="BI36" s="48"/>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="5">
         <v>300000</v>
       </c>
@@ -19852,22 +19851,22 @@
         <f t="shared" si="5"/>
         <v>1.0778959999999999E-2</v>
       </c>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="33"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="32"/>
-      <c r="BF37" s="33"/>
-      <c r="BG37" s="60"/>
-      <c r="BH37" s="61"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="43"/>
+      <c r="BH37" s="44"/>
       <c r="BI37" s="48"/>
     </row>
     <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="54"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="5">
         <v>425000</v>
       </c>
@@ -20012,20 +20011,20 @@
       </c>
       <c r="AX38" s="38"/>
       <c r="AY38" s="38"/>
-      <c r="AZ38" s="35"/>
+      <c r="AZ38" s="39"/>
       <c r="BA38" s="38"/>
-      <c r="BB38" s="35"/>
+      <c r="BB38" s="39"/>
       <c r="BC38" s="38"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="34"/>
-      <c r="BF38" s="35"/>
-      <c r="BG38" s="62"/>
-      <c r="BH38" s="63"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="39"/>
+      <c r="BG38" s="45"/>
+      <c r="BH38" s="46"/>
       <c r="BI38" s="49"/>
     </row>
     <row r="39" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="55"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="6">
         <v>550000</v>
       </c>
@@ -20210,7 +20209,7 @@
         <f>AI10/AI4</f>
         <v>0.2259003724994392</v>
       </c>
-      <c r="AS46" s="65">
+      <c r="AS46" s="30">
         <f>AI4/AI10</f>
         <v>4.4267301949777993</v>
       </c>
@@ -20221,22 +20220,22 @@
         <v>9.9029751783332961E-4</v>
       </c>
       <c r="AK47">
-        <f t="shared" ref="AK47:AK51" si="34">AI29/AI5</f>
+        <f t="shared" ref="AK47:AK50" si="34">AI29/AI5</f>
         <v>4.8393022560199697E-4</v>
       </c>
       <c r="AM47">
-        <f t="shared" ref="AM47:AM51" si="35">AI23/AI5</f>
+        <f t="shared" ref="AM47:AM50" si="35">AI23/AI5</f>
         <v>3.0252982317538566E-3</v>
       </c>
       <c r="AO47">
-        <f t="shared" ref="AO47:AO51" si="36">AI17/AI5</f>
+        <f t="shared" ref="AO47:AO50" si="36">AI17/AI5</f>
         <v>0.13502435798277596</v>
       </c>
       <c r="AQ47">
         <f t="shared" ref="AQ47:AQ51" si="37">AI11/AI5</f>
         <v>0.21136013787000474</v>
       </c>
-      <c r="AS47" s="65">
+      <c r="AS47" s="30">
         <f t="shared" ref="AS47:AS51" si="38">AI5/AI11</f>
         <v>4.7312611075937205</v>
       </c>
@@ -20262,7 +20261,7 @@
         <f t="shared" si="37"/>
         <v>0.22063037682291717</v>
       </c>
-      <c r="AS48" s="65">
+      <c r="AS48" s="30">
         <f t="shared" si="38"/>
         <v>4.5324674435135561</v>
       </c>
@@ -20288,7 +20287,7 @@
         <f t="shared" si="37"/>
         <v>0.20901427367520201</v>
       </c>
-      <c r="AS49" s="65">
+      <c r="AS49" s="30">
         <f t="shared" si="38"/>
         <v>4.7843622467332123</v>
       </c>
@@ -20314,7 +20313,7 @@
         <f t="shared" si="37"/>
         <v>0.21679792479799201</v>
       </c>
-      <c r="AS50" s="65">
+      <c r="AS50" s="30">
         <f t="shared" si="38"/>
         <v>4.6125902770138607</v>
       </c>
@@ -20340,7 +20339,7 @@
         <f t="shared" si="37"/>
         <v>0.2218091667444945</v>
       </c>
-      <c r="AS51" s="65">
+      <c r="AS51" s="30">
         <f t="shared" si="38"/>
         <v>4.5083799496524684</v>
       </c>
@@ -20413,7 +20412,7 @@
         <v>1.5653482158898053</v>
       </c>
       <c r="AS54">
-        <f t="shared" ref="AS54:AS58" si="43">AI5/AI17</f>
+        <f t="shared" ref="AS54:AS57" si="43">AI5/AI17</f>
         <v>7.406071133680654</v>
       </c>
     </row>
@@ -20442,12 +20441,12 @@
         <f t="shared" si="43"/>
         <v>7.1980224023610671</v>
       </c>
-      <c r="AV55" s="64" t="s">
+      <c r="AV55" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="64"/>
-      <c r="AY55" s="64"/>
+      <c r="AW55" s="40"/>
+      <c r="AX55" s="40"/>
+      <c r="AY55" s="40"/>
     </row>
     <row r="56" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI56">
@@ -20474,10 +20473,10 @@
         <f t="shared" si="43"/>
         <v>7.4891872009526663</v>
       </c>
-      <c r="AV56" s="64"/>
-      <c r="AW56" s="64"/>
-      <c r="AX56" s="64"/>
-      <c r="AY56" s="64"/>
+      <c r="AV56" s="40"/>
+      <c r="AW56" s="40"/>
+      <c r="AX56" s="40"/>
+      <c r="AY56" s="40"/>
     </row>
     <row r="57" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI57">
@@ -20504,10 +20503,10 @@
         <f t="shared" si="43"/>
         <v>7.6305177539244724</v>
       </c>
-      <c r="AV57" s="64"/>
-      <c r="AW57" s="64"/>
-      <c r="AX57" s="64"/>
-      <c r="AY57" s="64"/>
+      <c r="AV57" s="40"/>
+      <c r="AW57" s="40"/>
+      <c r="AX57" s="40"/>
+      <c r="AY57" s="40"/>
     </row>
     <row r="58" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI58">
@@ -20534,10 +20533,10 @@
         <f>AI9/AI21</f>
         <v>7.4634895127569365</v>
       </c>
-      <c r="AV58" s="64"/>
-      <c r="AW58" s="64"/>
-      <c r="AX58" s="64"/>
-      <c r="AY58" s="64"/>
+      <c r="AV58" s="40"/>
+      <c r="AW58" s="40"/>
+      <c r="AX58" s="40"/>
+      <c r="AY58" s="40"/>
     </row>
     <row r="59" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI59" t="s">
@@ -20558,10 +20557,10 @@
       <c r="AS59" t="s">
         <v>64</v>
       </c>
-      <c r="AV59" s="64"/>
-      <c r="AW59" s="64"/>
-      <c r="AX59" s="64"/>
-      <c r="AY59" s="64"/>
+      <c r="AV59" s="40"/>
+      <c r="AW59" s="40"/>
+      <c r="AX59" s="40"/>
+      <c r="AY59" s="40"/>
     </row>
     <row r="60" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI60">
@@ -20576,7 +20575,7 @@
         <f>AI22/AI16</f>
         <v>4.8681674543527363E-2</v>
       </c>
-      <c r="AO60" s="68">
+      <c r="AO60" s="33">
         <f>AI16/AI22</f>
         <v>20.541610562427916</v>
       </c>
@@ -20584,14 +20583,14 @@
         <f>AI10/AI22</f>
         <v>31.859764040207715</v>
       </c>
-      <c r="AS60" s="69">
+      <c r="AS60">
         <f>AI4/AI22</f>
         <v>141.03457948165538</v>
       </c>
-      <c r="AV60" s="64"/>
-      <c r="AW60" s="64"/>
-      <c r="AX60" s="64"/>
-      <c r="AY60" s="64"/>
+      <c r="AV60" s="40"/>
+      <c r="AW60" s="40"/>
+      <c r="AX60" s="40"/>
+      <c r="AY60" s="40"/>
     </row>
     <row r="61" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI61">
@@ -20610,7 +20609,7 @@
         <f t="shared" ref="AO61:AO65" si="46">AI17/AI23</f>
         <v>44.631751199120046</v>
       </c>
-      <c r="AQ61" s="69">
+      <c r="AQ61">
         <f t="shared" ref="AQ61:AQ65" si="47">AI11/AI23</f>
         <v>69.86423211158025</v>
       </c>
@@ -20618,10 +20617,10 @@
         <f t="shared" ref="AS61:AS65" si="48">AI5/AI23</f>
         <v>330.54592420141995</v>
       </c>
-      <c r="AV61" s="64"/>
-      <c r="AW61" s="64"/>
-      <c r="AX61" s="64"/>
-      <c r="AY61" s="64"/>
+      <c r="AV61" s="40"/>
+      <c r="AW61" s="40"/>
+      <c r="AX61" s="40"/>
+      <c r="AY61" s="40"/>
     </row>
     <row r="62" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI62">
@@ -20636,11 +20635,11 @@
         <f t="shared" si="45"/>
         <v>1.2254110248346925E-2</v>
       </c>
-      <c r="AO62" s="67">
+      <c r="AO62" s="32">
         <f t="shared" si="46"/>
         <v>81.605272005358344</v>
       </c>
-      <c r="AQ62" s="69">
+      <c r="AQ62">
         <f t="shared" si="47"/>
         <v>129.59752791737418</v>
       </c>
@@ -20648,10 +20647,10 @@
         <f t="shared" si="48"/>
         <v>587.39657604533772</v>
       </c>
-      <c r="AV62" s="64"/>
-      <c r="AW62" s="64"/>
-      <c r="AX62" s="64"/>
-      <c r="AY62" s="64"/>
+      <c r="AV62" s="40"/>
+      <c r="AW62" s="40"/>
+      <c r="AX62" s="40"/>
+      <c r="AY62" s="40"/>
     </row>
     <row r="63" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI63">
@@ -20666,7 +20665,7 @@
         <f t="shared" si="45"/>
         <v>7.266679938985463E-3</v>
       </c>
-      <c r="AO63" s="69">
+      <c r="AO63">
         <f t="shared" si="46"/>
         <v>137.61442755102476</v>
       </c>
@@ -20678,10 +20677,10 @@
         <f t="shared" si="48"/>
         <v>1030.6202094815626</v>
       </c>
-      <c r="AV63" s="64"/>
-      <c r="AW63" s="64"/>
-      <c r="AX63" s="64"/>
-      <c r="AY63" s="64"/>
+      <c r="AV63" s="40"/>
+      <c r="AW63" s="40"/>
+      <c r="AX63" s="40"/>
+      <c r="AY63" s="40"/>
     </row>
     <row r="64" spans="35:51" x14ac:dyDescent="0.35">
       <c r="AI64">
@@ -20764,7 +20763,7 @@
         <f>AI28/AI22</f>
         <v>0.13658284205534707</v>
       </c>
-      <c r="AM67" s="65">
+      <c r="AM67" s="30">
         <f>AI22/AI28</f>
         <v>7.3215638578876021</v>
       </c>
@@ -20790,7 +20789,7 @@
         <f t="shared" ref="AK68:AK72" si="49">AI29/AI23</f>
         <v>0.15996116367061375</v>
       </c>
-      <c r="AM68" s="65">
+      <c r="AM68" s="30">
         <f t="shared" ref="AM68:AM72" si="50">AI23/AI29</f>
         <v>6.2515174124337074</v>
       </c>
@@ -20816,7 +20815,7 @@
         <f t="shared" si="49"/>
         <v>0.16649278326461553</v>
       </c>
-      <c r="AM69" s="65">
+      <c r="AM69" s="30">
         <f t="shared" si="50"/>
         <v>6.0062663401491019</v>
       </c>
@@ -20842,7 +20841,7 @@
         <f t="shared" si="49"/>
         <v>0.17138671361228405</v>
       </c>
-      <c r="AM70" s="65">
+      <c r="AM70" s="30">
         <f t="shared" si="50"/>
         <v>5.8347580096682909</v>
       </c>
@@ -20868,7 +20867,7 @@
         <f t="shared" si="49"/>
         <v>0.17669534752219559</v>
       </c>
-      <c r="AM71" s="65">
+      <c r="AM71" s="30">
         <f t="shared" si="50"/>
         <v>5.6594585767142789</v>
       </c>
@@ -20894,7 +20893,7 @@
         <f t="shared" si="49"/>
         <v>0.17989151895950645</v>
       </c>
-      <c r="AM72" s="65">
+      <c r="AM72" s="30">
         <f t="shared" si="50"/>
         <v>5.5589057548905334</v>
       </c>
@@ -20932,7 +20931,7 @@
       </c>
     </row>
     <row r="74" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI74" s="65">
+      <c r="AI74" s="30">
         <f>$AI$34/AI28</f>
         <v>2.0397447506174951</v>
       </c>
@@ -20944,11 +20943,11 @@
         <f>AI22/AI34</f>
         <v>3.5894510112949836</v>
       </c>
-      <c r="AO74" s="69">
+      <c r="AO74">
         <f>AI16/AI34</f>
         <v>73.733104806934605</v>
       </c>
-      <c r="AQ74" s="67">
+      <c r="AQ74" s="32">
         <f>AI10/AI34</f>
         <v>114.35906225374313</v>
       </c>
@@ -20958,7 +20957,7 @@
       </c>
     </row>
     <row r="75" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI75" s="65">
+      <c r="AI75" s="30">
         <f>$AI$35/AI29</f>
         <v>2.0463642596438865</v>
       </c>
@@ -20970,7 +20969,7 @@
         <f t="shared" ref="AM75:AM79" si="55">AI23/AI35</f>
         <v>3.0549387202069354</v>
       </c>
-      <c r="AO75" s="69">
+      <c r="AO75">
         <f t="shared" ref="AO75:AO79" si="56">AI17/AI35</f>
         <v>136.34726488883416</v>
       </c>
@@ -20984,7 +20983,7 @@
       </c>
     </row>
     <row r="76" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI76" s="65">
+      <c r="AI76" s="30">
         <f>$AI$36/AI30</f>
         <v>2.1020281764108186</v>
       </c>
@@ -21010,7 +21009,7 @@
       </c>
     </row>
     <row r="77" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI77" s="65">
+      <c r="AI77" s="30">
         <f>$AI$37/AI31</f>
         <v>2.2399834795483669</v>
       </c>
@@ -21036,7 +21035,7 @@
       </c>
     </row>
     <row r="78" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI78" s="65">
+      <c r="AI78" s="30">
         <f>$AI$38/AI32</f>
         <v>2.2206113212485517</v>
       </c>
@@ -21062,7 +21061,7 @@
       </c>
     </row>
     <row r="79" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI79" s="65">
+      <c r="AI79" s="30">
         <f>$AI$39/AI33</f>
         <v>2.2788448148022686</v>
       </c>
@@ -21093,58 +21092,79 @@
       </c>
     </row>
     <row r="86" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO86" s="66">
+      <c r="AO86" s="31">
         <f>AO34/LOG(C34, 2)</f>
         <v>7.0631991928678879E-5</v>
       </c>
     </row>
     <row r="87" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO87" s="66">
+      <c r="AO87" s="31">
         <f t="shared" ref="AO87:AO91" si="59">AO35/LOG(C35, 2)</f>
         <v>1.377693878155776E-4</v>
       </c>
     </row>
     <row r="88" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO88" s="66">
+      <c r="AO88" s="31">
         <f t="shared" si="59"/>
         <v>2.3395654113913096E-4</v>
       </c>
     </row>
     <row r="89" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO89" s="66">
+      <c r="AO89" s="31">
         <f t="shared" si="59"/>
         <v>3.9732991205526619E-4</v>
       </c>
     </row>
     <row r="90" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO90" s="66">
+      <c r="AO90" s="31">
         <f t="shared" si="59"/>
         <v>5.4442657924767943E-4</v>
       </c>
     </row>
     <row r="91" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO91" s="66">
+      <c r="AO91" s="31">
         <f t="shared" si="59"/>
         <v>7.266509839790635E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="BG3:BH8"/>
-    <mergeCell ref="BG1:BH2"/>
-    <mergeCell ref="AV55:AY63"/>
-    <mergeCell ref="BG33:BH38"/>
-    <mergeCell ref="BG27:BH32"/>
-    <mergeCell ref="BG21:BH26"/>
-    <mergeCell ref="BG15:BH20"/>
-    <mergeCell ref="BG9:BH14"/>
-    <mergeCell ref="BI27:BI32"/>
-    <mergeCell ref="BI33:BI38"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BI3:BI8"/>
-    <mergeCell ref="BI9:BI14"/>
-    <mergeCell ref="BI15:BI20"/>
-    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BE27:BF32"/>
+    <mergeCell ref="BA33:BB38"/>
+    <mergeCell ref="BC33:BD38"/>
+    <mergeCell ref="BE33:BF38"/>
+    <mergeCell ref="BE3:BF8"/>
+    <mergeCell ref="BC9:BD14"/>
+    <mergeCell ref="BE9:BF14"/>
+    <mergeCell ref="BC15:BD20"/>
+    <mergeCell ref="BE15:BF20"/>
+    <mergeCell ref="BC21:BD26"/>
+    <mergeCell ref="BE21:BF26"/>
+    <mergeCell ref="BC27:BD32"/>
+    <mergeCell ref="BC3:BD8"/>
+    <mergeCell ref="AY33:AZ38"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AY9:AZ14"/>
+    <mergeCell ref="AY15:AZ20"/>
+    <mergeCell ref="AY21:AZ26"/>
+    <mergeCell ref="AY27:AZ32"/>
+    <mergeCell ref="BA9:BB14"/>
+    <mergeCell ref="BA15:BB20"/>
+    <mergeCell ref="BA21:BB26"/>
+    <mergeCell ref="BA27:BB32"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AP2:AU2"/>
+    <mergeCell ref="AY1:BD1"/>
+    <mergeCell ref="BE1:BF2"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AC28:AC33"/>
+    <mergeCell ref="AC34:AC39"/>
+    <mergeCell ref="AC4:AC9"/>
+    <mergeCell ref="AC10:AC15"/>
+    <mergeCell ref="AC16:AC21"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
@@ -21160,50 +21180,29 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AC28:AC33"/>
-    <mergeCell ref="AC34:AC39"/>
-    <mergeCell ref="AC4:AC9"/>
-    <mergeCell ref="AC10:AC15"/>
-    <mergeCell ref="AC16:AC21"/>
+    <mergeCell ref="BI27:BI32"/>
+    <mergeCell ref="BI33:BI38"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BI3:BI8"/>
+    <mergeCell ref="BI9:BI14"/>
+    <mergeCell ref="BI15:BI20"/>
+    <mergeCell ref="BI21:BI26"/>
+    <mergeCell ref="BG3:BH8"/>
+    <mergeCell ref="BG1:BH2"/>
+    <mergeCell ref="AV55:AY63"/>
+    <mergeCell ref="BG33:BH38"/>
+    <mergeCell ref="BG27:BH32"/>
+    <mergeCell ref="BG21:BH26"/>
+    <mergeCell ref="BG15:BH20"/>
+    <mergeCell ref="BG9:BH14"/>
     <mergeCell ref="AX21:AX26"/>
     <mergeCell ref="AX27:AX32"/>
     <mergeCell ref="AX33:AX38"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AY1:BD1"/>
-    <mergeCell ref="BE1:BF2"/>
     <mergeCell ref="AX3:AX8"/>
     <mergeCell ref="AX9:AX14"/>
     <mergeCell ref="AX15:AX20"/>
     <mergeCell ref="AY3:AZ8"/>
     <mergeCell ref="BA3:BB8"/>
-    <mergeCell ref="BC3:BD8"/>
-    <mergeCell ref="AY33:AZ38"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AY9:AZ14"/>
-    <mergeCell ref="AY15:AZ20"/>
-    <mergeCell ref="AY21:AZ26"/>
-    <mergeCell ref="AY27:AZ32"/>
-    <mergeCell ref="BA9:BB14"/>
-    <mergeCell ref="BA15:BB20"/>
-    <mergeCell ref="BA21:BB26"/>
-    <mergeCell ref="BA27:BB32"/>
-    <mergeCell ref="BE27:BF32"/>
-    <mergeCell ref="BA33:BB38"/>
-    <mergeCell ref="BC33:BD38"/>
-    <mergeCell ref="BE33:BF38"/>
-    <mergeCell ref="BE3:BF8"/>
-    <mergeCell ref="BC9:BD14"/>
-    <mergeCell ref="BE9:BF14"/>
-    <mergeCell ref="BC15:BD20"/>
-    <mergeCell ref="BE15:BF20"/>
-    <mergeCell ref="BC21:BD26"/>
-    <mergeCell ref="BE21:BF26"/>
-    <mergeCell ref="BC27:BD32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/Empirical Data.xlsx
+++ b/Report/Empirical Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237D3DD-9C91-435E-A8FB-C488AD8973B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF31FF3-893C-4EBF-928F-384C6128AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>Algorithm</t>
   </si>
@@ -280,9 +280,6 @@
     <t>bubble/selection</t>
   </si>
   <si>
-    <t>shellsort/selection</t>
-  </si>
-  <si>
     <t>quick/selection</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>insertion/selection</t>
-  </si>
-  <si>
-    <t>seslection/insesrtion</t>
   </si>
   <si>
     <t>bubble/insertion</t>
@@ -346,23 +340,33 @@
     <t>selection/shell</t>
   </si>
   <si>
-    <t>shellsort/bubble</t>
-  </si>
-  <si>
     <t>shell/log2(n) ~ insertion</t>
   </si>
   <si>
-    <t>if x/y &gt; 1 = n, then y is n times faster than x                    otherwise, x is 1/n times faster than  y</t>
+    <t>shell/bubble</t>
+  </si>
+  <si>
+    <t>shell/selection</t>
+  </si>
+  <si>
+    <t>selection/insertion</t>
+  </si>
+  <si>
+    <t>Key:                                                                          if x/y &gt; 1 = s, then y is s times faster than x                    otherwise, x is 1/s times faster than y</t>
+  </si>
+  <si>
+    <t>Key: if x/y &gt; 1 = s, then y is s times faster than x, otherwise, x is 1/s times faster than y.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -440,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,48 +847,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,15 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,29 +929,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14137,10 +14225,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BI91"/>
+  <dimension ref="A1:BQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S30" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU39" sqref="AC2:AU39"/>
+    <sheetView tabSelected="1" topLeftCell="AN30" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL40" sqref="BL40:BQ76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14160,100 +14248,105 @@
     <col min="37" max="37" width="8.90625" customWidth="1"/>
     <col min="41" max="41" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AY1" s="50" t="s">
+      <c r="AY1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="34" t="s">
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="34" t="s">
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="35"/>
+      <c r="BH1" s="32"/>
       <c r="BI1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52"/>
-      <c r="AD2" s="50" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="43"/>
+      <c r="AD2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="50" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="52"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="43"/>
       <c r="AX2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="63" t="s">
+      <c r="AY2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="50" t="s">
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="64" t="s">
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="39"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="36"/>
       <c r="BI2" s="48"/>
     </row>
     <row r="3" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -14395,38 +14488,38 @@
       <c r="AU3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AX3" s="34" t="s">
+      <c r="AX3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="61" t="s">
+      <c r="AY3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="62" t="s">
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="62" t="s">
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="66" t="s">
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="34" t="s">
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="BH3" s="35"/>
+      <c r="BH3" s="32"/>
       <c r="BI3" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10">
@@ -14567,22 +14660,22 @@
         <f>AVERAGE(AP4:AT4)</f>
         <v>2.1795882600000001</v>
       </c>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="37"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="34"/>
       <c r="BI4" s="48"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="5">
         <v>100000</v>
       </c>
@@ -14703,7 +14796,7 @@
         <v>3.9356388999999998</v>
       </c>
       <c r="AO5" s="19">
-        <f t="shared" ref="AO5:AO39" si="4">AVERAGE(AJ5:AN5)</f>
+        <f>AVERAGE(AJ5:AN5)</f>
         <v>3.7816324800000003</v>
       </c>
       <c r="AP5" s="20">
@@ -14722,25 +14815,25 @@
         <v>8.8558328999999993</v>
       </c>
       <c r="AU5" s="19">
-        <f t="shared" ref="AU5:AU39" si="5">AVERAGE(AP5:AT5)</f>
+        <f t="shared" ref="AU5:AU39" si="4">AVERAGE(AP5:AT5)</f>
         <v>8.7173875799999987</v>
       </c>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="37"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="34"/>
       <c r="BI5" s="48"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="5">
         <v>175000</v>
       </c>
@@ -14749,11 +14842,11 @@
         <v>1.75</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" ref="E6:E15" si="6">D6^2</f>
+        <f t="shared" ref="E6:E15" si="5">D6^2</f>
         <v>3.0625</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" ref="F6:F15" si="7">D6*LOG(D6,2)</f>
+        <f t="shared" ref="F6:F15" si="6">D6*LOG(D6,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G6" s="17">
@@ -14776,7 +14869,7 @@
         <v>49.444212519999994</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" ref="M6:M9" si="8">L6/L5</f>
+        <f t="shared" ref="M6:M9" si="7">L6/L5</f>
         <v>3.0156113155003781</v>
       </c>
       <c r="N6" s="20">
@@ -14799,7 +14892,7 @@
         <v>11.52258582</v>
       </c>
       <c r="T6" s="20">
-        <f t="shared" ref="T6:T9" si="9">S6/S5</f>
+        <f t="shared" ref="T6:T9" si="8">S6/S5</f>
         <v>3.046987215426074</v>
       </c>
       <c r="U6" s="20">
@@ -14822,7 +14915,7 @@
         <v>26.446548279999995</v>
       </c>
       <c r="AA6" s="20">
-        <f t="shared" ref="AA6:AA9" si="10">Z6/Z5</f>
+        <f t="shared" ref="AA6:AA9" si="9">Z6/Z5</f>
         <v>3.0337699267467926</v>
       </c>
       <c r="AC6" s="48"/>
@@ -14861,7 +14954,7 @@
         <v>11.718612800000001</v>
       </c>
       <c r="AO6" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ6:AN6)</f>
         <v>11.52258582</v>
       </c>
       <c r="AP6" s="20">
@@ -14880,25 +14973,25 @@
         <v>26.7329179</v>
       </c>
       <c r="AU6" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26.446548279999995</v>
       </c>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="37"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="34"/>
       <c r="BI6" s="48"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5">
         <v>300000</v>
       </c>
@@ -14907,11 +15000,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E7" s="11">
+        <f t="shared" si="5"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F7" s="11">
         <f t="shared" si="6"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="7"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G7" s="17">
@@ -14934,7 +15027,7 @@
         <v>150.84097609999998</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0507306803396936</v>
       </c>
       <c r="N7" s="20">
@@ -14957,7 +15050,7 @@
         <v>34.178462160000002</v>
       </c>
       <c r="T7" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.966214588801388</v>
       </c>
       <c r="U7" s="20">
@@ -14980,7 +15073,7 @@
         <v>81.228794319999992</v>
       </c>
       <c r="AA7" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0714327427533772</v>
       </c>
       <c r="AC7" s="48"/>
@@ -15019,7 +15112,7 @@
         <v>34.383432499999998</v>
       </c>
       <c r="AO7" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ7:AN7)</f>
         <v>34.178462160000002</v>
       </c>
       <c r="AP7" s="20">
@@ -15038,25 +15131,25 @@
         <v>80.685685699999993</v>
       </c>
       <c r="AU7" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81.228794319999992</v>
       </c>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="37"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="34"/>
       <c r="BI7" s="48"/>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5">
         <v>425000</v>
       </c>
@@ -15065,11 +15158,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E8" s="11">
+        <f t="shared" si="5"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F8" s="11">
         <f t="shared" si="6"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="7"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G8" s="17">
@@ -15092,7 +15185,7 @@
         <v>307.67407392000001</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.0397247609696425</v>
       </c>
       <c r="N8" s="20">
@@ -15115,7 +15208,7 @@
         <v>68.704380760000006</v>
       </c>
       <c r="T8" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.0101659471503854</v>
       </c>
       <c r="U8" s="20">
@@ -15138,7 +15231,7 @@
         <v>159.48612682000001</v>
       </c>
       <c r="AA8" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.963418614730462</v>
       </c>
       <c r="AC8" s="48"/>
@@ -15177,7 +15270,7 @@
         <v>67.681019599999999</v>
       </c>
       <c r="AO8" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ8:AN8)</f>
         <v>68.704380760000006</v>
       </c>
       <c r="AP8" s="20">
@@ -15196,25 +15289,25 @@
         <v>160.46309980000001</v>
       </c>
       <c r="AU8" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>159.48612682000001</v>
       </c>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="38"/>
-      <c r="BH8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="36"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="36"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="36"/>
       <c r="BI8" s="49"/>
     </row>
     <row r="9" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6">
         <v>550000</v>
       </c>
@@ -15223,11 +15316,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E9" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" si="6"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="7"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G9" s="22">
@@ -15250,7 +15343,7 @@
         <v>494.67564397999996</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6077911202509161</v>
       </c>
       <c r="N9" s="25">
@@ -15273,7 +15366,7 @@
         <v>116.41577226</v>
       </c>
       <c r="T9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.6944446769219377</v>
       </c>
       <c r="U9" s="26">
@@ -15296,7 +15389,7 @@
         <v>262.80399759999995</v>
       </c>
       <c r="AA9" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6478172919492053</v>
       </c>
       <c r="AC9" s="49"/>
@@ -15335,7 +15428,7 @@
         <v>116.91454210000001</v>
       </c>
       <c r="AO9" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ9:AN9)</f>
         <v>116.41577226</v>
       </c>
       <c r="AP9" s="26">
@@ -15354,41 +15447,41 @@
         <v>260.890017</v>
       </c>
       <c r="AU9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>262.80399759999995</v>
       </c>
-      <c r="AX9" s="36" t="s">
+      <c r="AX9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" s="62" t="s">
+      <c r="AY9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="62" t="s">
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BB9" s="35"/>
-      <c r="BC9" s="62" t="s">
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="66" t="s">
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="35"/>
-      <c r="BG9" s="34" t="s">
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BH9" s="35"/>
+      <c r="BH9" s="32"/>
       <c r="BI9" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="10">
@@ -15507,7 +15600,7 @@
         <v>0.89189050000000003</v>
       </c>
       <c r="AO10" s="16">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ10:AN10)</f>
         <v>0.88176837999999991</v>
       </c>
       <c r="AP10" s="13">
@@ -15526,25 +15619,25 @@
         <v>0.88712849999999999</v>
       </c>
       <c r="AU10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.8840920000000001</v>
       </c>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="67"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="37"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="34"/>
       <c r="BI10" s="48"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5">
         <v>100000</v>
       </c>
@@ -15665,7 +15758,7 @@
         <v>3.5381456999999998</v>
       </c>
       <c r="AO11" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ11:AN11)</f>
         <v>3.5121737799999999</v>
       </c>
       <c r="AP11" s="20">
@@ -15684,25 +15777,25 @@
         <v>3.6623644</v>
       </c>
       <c r="AU11" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.5525640000000003</v>
       </c>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="67"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="37"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="34"/>
       <c r="BI11" s="48"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A12" s="57"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5">
         <v>175000</v>
       </c>
@@ -15711,11 +15804,11 @@
         <v>1.75</v>
       </c>
       <c r="E12" s="11">
+        <f t="shared" si="5"/>
+        <v>3.0625</v>
+      </c>
+      <c r="F12" s="11">
         <f t="shared" si="6"/>
-        <v>3.0625</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="7"/>
         <v>1.4128711136008072</v>
       </c>
       <c r="G12" s="17">
@@ -15738,7 +15831,7 @@
         <v>10.908895239999998</v>
       </c>
       <c r="M12" s="20">
-        <f t="shared" ref="M12:M15" si="11">L12/L11</f>
+        <f t="shared" ref="M12:M15" si="10">L12/L11</f>
         <v>3.1478757896132259</v>
       </c>
       <c r="N12" s="20">
@@ -15761,7 +15854,7 @@
         <v>11.215094599999999</v>
       </c>
       <c r="T12" s="20">
-        <f t="shared" ref="T12:T15" si="12">S12/S11</f>
+        <f t="shared" ref="T12:T15" si="11">S12/S11</f>
         <v>3.1932060605497714</v>
       </c>
       <c r="U12" s="20">
@@ -15784,7 +15877,7 @@
         <v>10.935985580000001</v>
       </c>
       <c r="AA12" s="20">
-        <f t="shared" ref="AA12:AA15" si="13">Z12/Z11</f>
+        <f t="shared" ref="AA12:AA15" si="12">Z12/Z11</f>
         <v>3.0783359793095917</v>
       </c>
       <c r="AC12" s="48"/>
@@ -15823,7 +15916,7 @@
         <v>11.1866425</v>
       </c>
       <c r="AO12" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ12:AN12)</f>
         <v>11.215094599999999</v>
       </c>
       <c r="AP12" s="20">
@@ -15842,25 +15935,25 @@
         <v>10.881433400000001</v>
       </c>
       <c r="AU12" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.935985580000001</v>
       </c>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="37"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="34"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="34"/>
       <c r="BI12" s="48"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A13" s="57"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="5">
         <v>300000</v>
       </c>
@@ -15869,11 +15962,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E13" s="11">
+        <f t="shared" si="5"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F13" s="11">
         <f t="shared" si="6"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="7"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G13" s="17">
@@ -15896,7 +15989,7 @@
         <v>31.52791706</v>
       </c>
       <c r="M13" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.8901109018258393</v>
       </c>
       <c r="N13" s="20">
@@ -15919,7 +16012,7 @@
         <v>32.676205999999993</v>
       </c>
       <c r="T13" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.9135916517369367</v>
       </c>
       <c r="U13" s="20">
@@ -15942,7 +16035,7 @@
         <v>32.4724115</v>
       </c>
       <c r="AA13" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.96931732969604</v>
       </c>
       <c r="AC13" s="48"/>
@@ -15981,7 +16074,7 @@
         <v>32.084002900000002</v>
       </c>
       <c r="AO13" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ13:AN13)</f>
         <v>32.676205999999993</v>
       </c>
       <c r="AP13" s="20">
@@ -16000,25 +16093,25 @@
         <v>32.730861500000003</v>
       </c>
       <c r="AU13" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32.4724115</v>
       </c>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="37"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="34"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="34"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="34"/>
       <c r="BI13" s="48"/>
     </row>
     <row r="14" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="5">
         <v>425000</v>
       </c>
@@ -16027,11 +16120,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E14" s="11">
+        <f t="shared" si="5"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="6"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="7"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G14" s="17">
@@ -16054,7 +16147,7 @@
         <v>66.703100739999996</v>
       </c>
       <c r="M14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.1156837165315734</v>
       </c>
       <c r="N14" s="20">
@@ -16077,7 +16170,7 @@
         <v>66.039244200000013</v>
       </c>
       <c r="T14" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.0210193374347081</v>
       </c>
       <c r="U14" s="20">
@@ -16100,7 +16193,7 @@
         <v>64.411971059999999</v>
       </c>
       <c r="AA14" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.9835906261535272</v>
       </c>
       <c r="AC14" s="48"/>
@@ -16139,7 +16232,7 @@
         <v>64.619699600000004</v>
       </c>
       <c r="AO14" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ14:AN14)</f>
         <v>66.039244200000013</v>
       </c>
       <c r="AP14" s="20">
@@ -16158,25 +16251,25 @@
         <v>64.699296700000005</v>
       </c>
       <c r="AU14" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.411971059999999</v>
       </c>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="68"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="36"/>
       <c r="BI14" s="49"/>
     </row>
     <row r="15" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6">
         <v>550000</v>
       </c>
@@ -16185,11 +16278,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E15" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="6"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="7"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G15" s="22">
@@ -16212,7 +16305,7 @@
         <v>109.7235924</v>
       </c>
       <c r="M15" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6449548998882118</v>
       </c>
       <c r="N15" s="25">
@@ -16235,7 +16328,7 @@
         <v>110.81666572000002</v>
       </c>
       <c r="T15" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.6780426103059489</v>
       </c>
       <c r="U15" s="25">
@@ -16258,7 +16351,7 @@
         <v>110.83381118</v>
       </c>
       <c r="AA15" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.7207020582673658</v>
       </c>
       <c r="AC15" s="49"/>
@@ -16297,7 +16390,7 @@
         <v>109.3390679</v>
       </c>
       <c r="AO15" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ15:AN15)</f>
         <v>110.81666572000002</v>
       </c>
       <c r="AP15" s="25">
@@ -16316,41 +16409,41 @@
         <v>113.26993659999999</v>
       </c>
       <c r="AU15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>110.83381118</v>
       </c>
-      <c r="AX15" s="34" t="s">
+      <c r="AX15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AY15" s="62" t="s">
+      <c r="AY15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AZ15" s="35"/>
-      <c r="BA15" s="62" t="s">
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BB15" s="35"/>
-      <c r="BC15" s="62" t="s">
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="66" t="s">
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="34" t="s">
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BH15" s="35"/>
+      <c r="BH15" s="32"/>
       <c r="BI15" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10">
@@ -16469,7 +16562,7 @@
         <v>8.6700000000000007E-5</v>
       </c>
       <c r="AO16" s="16">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ16:AN16)</f>
         <v>9.8480000000000006E-5</v>
       </c>
       <c r="AP16" s="20">
@@ -16488,25 +16581,25 @@
         <v>1.1501872</v>
       </c>
       <c r="AU16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1173522599999999</v>
       </c>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="36"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="36"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="37"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="34"/>
       <c r="BI16" s="48"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5">
         <v>100000</v>
       </c>
@@ -16627,7 +16720,7 @@
         <v>1.6809999999999999E-4</v>
       </c>
       <c r="AO17" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ17:AN17)</f>
         <v>1.4724000000000001E-4</v>
       </c>
       <c r="AP17" s="20">
@@ -16646,25 +16739,25 @@
         <v>4.4334512999999998</v>
       </c>
       <c r="AU17" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3320717799999997</v>
       </c>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="37"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="34"/>
       <c r="BI17" s="48"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="5">
         <v>175000</v>
       </c>
@@ -16673,11 +16766,11 @@
         <v>1.75</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" ref="E18:E21" si="14">D18^2</f>
+        <f t="shared" ref="E18:E21" si="13">D18^2</f>
         <v>3.0625</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" ref="F18:F21" si="15">D18*LOG(D18,2)</f>
+        <f t="shared" ref="F18:F21" si="14">D18*LOG(D18,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G18" s="17">
@@ -16700,7 +16793,7 @@
         <v>6.8691384599999994</v>
       </c>
       <c r="M18" s="20">
-        <f t="shared" ref="M18:M21" si="16">L18/L17</f>
+        <f t="shared" ref="M18:M21" si="15">L18/L17</f>
         <v>3.1027733265740101</v>
       </c>
       <c r="N18" s="20">
@@ -16723,7 +16816,7 @@
         <v>2.6708E-4</v>
       </c>
       <c r="T18" s="20">
-        <f t="shared" ref="T18:T21" si="17">S18/S17</f>
+        <f t="shared" ref="T18:T21" si="16">S18/S17</f>
         <v>1.8139092637870142</v>
       </c>
       <c r="U18" s="20">
@@ -16746,7 +16839,7 @@
         <v>13.35462506</v>
       </c>
       <c r="AA18" s="20">
-        <f t="shared" ref="AA18:AA21" si="18">Z18/Z17</f>
+        <f t="shared" ref="AA18:AA21" si="17">Z18/Z17</f>
         <v>3.0827340215493848</v>
       </c>
       <c r="AC18" s="48"/>
@@ -16785,7 +16878,7 @@
         <v>3.8690000000000003E-4</v>
       </c>
       <c r="AO18" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ18:AN18)</f>
         <v>2.6708E-4</v>
       </c>
       <c r="AP18" s="20">
@@ -16804,25 +16897,25 @@
         <v>13.5598308</v>
       </c>
       <c r="AU18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13.35462506</v>
       </c>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="37"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="34"/>
       <c r="BI18" s="48"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A19" s="57"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="5">
         <v>300000</v>
       </c>
@@ -16831,11 +16924,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E19" s="11">
+        <f t="shared" si="13"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F19" s="11">
         <f t="shared" si="14"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="15"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G19" s="17">
@@ -16858,7 +16951,7 @@
         <v>20.141167800000002</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.9321243001993591</v>
       </c>
       <c r="N19" s="20">
@@ -16881,7 +16974,7 @@
         <v>5.2304000000000001E-4</v>
       </c>
       <c r="T19" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.9583645349707952</v>
       </c>
       <c r="U19" s="20">
@@ -16904,7 +16997,7 @@
         <v>41.141370479999999</v>
       </c>
       <c r="AA19" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3.0806833059826841</v>
       </c>
       <c r="AC19" s="48"/>
@@ -16943,7 +17036,7 @@
         <v>4.2949999999999998E-4</v>
       </c>
       <c r="AO19" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ19:AN19)</f>
         <v>5.2304000000000001E-4</v>
       </c>
       <c r="AP19" s="20">
@@ -16962,25 +17055,25 @@
         <v>41.462623999999998</v>
       </c>
       <c r="AU19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.141370479999999</v>
       </c>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="37"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="37"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="37"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="34"/>
       <c r="BI19" s="48"/>
     </row>
     <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="5">
         <v>425000</v>
       </c>
@@ -16989,11 +17082,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E20" s="11">
+        <f t="shared" si="13"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="14"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="15"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G20" s="17">
@@ -17016,7 +17109,7 @@
         <v>40.321519960000003</v>
       </c>
       <c r="M20" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.0019454860010648</v>
       </c>
       <c r="N20" s="18">
@@ -17039,7 +17132,7 @@
         <v>6.4141999999999997E-4</v>
       </c>
       <c r="T20" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.2263306821657998</v>
       </c>
       <c r="U20" s="20">
@@ -17062,7 +17155,7 @@
         <v>82.394224699999995</v>
       </c>
       <c r="AA20" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2.0027097721514697</v>
       </c>
       <c r="AC20" s="48"/>
@@ -17101,7 +17194,7 @@
         <v>6.0930000000000001E-4</v>
       </c>
       <c r="AO20" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ20:AN20)</f>
         <v>6.4141999999999997E-4</v>
       </c>
       <c r="AP20" s="20">
@@ -17120,25 +17213,25 @@
         <v>81.754149699999999</v>
       </c>
       <c r="AU20" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>82.394224699999995</v>
       </c>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="36"/>
       <c r="BI20" s="49"/>
     </row>
     <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="6">
         <v>550000</v>
       </c>
@@ -17147,11 +17240,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E21" s="11">
+        <f t="shared" si="13"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="14"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="15"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G21" s="22">
@@ -17174,7 +17267,7 @@
         <v>66.27940498000001</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.6437724829260132</v>
       </c>
       <c r="N21" s="20">
@@ -17197,7 +17290,7 @@
         <v>8.0061999999999993E-4</v>
       </c>
       <c r="T21" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.2481993077858502</v>
       </c>
       <c r="U21" s="26">
@@ -17220,7 +17313,7 @@
         <v>135.94702348000001</v>
       </c>
       <c r="AA21" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1.6499581612059275</v>
       </c>
       <c r="AC21" s="49"/>
@@ -17259,7 +17352,7 @@
         <v>7.6760000000000001E-4</v>
       </c>
       <c r="AO21" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ21:AN21)</f>
         <v>8.0061999999999993E-4</v>
       </c>
       <c r="AP21" s="26">
@@ -17278,41 +17371,41 @@
         <v>132.62209770000001</v>
       </c>
       <c r="AU21" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>135.94702348000001</v>
       </c>
-      <c r="AX21" s="34" t="s">
+      <c r="AX21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AZ21" s="35"/>
-      <c r="BA21" s="62" t="s">
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="BB21" s="35"/>
-      <c r="BC21" s="62" t="s">
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="66" t="s">
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="34" t="s">
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="BH21" s="35"/>
+      <c r="BH21" s="32"/>
       <c r="BI21" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="10">
@@ -17431,7 +17524,7 @@
         <v>2.9645700000000001E-2</v>
       </c>
       <c r="AO22" s="16">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ22:AN22)</f>
         <v>3.2456680000000002E-2</v>
       </c>
       <c r="AP22" s="13">
@@ -17450,25 +17543,25 @@
         <v>2.05493E-2</v>
       </c>
       <c r="AU22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1009380000000001E-2</v>
       </c>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="37"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="34"/>
       <c r="BI22" s="48"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5">
         <v>100000</v>
       </c>
@@ -17589,7 +17682,7 @@
         <v>4.6229800000000001E-2</v>
       </c>
       <c r="AO23" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ23:AN23)</f>
         <v>4.4936039999999997E-2</v>
       </c>
       <c r="AP23" s="20">
@@ -17608,25 +17701,25 @@
         <v>3.7886200000000002E-2</v>
       </c>
       <c r="AU23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9191080000000003E-2</v>
       </c>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="37"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="37"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="34"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="34"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="34"/>
       <c r="BI23" s="48"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5">
         <v>175000</v>
       </c>
@@ -17635,11 +17728,11 @@
         <v>1.75</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" ref="E24:E27" si="19">D24^2</f>
+        <f t="shared" ref="E24:E27" si="18">D24^2</f>
         <v>3.0625</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F27" si="20">D24*LOG(D24,2)</f>
+        <f t="shared" ref="F24:F27" si="19">D24*LOG(D24,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G24" s="17">
@@ -17662,7 +17755,7 @@
         <v>8.4175180000000002E-2</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" ref="M24:M27" si="21">L24/L23</f>
+        <f t="shared" ref="M24:M27" si="20">L24/L23</f>
         <v>1.6969762337147078</v>
       </c>
       <c r="N24" s="20">
@@ -17685,7 +17778,7 @@
         <v>7.6540840000000013E-2</v>
       </c>
       <c r="T24" s="20">
-        <f t="shared" ref="T24:T27" si="22">S24/S23</f>
+        <f t="shared" ref="T24:T27" si="21">S24/S23</f>
         <v>1.703328553205846</v>
       </c>
       <c r="U24" s="20">
@@ -17708,7 +17801,7 @@
         <v>6.838284E-2</v>
       </c>
       <c r="AA24" s="20">
-        <f t="shared" ref="AA24:AA27" si="23">Z24/Z23</f>
+        <f t="shared" ref="AA24:AA27" si="22">Z24/Z23</f>
         <v>1.7448572481289109</v>
       </c>
       <c r="AC24" s="48"/>
@@ -17747,7 +17840,7 @@
         <v>7.4467099999999994E-2</v>
       </c>
       <c r="AO24" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ24:AN24)</f>
         <v>7.6540840000000013E-2</v>
       </c>
       <c r="AP24" s="20">
@@ -17766,25 +17859,25 @@
         <v>6.6806599999999994E-2</v>
       </c>
       <c r="AU24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.838284E-2</v>
       </c>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="36"/>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="67"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="37"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="34"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="34"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="34"/>
       <c r="BI24" s="48"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5">
         <v>300000</v>
       </c>
@@ -17793,11 +17886,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E25" s="11">
+        <f t="shared" si="18"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="19"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="20"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G25" s="17">
@@ -17820,7 +17913,7 @@
         <v>0.14635941999999999</v>
       </c>
       <c r="M25" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.738747930209356</v>
       </c>
       <c r="N25" s="20">
@@ -17843,7 +17936,7 @@
         <v>0.13504572000000001</v>
       </c>
       <c r="T25" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.7643616140089393</v>
       </c>
       <c r="U25" s="20">
@@ -17866,7 +17959,7 @@
         <v>0.11834768</v>
       </c>
       <c r="AA25" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.7306634237478291</v>
       </c>
       <c r="AC25" s="48"/>
@@ -17905,7 +17998,7 @@
         <v>0.142403</v>
       </c>
       <c r="AO25" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ25:AN25)</f>
         <v>0.13504572000000001</v>
       </c>
       <c r="AP25" s="20">
@@ -17924,25 +18017,25 @@
         <v>0.1250452</v>
       </c>
       <c r="AU25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11834768</v>
       </c>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="37"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="36"/>
-      <c r="BD25" s="37"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="37"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="37"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="34"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="34"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="34"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="34"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="34"/>
       <c r="BI25" s="48"/>
     </row>
     <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="57"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5">
         <v>425000</v>
       </c>
@@ -17951,11 +18044,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E26" s="11">
+        <f t="shared" si="18"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="19"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="20"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G26" s="17">
@@ -17978,7 +18071,7 @@
         <v>0.2058516</v>
       </c>
       <c r="M26" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.4064800202132532</v>
       </c>
       <c r="N26" s="20">
@@ -18001,7 +18094,7 @@
         <v>0.19297686</v>
       </c>
       <c r="T26" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.4289742762673263</v>
       </c>
       <c r="U26" s="20">
@@ -18024,7 +18117,7 @@
         <v>0.16483602000000003</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.392811587012099</v>
       </c>
       <c r="AC26" s="48"/>
@@ -18063,7 +18156,7 @@
         <v>0.1899264</v>
       </c>
       <c r="AO26" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ26:AN26)</f>
         <v>0.19297686</v>
       </c>
       <c r="AP26" s="20">
@@ -18082,25 +18175,25 @@
         <v>0.15979070000000001</v>
       </c>
       <c r="AU26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16483602000000003</v>
       </c>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="39"/>
-      <c r="BG26" s="38"/>
-      <c r="BH26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="36"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="36"/>
+      <c r="BE26" s="35"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="36"/>
       <c r="BI26" s="49"/>
     </row>
     <row r="27" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="58"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="6">
         <v>550000</v>
       </c>
@@ -18109,11 +18202,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E27" s="11">
+        <f t="shared" si="18"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F27" s="11">
         <f t="shared" si="19"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="20"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G27" s="22">
@@ -18136,7 +18229,7 @@
         <v>0.26584922</v>
       </c>
       <c r="M27" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.291460547306895</v>
       </c>
       <c r="N27" s="25">
@@ -18159,7 +18252,7 @@
         <v>0.25202259999999999</v>
       </c>
       <c r="T27" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3059731617562851</v>
       </c>
       <c r="U27" s="25">
@@ -18182,7 +18275,7 @@
         <v>0.21743744000000001</v>
       </c>
       <c r="AA27" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.3191136257718428</v>
       </c>
       <c r="AC27" s="49"/>
@@ -18221,7 +18314,7 @@
         <v>0.2566425</v>
       </c>
       <c r="AO27" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ27:AN27)</f>
         <v>0.25202259999999999</v>
       </c>
       <c r="AP27" s="25">
@@ -18240,41 +18333,41 @@
         <v>0.2260112</v>
       </c>
       <c r="AU27" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.21743744000000001</v>
       </c>
-      <c r="AX27" s="34" t="s">
+      <c r="AX27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AY27" s="62" t="s">
+      <c r="AY27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AZ27" s="35"/>
-      <c r="BA27" s="62" t="s">
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BB27" s="35"/>
-      <c r="BC27" s="62" t="s">
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="66" t="s">
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="35"/>
-      <c r="BG27" s="41" t="s">
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BH27" s="42"/>
+      <c r="BH27" s="60"/>
       <c r="BI27" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="10">
@@ -18393,7 +18486,7 @@
         <v>9.990000000000001E-4</v>
       </c>
       <c r="AO28" s="16">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ28:AN28)</f>
         <v>1.3991399999999999E-3</v>
       </c>
       <c r="AP28" s="13">
@@ -18412,25 +18505,25 @@
         <v>2.1056999999999998E-3</v>
       </c>
       <c r="AU28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1247800000000002E-3</v>
       </c>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="67"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="43"/>
-      <c r="BH28" s="44"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="61"/>
+      <c r="BH28" s="62"/>
       <c r="BI28" s="48"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5">
         <v>100000</v>
       </c>
@@ -18551,7 +18644,7 @@
         <v>2.2461999999999998E-3</v>
       </c>
       <c r="AO29" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ29:AN29)</f>
         <v>2.2692799999999998E-3</v>
       </c>
       <c r="AP29" s="20">
@@ -18570,25 +18663,25 @@
         <v>4.1974999999999998E-3</v>
       </c>
       <c r="AU29" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1765199999999995E-3</v>
       </c>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="43"/>
-      <c r="BH29" s="44"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="61"/>
+      <c r="BH29" s="62"/>
       <c r="BI29" s="48"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5">
         <v>175000</v>
       </c>
@@ -18597,11 +18690,11 @@
         <v>1.75</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" ref="E30:E33" si="24">D30^2</f>
+        <f t="shared" ref="E30:E33" si="23">D30^2</f>
         <v>3.0625</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" ref="F30:F33" si="25">D30*LOG(D30,2)</f>
+        <f t="shared" ref="F30:F33" si="24">D30*LOG(D30,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G30" s="17">
@@ -18624,7 +18717,7 @@
         <v>1.4014560000000001E-2</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" ref="M30:M33" si="26">L30/L29</f>
+        <f t="shared" ref="M30:M33" si="25">L30/L29</f>
         <v>1.7662680728357969</v>
       </c>
       <c r="N30" s="20">
@@ -18647,7 +18740,7 @@
         <v>4.6499799999999997E-3</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" ref="T30:T33" si="27">S30/S29</f>
+        <f t="shared" ref="T30:T33" si="26">S30/S29</f>
         <v>2.049099273778467</v>
       </c>
       <c r="U30" s="20">
@@ -18670,7 +18763,7 @@
         <v>7.9310400000000003E-3</v>
       </c>
       <c r="AA30" s="20">
-        <f t="shared" ref="AA30:AA33" si="28">Z30/Z29</f>
+        <f t="shared" ref="AA30:AA33" si="27">Z30/Z29</f>
         <v>1.8989589418942088</v>
       </c>
       <c r="AC30" s="48"/>
@@ -18709,7 +18802,7 @@
         <v>4.0372000000000003E-3</v>
       </c>
       <c r="AO30" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ30:AN30)</f>
         <v>4.6499799999999997E-3</v>
       </c>
       <c r="AP30" s="20">
@@ -18728,25 +18821,25 @@
         <v>7.8995000000000003E-3</v>
       </c>
       <c r="AU30" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.9310400000000003E-3</v>
       </c>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="37"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="43"/>
-      <c r="BH30" s="44"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="34"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="34"/>
+      <c r="BE30" s="33"/>
+      <c r="BF30" s="34"/>
+      <c r="BG30" s="61"/>
+      <c r="BH30" s="62"/>
       <c r="BI30" s="48"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="5">
         <v>300000</v>
       </c>
@@ -18755,11 +18848,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E31" s="11">
+        <f t="shared" si="23"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F31" s="11">
         <f t="shared" si="24"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="25"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G31" s="17">
@@ -18782,7 +18875,7 @@
         <v>2.5084059999999998E-2</v>
       </c>
       <c r="M31" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.7898571200237465</v>
       </c>
       <c r="N31" s="20">
@@ -18805,7 +18898,7 @@
         <v>6.4812399999999992E-3</v>
       </c>
       <c r="T31" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1.3938210486926825</v>
       </c>
       <c r="U31" s="20">
@@ -18828,7 +18921,7 @@
         <v>1.3708639999999999E-2</v>
       </c>
       <c r="AA31" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.7284794932316567</v>
       </c>
       <c r="AC31" s="48"/>
@@ -18867,7 +18960,7 @@
         <v>6.5529000000000004E-3</v>
       </c>
       <c r="AO31" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ31:AN31)</f>
         <v>6.4812399999999992E-3</v>
       </c>
       <c r="AP31" s="20">
@@ -18886,25 +18979,25 @@
         <v>1.35464E-2</v>
       </c>
       <c r="AU31" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3708639999999999E-2</v>
       </c>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="36"/>
-      <c r="BD31" s="37"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="37"/>
-      <c r="BG31" s="43"/>
-      <c r="BH31" s="44"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="61"/>
+      <c r="BH31" s="62"/>
       <c r="BI31" s="48"/>
     </row>
     <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="57"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="5">
         <v>425000</v>
       </c>
@@ -18913,11 +19006,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E32" s="11">
+        <f t="shared" si="23"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F32" s="11">
         <f t="shared" si="24"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" si="25"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G32" s="17">
@@ -18940,7 +19033,7 @@
         <v>3.6373019999999999E-2</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.4500451681266908</v>
       </c>
       <c r="N32" s="20">
@@ -18963,7 +19056,7 @@
         <v>1.0060419999999999E-2</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1.5522369176268738</v>
       </c>
       <c r="U32" s="20">
@@ -18986,7 +19079,7 @@
         <v>1.9884720000000002E-2</v>
       </c>
       <c r="AA32" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.4505246326404371</v>
       </c>
       <c r="AC32" s="48"/>
@@ -19025,7 +19118,7 @@
         <v>9.6225000000000008E-3</v>
       </c>
       <c r="AO32" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ32:AN32)</f>
         <v>1.0060419999999999E-2</v>
       </c>
       <c r="AP32" s="20">
@@ -19044,25 +19137,25 @@
         <v>1.9841500000000001E-2</v>
       </c>
       <c r="AU32" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9884720000000002E-2</v>
       </c>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="39"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="39"/>
-      <c r="BG32" s="45"/>
-      <c r="BH32" s="46"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="36"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="36"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="36"/>
+      <c r="BE32" s="35"/>
+      <c r="BF32" s="36"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="64"/>
       <c r="BI32" s="49"/>
     </row>
-    <row r="33" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="58"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:69" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="6">
         <v>550000</v>
       </c>
@@ -19071,11 +19164,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E33" s="11">
+        <f t="shared" si="23"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F33" s="11">
         <f t="shared" si="24"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F33" s="11">
-        <f t="shared" si="25"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G33" s="22">
@@ -19098,7 +19191,7 @@
         <v>4.7824020000000002E-2</v>
       </c>
       <c r="M33" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.3148212603737606</v>
       </c>
       <c r="N33" s="25">
@@ -19121,7 +19214,7 @@
         <v>1.2501020000000002E-2</v>
       </c>
       <c r="T33" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1.2425942455682768</v>
       </c>
       <c r="U33" s="25">
@@ -19144,7 +19237,7 @@
         <v>2.6853200000000001E-2</v>
       </c>
       <c r="AA33" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.350443958979558</v>
       </c>
       <c r="AC33" s="49"/>
@@ -19183,7 +19276,7 @@
         <v>1.26924E-2</v>
       </c>
       <c r="AO33" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ33:AN33)</f>
         <v>1.2501020000000002E-2</v>
       </c>
       <c r="AP33" s="25">
@@ -19202,41 +19295,41 @@
         <v>2.73493E-2</v>
       </c>
       <c r="AU33" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6853200000000001E-2</v>
       </c>
-      <c r="AX33" s="34" t="s">
+      <c r="AX33" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AY33" s="62" t="s">
+      <c r="AY33" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="62" t="s">
+      <c r="AZ33" s="32"/>
+      <c r="BA33" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BB33" s="35"/>
-      <c r="BC33" s="62" t="s">
+      <c r="BB33" s="32"/>
+      <c r="BC33" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="BD33" s="35"/>
-      <c r="BE33" s="66" t="s">
+      <c r="BD33" s="32"/>
+      <c r="BE33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="BF33" s="35"/>
-      <c r="BG33" s="41" t="s">
+      <c r="BF33" s="32"/>
+      <c r="BG33" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BH33" s="42"/>
+      <c r="BH33" s="60"/>
       <c r="BI33" s="48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A34" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="7">
@@ -19355,7 +19448,7 @@
         <v>1.1039000000000001E-3</v>
       </c>
       <c r="AO34" s="27">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ34:AN34)</f>
         <v>1.1025400000000002E-3</v>
       </c>
       <c r="AP34" s="13">
@@ -19374,25 +19467,25 @@
         <v>1.7941000000000001E-3</v>
       </c>
       <c r="AU34" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7947400000000002E-3</v>
       </c>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="43"/>
-      <c r="BH34" s="44"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="34"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="33"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="62"/>
       <c r="BI34" s="48"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
-      <c r="B35" s="54"/>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="5">
         <v>100000</v>
       </c>
@@ -19513,7 +19606,7 @@
         <v>2.1654000000000001E-3</v>
       </c>
       <c r="AO35" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ35:AN35)</f>
         <v>2.2882999999999996E-3</v>
       </c>
       <c r="AP35" s="20">
@@ -19532,25 +19625,25 @@
         <v>3.4102E-3</v>
       </c>
       <c r="AU35" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2638199999999997E-3</v>
       </c>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="36"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="43"/>
-      <c r="BH35" s="44"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="34"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="34"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="33"/>
+      <c r="BF35" s="34"/>
+      <c r="BG35" s="61"/>
+      <c r="BH35" s="62"/>
       <c r="BI35" s="48"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="54"/>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A36" s="54"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="5">
         <v>175000</v>
       </c>
@@ -19559,11 +19652,11 @@
         <v>1.75</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" ref="E36:E39" si="29">D36^2</f>
+        <f t="shared" ref="E36:E39" si="28">D36^2</f>
         <v>3.0625</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" ref="F36:F39" si="30">D36*LOG(D36,2)</f>
+        <f t="shared" ref="F36:F39" si="29">D36*LOG(D36,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G36" s="17">
@@ -19586,7 +19679,7 @@
         <v>2.9459000000000003E-2</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" ref="M36:M39" si="31">L36/L35</f>
+        <f t="shared" ref="M36:M39" si="30">L36/L35</f>
         <v>1.814312988852621</v>
       </c>
       <c r="N36" s="20">
@@ -19609,7 +19702,7 @@
         <v>4.0748200000000007E-3</v>
       </c>
       <c r="T36" s="20">
-        <f t="shared" ref="T36:T39" si="32">S36/S35</f>
+        <f t="shared" ref="T36:T39" si="31">S36/S35</f>
         <v>1.7807193112791162</v>
       </c>
       <c r="U36" s="20">
@@ -19632,7 +19725,7 @@
         <v>6.2572799999999996E-3</v>
       </c>
       <c r="AA36" s="20">
-        <f t="shared" ref="AA36:AA39" si="33">Z36/Z35</f>
+        <f t="shared" ref="AA36:AA39" si="32">Z36/Z35</f>
         <v>1.9171645495155982</v>
       </c>
       <c r="AC36" s="48"/>
@@ -19671,7 +19764,7 @@
         <v>4.1980999999999997E-3</v>
       </c>
       <c r="AO36" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ36:AN36)</f>
         <v>4.0748200000000007E-3</v>
       </c>
       <c r="AP36" s="20">
@@ -19690,25 +19783,25 @@
         <v>6.6128000000000003E-3</v>
       </c>
       <c r="AU36" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.2572799999999996E-3</v>
       </c>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="43"/>
-      <c r="BH36" s="44"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="34"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="34"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="61"/>
+      <c r="BH36" s="62"/>
       <c r="BI36" s="48"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A37" s="57"/>
-      <c r="B37" s="54"/>
+    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A37" s="54"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="5">
         <v>300000</v>
       </c>
@@ -19717,11 +19810,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E37" s="11">
+        <f t="shared" si="28"/>
+        <v>2.9387755102040813</v>
+      </c>
+      <c r="F37" s="11">
         <f t="shared" si="29"/>
-        <v>2.9387755102040813</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="30"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G37" s="17">
@@ -19744,7 +19837,7 @@
         <v>5.6187880000000003E-2</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1.9073247564411555</v>
       </c>
       <c r="N37" s="20">
@@ -19767,7 +19860,7 @@
         <v>7.2292599999999995E-3</v>
       </c>
       <c r="T37" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.7741299002164508</v>
       </c>
       <c r="U37" s="20">
@@ -19790,7 +19883,7 @@
         <v>1.0778959999999999E-2</v>
       </c>
       <c r="AA37" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.7226270839725886</v>
       </c>
       <c r="AC37" s="48"/>
@@ -19829,7 +19922,7 @@
         <v>7.2224000000000003E-3</v>
       </c>
       <c r="AO37" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ37:AN37)</f>
         <v>7.2292599999999995E-3</v>
       </c>
       <c r="AP37" s="20">
@@ -19848,25 +19941,25 @@
         <v>1.09687E-2</v>
       </c>
       <c r="AU37" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0778959999999999E-2</v>
       </c>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="36"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="43"/>
-      <c r="BH37" s="44"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="34"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="33"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="61"/>
+      <c r="BH37" s="62"/>
       <c r="BI37" s="48"/>
     </row>
-    <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="57"/>
-      <c r="B38" s="54"/>
+    <row r="38" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="54"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="5">
         <v>425000</v>
       </c>
@@ -19875,11 +19968,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E38" s="11">
+        <f t="shared" si="28"/>
+        <v>2.0069444444444446</v>
+      </c>
+      <c r="F38" s="11">
         <f t="shared" si="29"/>
-        <v>2.0069444444444446</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" si="30"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G38" s="17">
@@ -19902,7 +19995,7 @@
         <v>8.0770339999999996E-2</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1.4375046718260236</v>
       </c>
       <c r="N38" s="20">
@@ -19925,7 +20018,7 @@
         <v>1.0179200000000001E-2</v>
       </c>
       <c r="T38" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.4080555962850971</v>
       </c>
       <c r="U38" s="20">
@@ -19948,7 +20041,7 @@
         <v>1.5200720000000001E-2</v>
       </c>
       <c r="AA38" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.4102213942718038</v>
       </c>
       <c r="AC38" s="48"/>
@@ -19987,7 +20080,7 @@
         <v>1.06573E-2</v>
       </c>
       <c r="AO38" s="19">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ38:AN38)</f>
         <v>1.0179200000000001E-2</v>
       </c>
       <c r="AP38" s="20">
@@ -20006,25 +20099,25 @@
         <v>1.5428799999999999E-2</v>
       </c>
       <c r="AU38" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5200720000000001E-2</v>
       </c>
-      <c r="AX38" s="38"/>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="39"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="39"/>
-      <c r="BC38" s="38"/>
-      <c r="BD38" s="39"/>
-      <c r="BE38" s="68"/>
-      <c r="BF38" s="39"/>
-      <c r="BG38" s="45"/>
-      <c r="BH38" s="46"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="39"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="35"/>
+      <c r="BF38" s="36"/>
+      <c r="BG38" s="63"/>
+      <c r="BH38" s="64"/>
       <c r="BI38" s="49"/>
     </row>
-    <row r="39" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="58"/>
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="55"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="6">
         <v>550000</v>
       </c>
@@ -20033,11 +20126,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E39" s="12">
+        <f t="shared" si="28"/>
+        <v>1.6747404844290659</v>
+      </c>
+      <c r="F39" s="12">
         <f t="shared" si="29"/>
-        <v>1.6747404844290659</v>
-      </c>
-      <c r="F39" s="12">
-        <f t="shared" si="30"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G39" s="22">
@@ -20060,7 +20153,7 @@
         <v>0.10898352</v>
       </c>
       <c r="M39" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1.3493012410248615</v>
       </c>
       <c r="N39" s="25">
@@ -20083,7 +20176,7 @@
         <v>1.385656E-2</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.3612621817038666</v>
       </c>
       <c r="U39" s="25">
@@ -20106,7 +20199,7 @@
         <v>2.0551239999999998E-2</v>
       </c>
       <c r="AA39" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.3519912214684566</v>
       </c>
       <c r="AC39" s="49"/>
@@ -20145,7 +20238,7 @@
         <v>1.36262E-2</v>
       </c>
       <c r="AO39" s="24">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ39:AN39)</f>
         <v>1.385656E-2</v>
       </c>
       <c r="AP39" s="25">
@@ -20164,1007 +20257,1013 @@
         <v>2.0744599999999998E-2</v>
       </c>
       <c r="AU39" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.0551239999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="AI45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK45" t="s">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL40" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM40" s="73"/>
+      <c r="BN40" s="73"/>
+      <c r="BO40" s="73"/>
+      <c r="BP40" s="73"/>
+      <c r="BQ40" s="74"/>
+    </row>
+    <row r="41" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL41" s="75"/>
+      <c r="BM41" s="76"/>
+      <c r="BN41" s="76"/>
+      <c r="BO41" s="76"/>
+      <c r="BP41" s="76"/>
+      <c r="BQ41" s="77"/>
+    </row>
+    <row r="42" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL42" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM42" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="AM45" t="s">
+      <c r="BN42" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="AO45" t="s">
+      <c r="BO42" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AQ45" t="s">
+      <c r="BP42" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AS45" t="s">
+      <c r="BQ42" s="79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="AI46">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL43" s="69">
         <f>$AI$34/AI4</f>
         <v>1.9753604834412252E-3</v>
       </c>
-      <c r="AK46">
+      <c r="BM43" s="70">
         <f>AI28/AI4</f>
         <v>9.6843513525073229E-4</v>
       </c>
-      <c r="AM46">
+      <c r="BN43" s="71">
         <f>AI22/AI4</f>
         <v>7.0904596849602538E-3</v>
       </c>
-      <c r="AO46">
+      <c r="BO43" s="82">
         <f>AI16/AI4</f>
         <v>0.14564946155704886</v>
       </c>
-      <c r="AQ46">
+      <c r="BP43" s="83">
         <f>AI10/AI4</f>
         <v>0.2259003724994392</v>
       </c>
-      <c r="AS46" s="30">
+      <c r="BQ43" s="84">
         <f>AI4/AI10</f>
         <v>4.4267301949777993</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="AI47">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL44" s="69">
         <f>$AI$35/AI5</f>
         <v>9.9029751783332961E-4</v>
       </c>
-      <c r="AK47">
-        <f t="shared" ref="AK47:AK50" si="34">AI29/AI5</f>
+      <c r="BM44" s="70">
+        <f>AI29/AI5</f>
         <v>4.8393022560199697E-4</v>
       </c>
-      <c r="AM47">
-        <f t="shared" ref="AM47:AM50" si="35">AI23/AI5</f>
+      <c r="BN44" s="71">
+        <f>AI23/AI5</f>
         <v>3.0252982317538566E-3</v>
       </c>
-      <c r="AO47">
-        <f t="shared" ref="AO47:AO50" si="36">AI17/AI5</f>
+      <c r="BO44" s="82">
+        <f>AI17/AI5</f>
         <v>0.13502435798277596</v>
       </c>
-      <c r="AQ47">
-        <f t="shared" ref="AQ47:AQ51" si="37">AI11/AI5</f>
+      <c r="BP44" s="83">
+        <f>AI11/AI5</f>
         <v>0.21136013787000474</v>
       </c>
-      <c r="AS47" s="30">
-        <f t="shared" ref="AS47:AS51" si="38">AI5/AI11</f>
+      <c r="BQ44" s="84">
+        <f>AI5/AI11</f>
         <v>4.7312611075937205</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="AI48">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL45" s="69">
         <f>$AI$36/AI6</f>
         <v>5.9580279467660554E-4</v>
       </c>
-      <c r="AK48">
-        <f t="shared" si="34"/>
+      <c r="BM45" s="70">
+        <f>AI30/AI6</f>
         <v>2.8344186884018355E-4</v>
       </c>
-      <c r="AM48">
-        <f t="shared" si="35"/>
+      <c r="BN45" s="71">
+        <f>AI24/AI6</f>
         <v>1.7024273562037512E-3</v>
       </c>
-      <c r="AO48">
-        <f t="shared" si="36"/>
+      <c r="BO45" s="82">
+        <f>AI18/AI6</f>
         <v>0.1389270474723702</v>
       </c>
-      <c r="AQ48">
-        <f t="shared" si="37"/>
+      <c r="BP45" s="83">
+        <f>AI12/AI6</f>
         <v>0.22063037682291717</v>
       </c>
-      <c r="AS48" s="30">
-        <f t="shared" si="38"/>
+      <c r="BQ45" s="84">
+        <f>AI6/AI12</f>
         <v>4.5324674435135561</v>
       </c>
     </row>
-    <row r="49" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI49">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL46" s="69">
         <f>$AI$37/AI7</f>
         <v>3.7249745694266964E-4</v>
       </c>
-      <c r="AK49">
-        <f t="shared" si="34"/>
+      <c r="BM46" s="70">
+        <f>AI31/AI7</f>
         <v>1.6629473402088389E-4</v>
       </c>
-      <c r="AM49">
-        <f t="shared" si="35"/>
+      <c r="BN46" s="71">
+        <f>AI25/AI7</f>
         <v>9.7028953129401035E-4</v>
       </c>
-      <c r="AO49">
-        <f t="shared" si="36"/>
+      <c r="BO46" s="82">
+        <f>AI19/AI7</f>
         <v>0.13352583840777735</v>
       </c>
-      <c r="AQ49">
-        <f t="shared" si="37"/>
+      <c r="BP46" s="83">
+        <f>AI13/AI7</f>
         <v>0.20901427367520201</v>
       </c>
-      <c r="AS49" s="30">
-        <f t="shared" si="38"/>
+      <c r="BQ46" s="84">
+        <f>AI7/AI13</f>
         <v>4.7843622467332123</v>
       </c>
     </row>
-    <row r="50" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI50">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="BL47" s="69">
         <f>$AI$38/AI8</f>
         <v>2.6251916182252496E-4</v>
       </c>
-      <c r="AK50">
-        <f t="shared" si="34"/>
+      <c r="BM47" s="70">
+        <f>AI32/AI8</f>
         <v>1.1821932064856899E-4</v>
       </c>
-      <c r="AM50">
-        <f t="shared" si="35"/>
+      <c r="BN47" s="71">
+        <f>AI26/AI8</f>
         <v>6.6905734817787924E-4</v>
       </c>
-      <c r="AO50">
-        <f t="shared" si="36"/>
+      <c r="BO47" s="82">
+        <f>AI20/AI8</f>
         <v>0.13105270602190622</v>
       </c>
-      <c r="AQ50">
-        <f t="shared" si="37"/>
+      <c r="BP47" s="83">
+        <f>AI14/AI8</f>
         <v>0.21679792479799201</v>
       </c>
-      <c r="AS50" s="30">
-        <f t="shared" si="38"/>
+      <c r="BQ47" s="84">
+        <f>AI8/AI14</f>
         <v>4.6125902770138607</v>
       </c>
     </row>
-    <row r="51" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI51">
+    <row r="48" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL48" s="69">
         <f>$AI$39/AI9</f>
         <v>2.2031309066109241E-4</v>
       </c>
-      <c r="AK51">
+      <c r="BM48" s="70">
         <f>AI33/AI9</f>
         <v>9.6677531190384535E-5</v>
       </c>
-      <c r="AM51">
+      <c r="BN48" s="71">
         <f>AI27/AI9</f>
         <v>5.3742128450283769E-4</v>
       </c>
-      <c r="AO51">
+      <c r="BO48" s="82">
         <f>AI21/AI9</f>
         <v>0.13398558386003684</v>
       </c>
-      <c r="AQ51">
-        <f t="shared" si="37"/>
+      <c r="BP48" s="83">
+        <f>AI15/AI9</f>
         <v>0.2218091667444945</v>
       </c>
-      <c r="AS51" s="30">
-        <f t="shared" si="38"/>
+      <c r="BQ48" s="84">
+        <f>AI9/AI15</f>
         <v>4.5083799496524684</v>
       </c>
     </row>
-    <row r="52" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI52" t="s">
+    <row r="49" spans="48:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL49" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM49" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="BN49" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="AM52" t="s">
+      <c r="BO49" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AO52" t="s">
+      <c r="BP49" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ49" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="53" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI53">
+    <row r="50" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL50" s="69">
         <f>$AI$34/AI10</f>
         <v>8.7443878980152153E-3</v>
       </c>
-      <c r="AK53">
+      <c r="BM50" s="70">
         <f>AI28/AI10</f>
         <v>4.2870010550918256E-3</v>
       </c>
-      <c r="AM53">
+      <c r="BN50" s="71">
         <f>AI22/AI10</f>
         <v>3.1387551983686326E-2</v>
       </c>
-      <c r="AO53">
+      <c r="BO50" s="82">
         <f>AI16/AI10</f>
         <v>0.64475086935684645</v>
       </c>
-      <c r="AQ53">
+      <c r="BP50" s="83">
         <f>AI10/AI16</f>
         <v>1.5509866640389685</v>
       </c>
-      <c r="AS53">
+      <c r="BQ50" s="82">
         <f>AI4/AI16</f>
         <v>6.8657994977091894</v>
       </c>
     </row>
-    <row r="54" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI54">
+    <row r="51" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL51" s="69">
         <f>$AI$35/AI11</f>
         <v>4.6853561310714314E-3</v>
       </c>
-      <c r="AK54">
-        <f t="shared" ref="AK54:AK58" si="39">AI29/AI11</f>
+      <c r="BM51" s="70">
+        <f>AI29/AI11</f>
         <v>2.2896002551797833E-3</v>
       </c>
-      <c r="AM54">
-        <f t="shared" ref="AM54:AM58" si="40">AI23/AI11</f>
+      <c r="BN51" s="71">
+        <f>AI23/AI11</f>
         <v>1.4313475862769076E-2</v>
       </c>
-      <c r="AO54">
-        <f t="shared" ref="AO54:AO58" si="41">AI17/AI11</f>
+      <c r="BO51" s="82">
+        <f>AI17/AI11</f>
         <v>0.63883549350171953</v>
       </c>
-      <c r="AQ54">
-        <f t="shared" ref="AQ54:AQ58" si="42">AI11/AI17</f>
+      <c r="BP51" s="83">
+        <f>AI11/AI17</f>
         <v>1.5653482158898053</v>
       </c>
-      <c r="AS54">
-        <f t="shared" ref="AS54:AS57" si="43">AI5/AI17</f>
+      <c r="BQ51" s="82">
+        <f>AI5/AI17</f>
         <v>7.406071133680654</v>
       </c>
     </row>
-    <row r="55" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI55">
+    <row r="52" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL52" s="69">
         <f>$AI$36/AI12</f>
         <v>2.7004567696261063E-3</v>
       </c>
-      <c r="AK55">
-        <f t="shared" si="39"/>
+      <c r="BM52" s="70">
+        <f>AI30/AI12</f>
         <v>1.2846910426467717E-3</v>
       </c>
-      <c r="AM55">
-        <f t="shared" si="40"/>
+      <c r="BN52" s="71">
+        <f>AI24/AI12</f>
         <v>7.7161965669403582E-3</v>
       </c>
-      <c r="AO55">
-        <f t="shared" si="41"/>
+      <c r="BO52" s="82">
+        <f>AI18/AI12</f>
         <v>0.62968231969198019</v>
       </c>
-      <c r="AQ55">
-        <f t="shared" si="42"/>
+      <c r="BP52" s="83">
+        <f>AI12/AI18</f>
         <v>1.5881023950127218</v>
       </c>
-      <c r="AS55">
-        <f t="shared" si="43"/>
+      <c r="BQ52" s="82">
+        <f>AI6/AI18</f>
         <v>7.1980224023610671</v>
       </c>
-      <c r="AV55" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW55" s="40"/>
-      <c r="AX55" s="40"/>
-      <c r="AY55" s="40"/>
     </row>
-    <row r="56" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI56">
+    <row r="53" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL53" s="69">
         <f>$AI$37/AI13</f>
         <v>1.7821627700006391E-3</v>
       </c>
-      <c r="AK56">
-        <f t="shared" si="39"/>
+      <c r="BM53" s="70">
+        <f>AI31/AI13</f>
         <v>7.9561424728005802E-4</v>
       </c>
-      <c r="AM56">
-        <f t="shared" si="40"/>
+      <c r="BN53" s="71">
+        <f>AI25/AI13</f>
         <v>4.6422166019235269E-3</v>
       </c>
-      <c r="AO56">
-        <f t="shared" si="41"/>
+      <c r="BO53" s="82">
+        <f>AI19/AI13</f>
         <v>0.63883598024156951</v>
       </c>
-      <c r="AQ56">
-        <f t="shared" si="42"/>
+      <c r="BP53" s="83">
+        <f>AI13/AI19</f>
         <v>1.5653470232247406</v>
       </c>
-      <c r="AS56">
-        <f t="shared" si="43"/>
+      <c r="BQ53" s="82">
+        <f>AI7/AI19</f>
         <v>7.4891872009526663</v>
       </c>
-      <c r="AV56" s="40"/>
-      <c r="AW56" s="40"/>
-      <c r="AX56" s="40"/>
-      <c r="AY56" s="40"/>
     </row>
-    <row r="57" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI57">
+    <row r="54" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL54" s="69">
         <f>$AI$38/AI14</f>
         <v>1.2108933333524069E-3</v>
       </c>
-      <c r="AK57">
-        <f t="shared" si="39"/>
+      <c r="BM54" s="70">
+        <f>AI32/AI14</f>
         <v>5.4529728897877324E-4</v>
       </c>
-      <c r="AM57">
-        <f t="shared" si="40"/>
+      <c r="BN54" s="71">
+        <f>AI26/AI14</f>
         <v>3.0860874189699628E-3</v>
       </c>
-      <c r="AO57">
-        <f t="shared" si="41"/>
+      <c r="BO54" s="82">
+        <f>AI20/AI14</f>
         <v>0.60449243757300042</v>
       </c>
-      <c r="AQ57">
-        <f t="shared" si="42"/>
+      <c r="BP54" s="83">
+        <f>AI14/AI20</f>
         <v>1.6542804141850607</v>
       </c>
-      <c r="AS57">
-        <f t="shared" si="43"/>
+      <c r="BQ54" s="82">
+        <f>AI8/AI20</f>
         <v>7.6305177539244724</v>
       </c>
-      <c r="AV57" s="40"/>
-      <c r="AW57" s="40"/>
-      <c r="AX57" s="40"/>
-      <c r="AY57" s="40"/>
     </row>
-    <row r="58" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI58">
+    <row r="55" spans="48:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV55" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW55" s="58"/>
+      <c r="AX55" s="58"/>
+      <c r="AY55" s="58"/>
+      <c r="BL55" s="69">
         <f>$AI$39/AI15</f>
         <v>9.9325512058243549E-4</v>
       </c>
-      <c r="AK58">
-        <f t="shared" si="39"/>
+      <c r="BM55" s="70">
+        <f>AI33/AI15</f>
         <v>4.3585904320063076E-4</v>
       </c>
-      <c r="AM58">
-        <f t="shared" si="40"/>
+      <c r="BN55" s="71">
+        <f>AI27/AI15</f>
         <v>2.4228993435690682E-3</v>
       </c>
-      <c r="AO58">
-        <f t="shared" si="41"/>
+      <c r="BO55" s="82">
+        <f>AI21/AI15</f>
         <v>0.60405791981706947</v>
       </c>
-      <c r="AQ58">
-        <f t="shared" si="42"/>
+      <c r="BP55" s="83">
+        <f>AI15/AI21</f>
         <v>1.6554703898308893</v>
       </c>
-      <c r="AS58">
+      <c r="BQ55" s="82">
         <f>AI9/AI21</f>
         <v>7.4634895127569365</v>
       </c>
-      <c r="AV58" s="40"/>
-      <c r="AW58" s="40"/>
-      <c r="AX58" s="40"/>
-      <c r="AY58" s="40"/>
     </row>
-    <row r="59" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI59" t="s">
+    <row r="56" spans="48:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV56" s="58"/>
+      <c r="AW56" s="58"/>
+      <c r="AX56" s="58"/>
+      <c r="AY56" s="58"/>
+      <c r="BL56" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM56" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN56" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AK59" t="s">
+      <c r="BO56" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="AM59" t="s">
+      <c r="BP56" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="AO59" t="s">
+      <c r="BQ56" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="AQ59" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV59" s="40"/>
-      <c r="AW59" s="40"/>
-      <c r="AX59" s="40"/>
-      <c r="AY59" s="40"/>
     </row>
-    <row r="60" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI60">
+    <row r="57" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="AV57" s="58"/>
+      <c r="AW57" s="58"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+      <c r="BL57" s="69">
         <f>$AI$34/AI16</f>
         <v>1.3562429015005345E-2</v>
       </c>
-      <c r="AK60">
+      <c r="BM57" s="70">
         <f>AI28/AI16</f>
         <v>6.6490814651684084E-3</v>
       </c>
-      <c r="AM60">
+      <c r="BN57" s="71">
         <f>AI22/AI16</f>
         <v>4.8681674543527363E-2</v>
       </c>
-      <c r="AO60" s="33">
+      <c r="BO57" s="85">
         <f>AI16/AI22</f>
         <v>20.541610562427916</v>
       </c>
-      <c r="AQ60">
+      <c r="BP57" s="83">
         <f>AI10/AI22</f>
         <v>31.859764040207715</v>
       </c>
-      <c r="AS60">
+      <c r="BQ57" s="86">
         <f>AI4/AI22</f>
         <v>141.03457948165538</v>
       </c>
-      <c r="AV60" s="40"/>
-      <c r="AW60" s="40"/>
-      <c r="AX60" s="40"/>
-      <c r="AY60" s="40"/>
     </row>
-    <row r="61" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI61">
+    <row r="58" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="AV58" s="58"/>
+      <c r="AW58" s="58"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+      <c r="BL58" s="69">
         <f>$AI$35/AI17</f>
         <v>7.3342138605810257E-3</v>
       </c>
-      <c r="AK61">
-        <f t="shared" ref="AK61:AK65" si="44">AI29/AI17</f>
+      <c r="BM58" s="70">
+        <f>AI29/AI17</f>
         <v>3.5840216745465165E-3</v>
       </c>
-      <c r="AM61">
-        <f t="shared" ref="AM61:AM65" si="45">AI23/AI17</f>
+      <c r="BN58" s="71">
+        <f>AI23/AI17</f>
         <v>2.2405573904967363E-2</v>
       </c>
-      <c r="AO61">
-        <f t="shared" ref="AO61:AO65" si="46">AI17/AI23</f>
+      <c r="BO58" s="82">
+        <f>AI17/AI23</f>
         <v>44.631751199120046</v>
       </c>
-      <c r="AQ61">
-        <f t="shared" ref="AQ61:AQ65" si="47">AI11/AI23</f>
+      <c r="BP58" s="83">
+        <f>AI11/AI23</f>
         <v>69.86423211158025</v>
       </c>
-      <c r="AS61">
-        <f t="shared" ref="AS61:AS65" si="48">AI5/AI23</f>
+      <c r="BQ58" s="82">
+        <f>AI5/AI23</f>
         <v>330.54592420141995</v>
       </c>
-      <c r="AV61" s="40"/>
-      <c r="AW61" s="40"/>
-      <c r="AX61" s="40"/>
-      <c r="AY61" s="40"/>
     </row>
-    <row r="62" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI62">
+    <row r="59" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="AV59" s="58"/>
+      <c r="AW59" s="58"/>
+      <c r="AX59" s="58"/>
+      <c r="AY59" s="58"/>
+      <c r="BL59" s="69">
         <f>$AI$36/AI18</f>
         <v>4.2886018634715369E-3</v>
       </c>
-      <c r="AK62">
-        <f t="shared" si="44"/>
+      <c r="BM59" s="70">
+        <f>AI30/AI18</f>
         <v>2.0402209216787287E-3</v>
       </c>
-      <c r="AM62">
-        <f t="shared" si="45"/>
+      <c r="BN59" s="71">
+        <f>AI24/AI18</f>
         <v>1.2254110248346925E-2</v>
       </c>
-      <c r="AO62" s="32">
-        <f t="shared" si="46"/>
+      <c r="BO59" s="86">
+        <f>AI18/AI24</f>
         <v>81.605272005358344</v>
       </c>
-      <c r="AQ62">
-        <f t="shared" si="47"/>
+      <c r="BP59" s="83">
+        <f>AI12/AI24</f>
         <v>129.59752791737418</v>
       </c>
-      <c r="AS62">
-        <f t="shared" si="48"/>
+      <c r="BQ59" s="82">
+        <f>AI6/AI24</f>
         <v>587.39657604533772</v>
       </c>
-      <c r="AV62" s="40"/>
-      <c r="AW62" s="40"/>
-      <c r="AX62" s="40"/>
-      <c r="AY62" s="40"/>
     </row>
-    <row r="63" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI63">
+    <row r="60" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="AV60" s="58"/>
+      <c r="AW60" s="58"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="58"/>
+      <c r="BL60" s="69">
         <f>$AI$37/AI19</f>
         <v>2.7897031869224581E-3</v>
       </c>
-      <c r="AK63">
-        <f t="shared" si="44"/>
+      <c r="BM60" s="70">
+        <f>AI31/AI19</f>
         <v>1.2454123936150314E-3</v>
       </c>
-      <c r="AM63">
-        <f t="shared" si="45"/>
+      <c r="BN60" s="71">
+        <f>AI25/AI19</f>
         <v>7.266679938985463E-3</v>
       </c>
-      <c r="AO63">
-        <f t="shared" si="46"/>
+      <c r="BO60" s="82">
+        <f>AI19/AI25</f>
         <v>137.61442755102476</v>
       </c>
-      <c r="AQ63">
-        <f t="shared" si="47"/>
+      <c r="BP60" s="83">
+        <f>AI13/AI25</f>
         <v>215.41433451977332</v>
       </c>
-      <c r="AS63">
-        <f t="shared" si="48"/>
+      <c r="BQ60" s="82">
+        <f>AI7/AI25</f>
         <v>1030.6202094815626</v>
       </c>
-      <c r="AV63" s="40"/>
-      <c r="AW63" s="40"/>
-      <c r="AX63" s="40"/>
-      <c r="AY63" s="40"/>
     </row>
-    <row r="64" spans="35:51" x14ac:dyDescent="0.35">
-      <c r="AI64">
+    <row r="61" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="AV61" s="58"/>
+      <c r="AW61" s="58"/>
+      <c r="AX61" s="58"/>
+      <c r="AY61" s="58"/>
+      <c r="BL61" s="69">
         <f>$AI$38/AI20</f>
         <v>2.0031571250321485E-3</v>
       </c>
-      <c r="AK64">
-        <f t="shared" si="44"/>
+      <c r="BM61" s="70">
+        <f>AI32/AI20</f>
         <v>9.0207462506579567E-4</v>
       </c>
-      <c r="AM64">
-        <f t="shared" si="45"/>
+      <c r="BN61" s="71">
+        <f>AI26/AI20</f>
         <v>5.1052539736649348E-3</v>
       </c>
-      <c r="AO64">
-        <f t="shared" si="46"/>
+      <c r="BO61" s="82">
+        <f>AI20/AI26</f>
         <v>195.87664103655257</v>
       </c>
-      <c r="AQ64">
-        <f t="shared" si="47"/>
+      <c r="BP61" s="83">
+        <f>AI14/AI26</f>
         <v>324.03489086312663</v>
       </c>
-      <c r="AS64">
-        <f t="shared" si="48"/>
+      <c r="BQ61" s="82">
+        <f>AI8/AI26</f>
         <v>1494.6401870085053</v>
       </c>
     </row>
-    <row r="65" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI65">
+    <row r="62" spans="48:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV62" s="58"/>
+      <c r="AW62" s="58"/>
+      <c r="AX62" s="58"/>
+      <c r="AY62" s="58"/>
+      <c r="BL62" s="69">
         <f>$AI$39/AI21</f>
         <v>1.6443044416721315E-3</v>
       </c>
-      <c r="AK65">
-        <f t="shared" si="44"/>
+      <c r="BM62" s="70">
+        <f>AI33/AI21</f>
         <v>7.2155174015866663E-4</v>
       </c>
-      <c r="AM65">
-        <f t="shared" si="45"/>
+      <c r="BN62" s="71">
+        <f>AI27/AI21</f>
         <v>4.011038120819291E-3</v>
       </c>
-      <c r="AO65">
-        <f t="shared" si="46"/>
+      <c r="BO62" s="82">
+        <f>AI21/AI27</f>
         <v>249.31201596152891</v>
       </c>
-      <c r="AQ65">
-        <f t="shared" si="47"/>
+      <c r="BP62" s="83">
+        <f>AI15/AI27</f>
         <v>412.72866025335713</v>
       </c>
-      <c r="AS65">
-        <f t="shared" si="48"/>
+      <c r="BQ62" s="82">
+        <f>AI9/AI27</f>
         <v>1860.7376165331611</v>
       </c>
     </row>
-    <row r="66" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI66" t="s">
+    <row r="63" spans="48:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV63" s="58"/>
+      <c r="AW63" s="58"/>
+      <c r="AX63" s="58"/>
+      <c r="AY63" s="58"/>
+      <c r="BL63" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM63" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN63" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="AK66" t="s">
+      <c r="BO63" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="AM66" t="s">
+      <c r="BP63" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="AO66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS66" t="s">
+      <c r="BQ63" s="79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI67">
+    <row r="64" spans="48:69" x14ac:dyDescent="0.35">
+      <c r="BL64" s="81">
         <f>$AI$34/AI22</f>
         <v>0.27859413510681263</v>
       </c>
-      <c r="AK67">
+      <c r="BM64" s="82">
         <f>AI28/AI22</f>
         <v>0.13658284205534707</v>
       </c>
-      <c r="AM67" s="30">
+      <c r="BN64" s="87">
         <f>AI22/AI28</f>
         <v>7.3215638578876021</v>
       </c>
-      <c r="AO67">
+      <c r="BO64" s="82">
         <f>AI16/AI28</f>
         <v>150.39671347667448</v>
       </c>
-      <c r="AQ67">
+      <c r="BP64" s="83">
         <f>AI10/AI28</f>
         <v>233.26329691761191</v>
       </c>
-      <c r="AS67">
+      <c r="BQ64" s="82">
         <f>AI4/AI28</f>
         <v>1032.5936798452644</v>
       </c>
     </row>
-    <row r="68" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI68">
+    <row r="65" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL65" s="81">
         <f>$AI$35/AI23</f>
         <v>0.32733880826659006</v>
       </c>
-      <c r="AK68">
-        <f t="shared" ref="AK68:AK72" si="49">AI29/AI23</f>
+      <c r="BM65" s="82">
+        <f>AI29/AI23</f>
         <v>0.15996116367061375</v>
       </c>
-      <c r="AM68" s="30">
-        <f t="shared" ref="AM68:AM72" si="50">AI23/AI29</f>
+      <c r="BN65" s="87">
+        <f>AI23/AI29</f>
         <v>6.2515174124337074</v>
       </c>
-      <c r="AO68">
-        <f t="shared" ref="AO68:AO72" si="51">AI17/AI29</f>
+      <c r="BO65" s="82">
+        <f>AI17/AI29</f>
         <v>279.01616976870798</v>
       </c>
-      <c r="AQ68">
-        <f t="shared" ref="AQ68:AQ72" si="52">AI11/AI29</f>
+      <c r="BP65" s="83">
+        <f>AI11/AI29</f>
         <v>436.75746355185407</v>
       </c>
-      <c r="AS68">
-        <f t="shared" ref="AS68:AS72" si="53">AI5/AI29</f>
+      <c r="BQ65" s="82">
+        <f>AI5/AI29</f>
         <v>2066.4136007541692</v>
       </c>
     </row>
-    <row r="69" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI69">
+    <row r="66" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL66" s="81">
         <f>$AI$36/AI24</f>
         <v>0.34997252159128145</v>
       </c>
-      <c r="AK69">
-        <f t="shared" si="49"/>
+      <c r="BM66" s="82">
+        <f>AI30/AI24</f>
         <v>0.16649278326461553</v>
       </c>
-      <c r="AM69" s="30">
-        <f t="shared" si="50"/>
+      <c r="BN66" s="87">
+        <f>AI24/AI30</f>
         <v>6.0062663401491019</v>
       </c>
-      <c r="AO69">
-        <f t="shared" si="51"/>
+      <c r="BO66" s="82">
+        <f>AI18/AI30</f>
         <v>490.1429984244956</v>
       </c>
-      <c r="AQ69">
-        <f t="shared" si="52"/>
+      <c r="BP66" s="83">
+        <f>AI12/AI30</f>
         <v>778.3972696966581</v>
       </c>
-      <c r="AS69">
-        <f t="shared" si="53"/>
+      <c r="BQ66" s="82">
+        <f>AI6/AI30</f>
         <v>3528.0602830199446</v>
       </c>
     </row>
-    <row r="70" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI70">
+    <row r="67" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL67" s="81">
         <f>$AI$37/AI25</f>
         <v>0.3839034071056035</v>
       </c>
-      <c r="AK70">
-        <f t="shared" si="49"/>
+      <c r="BM67" s="82">
+        <f>AI31/AI25</f>
         <v>0.17138671361228405</v>
       </c>
-      <c r="AM70" s="30">
-        <f t="shared" si="50"/>
+      <c r="BN67" s="87">
+        <f>AI25/AI31</f>
         <v>5.8347580096682909</v>
       </c>
-      <c r="AO70">
-        <f t="shared" si="51"/>
+      <c r="BO67" s="82">
+        <f>AI19/AI31</f>
         <v>802.94688339925847</v>
       </c>
-      <c r="AQ70">
-        <f t="shared" si="52"/>
+      <c r="BP67" s="83">
+        <f>AI13/AI31</f>
         <v>1256.8905137366121</v>
       </c>
-      <c r="AS70">
-        <f t="shared" si="53"/>
+      <c r="BQ67" s="82">
+        <f>AI7/AI31</f>
         <v>6013.4195221985592</v>
       </c>
     </row>
-    <row r="71" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI71">
+    <row r="68" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL68" s="81">
         <f>$AI$38/AI26</f>
         <v>0.3923716891197348</v>
       </c>
-      <c r="AK71">
-        <f t="shared" si="49"/>
+      <c r="BM68" s="82">
+        <f>AI32/AI26</f>
         <v>0.17669534752219559</v>
       </c>
-      <c r="AM71" s="30">
-        <f t="shared" si="50"/>
+      <c r="BN68" s="87">
+        <f>AI26/AI32</f>
         <v>5.6594585767142789</v>
       </c>
-      <c r="AO71">
-        <f t="shared" si="51"/>
+      <c r="BO68" s="82">
+        <f>AI20/AI32</f>
         <v>1108.5557360923015</v>
       </c>
-      <c r="AQ71">
-        <f t="shared" si="52"/>
+      <c r="BP68" s="83">
+        <f>AI14/AI32</f>
         <v>1833.8620422499973</v>
       </c>
-      <c r="AS71">
-        <f t="shared" si="53"/>
+      <c r="BQ68" s="82">
+        <f>AI8/AI32</f>
         <v>8458.8542254671192</v>
       </c>
     </row>
-    <row r="72" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI72">
+    <row r="69" spans="64:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL69" s="81">
         <f>$AI$39/AI27</f>
         <v>0.40994485520777529</v>
       </c>
-      <c r="AK72">
-        <f t="shared" si="49"/>
+      <c r="BM69" s="82">
+        <f>AI33/AI27</f>
         <v>0.17989151895950645</v>
       </c>
-      <c r="AM72" s="30">
-        <f t="shared" si="50"/>
+      <c r="BN69" s="87">
+        <f>AI27/AI33</f>
         <v>5.5589057548905334</v>
       </c>
-      <c r="AO72">
-        <f t="shared" si="51"/>
+      <c r="BO69" s="82">
+        <f>AI21/AI33</f>
         <v>1385.9020002919037</v>
       </c>
-      <c r="AQ72">
-        <f t="shared" si="52"/>
+      <c r="BP69" s="83">
+        <f>AI15/AI33</f>
         <v>2294.319724690647</v>
       </c>
-      <c r="AS72">
-        <f t="shared" si="53"/>
+      <c r="BQ69" s="82">
+        <f>AI9/AI33</f>
         <v>10343.665044887484</v>
       </c>
     </row>
-    <row r="73" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI73" t="s">
+    <row r="70" spans="64:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL70" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM70" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN70" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AK73" t="s">
+      <c r="BO70" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AM73" t="s">
+      <c r="BP70" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AO73" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS73" t="s">
+      <c r="BQ70" s="79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI74" s="30">
+    <row r="71" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL71" s="88">
         <f>$AI$34/AI28</f>
         <v>2.0397447506174951</v>
       </c>
-      <c r="AK74">
+      <c r="BM71" s="82">
         <f>AI28/AI34</f>
         <v>0.4902574205411086</v>
       </c>
-      <c r="AM74">
+      <c r="BN71" s="83">
         <f>AI22/AI34</f>
         <v>3.5894510112949836</v>
       </c>
-      <c r="AO74">
+      <c r="BO71" s="82">
         <f>AI16/AI34</f>
         <v>73.733104806934605</v>
       </c>
-      <c r="AQ74" s="32">
+      <c r="BP71" s="89">
         <f>AI10/AI34</f>
         <v>114.35906225374313</v>
       </c>
-      <c r="AS74">
+      <c r="BQ71" s="82">
         <f>AI4/AI34</f>
         <v>506.23671394799061</v>
       </c>
     </row>
-    <row r="75" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI75" s="30">
+    <row r="72" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL72" s="88">
         <f>$AI$35/AI29</f>
         <v>2.0463642596438865</v>
       </c>
-      <c r="AK75">
-        <f t="shared" ref="AK75:AK79" si="54">AI29/AI35</f>
+      <c r="BM72" s="82">
+        <f>AI29/AI35</f>
         <v>0.48867155262671685</v>
       </c>
-      <c r="AM75">
-        <f t="shared" ref="AM75:AM79" si="55">AI23/AI35</f>
+      <c r="BN72" s="83">
+        <f>AI23/AI35</f>
         <v>3.0549387202069354</v>
       </c>
-      <c r="AO75">
-        <f t="shared" ref="AO75:AO79" si="56">AI17/AI35</f>
+      <c r="BO72" s="82">
+        <f>AI17/AI35</f>
         <v>136.34726488883416</v>
       </c>
-      <c r="AQ75">
-        <f t="shared" ref="AQ75:AQ79" si="57">AI11/AI35</f>
+      <c r="BP72" s="83">
+        <f>AI11/AI35</f>
         <v>213.43094783519123</v>
       </c>
-      <c r="AS75">
-        <f t="shared" ref="AS75:AS79" si="58">AI5/AI35</f>
+      <c r="BQ72" s="82">
+        <f>AI5/AI35</f>
         <v>1009.7975426495044</v>
       </c>
     </row>
-    <row r="76" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI76" s="30">
+    <row r="73" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL73" s="88">
         <f>$AI$36/AI30</f>
         <v>2.1020281764108186</v>
       </c>
-      <c r="AK76">
-        <f t="shared" si="54"/>
+      <c r="BM73" s="82">
+        <f>AI30/AI36</f>
         <v>0.47573101598832274</v>
       </c>
-      <c r="AM76">
-        <f t="shared" si="55"/>
+      <c r="BN73" s="83">
+        <f>AI24/AI36</f>
         <v>2.8573671882955969</v>
       </c>
-      <c r="AO76">
-        <f t="shared" si="56"/>
+      <c r="BO73" s="82">
+        <f>AI18/AI36</f>
         <v>233.17622662004817</v>
       </c>
-      <c r="AQ76">
-        <f t="shared" si="57"/>
+      <c r="BP73" s="83">
+        <f>AI12/AI36</f>
         <v>370.30772395532762</v>
       </c>
-      <c r="AS76">
-        <f t="shared" si="58"/>
+      <c r="BQ73" s="82">
+        <f>AI6/AI36</f>
         <v>1678.4077029091275</v>
       </c>
     </row>
-    <row r="77" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI77" s="30">
+    <row r="74" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL74" s="88">
         <f>$AI$37/AI31</f>
         <v>2.2399834795483669</v>
       </c>
-      <c r="AK77">
-        <f t="shared" si="54"/>
+      <c r="BM74" s="82">
+        <f>AI31/AI37</f>
         <v>0.44643186395357853</v>
       </c>
-      <c r="AM77">
-        <f t="shared" si="55"/>
+      <c r="BN74" s="83">
+        <f>AI25/AI37</f>
         <v>2.6048218939742873</v>
       </c>
-      <c r="AO77">
-        <f t="shared" si="56"/>
+      <c r="BO74" s="82">
+        <f>AI19/AI37</f>
         <v>358.46107381164762</v>
       </c>
-      <c r="AQ77">
-        <f t="shared" si="57"/>
+      <c r="BP74" s="83">
+        <f>AI13/AI37</f>
         <v>561.1159748330067</v>
       </c>
-      <c r="AS77">
-        <f t="shared" si="58"/>
+      <c r="BQ74" s="82">
+        <f>AI7/AI37</f>
         <v>2684.5820860299405</v>
       </c>
     </row>
-    <row r="78" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI78" s="30">
+    <row r="75" spans="64:69" x14ac:dyDescent="0.35">
+      <c r="BL75" s="88">
         <f>$AI$38/AI32</f>
         <v>2.2206113212485517</v>
       </c>
-      <c r="AK78">
-        <f t="shared" si="54"/>
+      <c r="BM75" s="82">
+        <f>AI32/AI38</f>
         <v>0.45032644408826311</v>
       </c>
-      <c r="AM78">
-        <f t="shared" si="55"/>
+      <c r="BN75" s="83">
+        <f>AI26/AI38</f>
         <v>2.5486038563165638</v>
       </c>
-      <c r="AO78">
-        <f t="shared" si="56"/>
+      <c r="BO75" s="82">
+        <f>AI20/AI38</f>
         <v>499.21196270809315</v>
       </c>
-      <c r="AQ78">
-        <f t="shared" si="57"/>
+      <c r="BP75" s="83">
+        <f>AI14/AI38</f>
         <v>825.83657243488142</v>
       </c>
-      <c r="AS78">
-        <f t="shared" si="58"/>
+      <c r="BQ75" s="82">
+        <f>AI8/AI38</f>
         <v>3809.2457444155866</v>
       </c>
     </row>
-    <row r="79" spans="35:45" x14ac:dyDescent="0.35">
-      <c r="AI79" s="30">
+    <row r="76" spans="64:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BL76" s="90">
         <f>$AI$39/AI33</f>
         <v>2.2788448148022686</v>
       </c>
-      <c r="AK79">
-        <f t="shared" si="54"/>
+      <c r="BM76" s="91">
+        <f>AI33/AI39</f>
         <v>0.43881882324960692</v>
       </c>
-      <c r="AM79">
-        <f t="shared" si="55"/>
+      <c r="BN76" s="92">
+        <f>AI27/AI39</f>
         <v>2.439352481916532</v>
       </c>
-      <c r="AO79">
-        <f t="shared" si="56"/>
+      <c r="BO76" s="91">
+        <f>AI21/AI39</f>
         <v>608.15988490736959</v>
       </c>
-      <c r="AQ79">
-        <f t="shared" si="57"/>
+      <c r="BP76" s="92">
+        <f>AI15/AI39</f>
         <v>1006.7906817471119</v>
       </c>
-      <c r="AS79">
-        <f t="shared" si="58"/>
+      <c r="BQ76" s="91">
+        <f>AI9/AI39</f>
         <v>4538.9949230856182</v>
       </c>
     </row>
     <row r="85" spans="41:41" x14ac:dyDescent="0.35">
       <c r="AO85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO86" s="31">
+      <c r="AO86" s="30">
         <f>AO34/LOG(C34, 2)</f>
         <v>7.0631991928678879E-5</v>
       </c>
     </row>
     <row r="87" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO87" s="31">
-        <f t="shared" ref="AO87:AO91" si="59">AO35/LOG(C35, 2)</f>
+      <c r="AO87" s="30">
+        <f>AO35/LOG(C35, 2)</f>
         <v>1.377693878155776E-4</v>
       </c>
     </row>
     <row r="88" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO88" s="31">
-        <f t="shared" si="59"/>
+      <c r="AO88" s="30">
+        <f>AO36/LOG(C36, 2)</f>
         <v>2.3395654113913096E-4</v>
       </c>
     </row>
     <row r="89" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO89" s="31">
-        <f t="shared" si="59"/>
+      <c r="AO89" s="30">
+        <f>AO37/LOG(C37, 2)</f>
         <v>3.9732991205526619E-4</v>
       </c>
     </row>
     <row r="90" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO90" s="31">
-        <f t="shared" si="59"/>
+      <c r="AO90" s="30">
+        <f>AO38/LOG(C38, 2)</f>
         <v>5.4442657924767943E-4</v>
       </c>
     </row>
     <row r="91" spans="41:41" x14ac:dyDescent="0.35">
-      <c r="AO91" s="31">
-        <f t="shared" si="59"/>
+      <c r="AO91" s="30">
+        <f>AO39/LOG(C39, 2)</f>
         <v>7.266509839790635E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="BE27:BF32"/>
-    <mergeCell ref="BA33:BB38"/>
-    <mergeCell ref="BC33:BD38"/>
-    <mergeCell ref="BE33:BF38"/>
-    <mergeCell ref="BE3:BF8"/>
-    <mergeCell ref="BC9:BD14"/>
-    <mergeCell ref="BE9:BF14"/>
-    <mergeCell ref="BC15:BD20"/>
-    <mergeCell ref="BE15:BF20"/>
-    <mergeCell ref="BC21:BD26"/>
-    <mergeCell ref="BE21:BF26"/>
-    <mergeCell ref="BC27:BD32"/>
-    <mergeCell ref="BC3:BD8"/>
-    <mergeCell ref="AY33:AZ38"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AY9:AZ14"/>
-    <mergeCell ref="AY15:AZ20"/>
-    <mergeCell ref="AY21:AZ26"/>
-    <mergeCell ref="AY27:AZ32"/>
-    <mergeCell ref="BA9:BB14"/>
-    <mergeCell ref="BA15:BB20"/>
-    <mergeCell ref="BA21:BB26"/>
-    <mergeCell ref="BA27:BB32"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AY1:BD1"/>
-    <mergeCell ref="BE1:BF2"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AC28:AC33"/>
-    <mergeCell ref="AC34:AC39"/>
-    <mergeCell ref="AC4:AC9"/>
-    <mergeCell ref="AC10:AC15"/>
-    <mergeCell ref="AC16:AC21"/>
+  <mergeCells count="75">
+    <mergeCell ref="AV55:AY63"/>
+    <mergeCell ref="BL40:BQ41"/>
+    <mergeCell ref="BG3:BH8"/>
+    <mergeCell ref="BG1:BH2"/>
+    <mergeCell ref="BG33:BH38"/>
+    <mergeCell ref="BG27:BH32"/>
+    <mergeCell ref="BG21:BH26"/>
+    <mergeCell ref="BG15:BH20"/>
+    <mergeCell ref="BG9:BH14"/>
+    <mergeCell ref="AX21:AX26"/>
+    <mergeCell ref="AX27:AX32"/>
+    <mergeCell ref="AX33:AX38"/>
+    <mergeCell ref="AX3:AX8"/>
+    <mergeCell ref="AX9:AX14"/>
+    <mergeCell ref="AX15:AX20"/>
+    <mergeCell ref="AY3:AZ8"/>
+    <mergeCell ref="BA3:BB8"/>
+    <mergeCell ref="BI27:BI32"/>
+    <mergeCell ref="BI33:BI38"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BI3:BI8"/>
+    <mergeCell ref="BI9:BI14"/>
+    <mergeCell ref="BI15:BI20"/>
+    <mergeCell ref="BI21:BI26"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:T2"/>
@@ -21180,29 +21279,42 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
-    <mergeCell ref="BI27:BI32"/>
-    <mergeCell ref="BI33:BI38"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BI3:BI8"/>
-    <mergeCell ref="BI9:BI14"/>
-    <mergeCell ref="BI15:BI20"/>
-    <mergeCell ref="BI21:BI26"/>
-    <mergeCell ref="BG3:BH8"/>
-    <mergeCell ref="BG1:BH2"/>
-    <mergeCell ref="AV55:AY63"/>
-    <mergeCell ref="BG33:BH38"/>
-    <mergeCell ref="BG27:BH32"/>
-    <mergeCell ref="BG21:BH26"/>
-    <mergeCell ref="BG15:BH20"/>
-    <mergeCell ref="BG9:BH14"/>
-    <mergeCell ref="AX21:AX26"/>
-    <mergeCell ref="AX27:AX32"/>
-    <mergeCell ref="AX33:AX38"/>
-    <mergeCell ref="AX3:AX8"/>
-    <mergeCell ref="AX9:AX14"/>
-    <mergeCell ref="AX15:AX20"/>
-    <mergeCell ref="AY3:AZ8"/>
-    <mergeCell ref="BA3:BB8"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AC28:AC33"/>
+    <mergeCell ref="AC34:AC39"/>
+    <mergeCell ref="AC4:AC9"/>
+    <mergeCell ref="AC10:AC15"/>
+    <mergeCell ref="AC16:AC21"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AP2:AU2"/>
+    <mergeCell ref="AY1:BD1"/>
+    <mergeCell ref="BE1:BF2"/>
+    <mergeCell ref="AY33:AZ38"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AY9:AZ14"/>
+    <mergeCell ref="AY15:AZ20"/>
+    <mergeCell ref="AY21:AZ26"/>
+    <mergeCell ref="AY27:AZ32"/>
+    <mergeCell ref="BA9:BB14"/>
+    <mergeCell ref="BA15:BB20"/>
+    <mergeCell ref="BA21:BB26"/>
+    <mergeCell ref="BA27:BB32"/>
+    <mergeCell ref="BE27:BF32"/>
+    <mergeCell ref="BA33:BB38"/>
+    <mergeCell ref="BC33:BD38"/>
+    <mergeCell ref="BE33:BF38"/>
+    <mergeCell ref="BE3:BF8"/>
+    <mergeCell ref="BC9:BD14"/>
+    <mergeCell ref="BE9:BF14"/>
+    <mergeCell ref="BC15:BD20"/>
+    <mergeCell ref="BE15:BF20"/>
+    <mergeCell ref="BC21:BD26"/>
+    <mergeCell ref="BE21:BF26"/>
+    <mergeCell ref="BC27:BD32"/>
+    <mergeCell ref="BC3:BD8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/Empirical Data.xlsx
+++ b/Report/Empirical Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030AD3E8-34A2-4D4A-84AE-36876ECDDB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618508A-9EC7-4CE2-A0F7-6521F2C08C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,23 +622,6 @@
   </si>
   <si>
     <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Shell/log</t>
     </r>
     <r>
@@ -769,6 +752,9 @@
       <t>n</t>
     </r>
   </si>
+  <si>
+    <t>% Error</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +773,7 @@
     <numFmt numFmtId="172" formatCode="_(* #,##0.000000000_);_(* \(#,##0.000000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,15 +861,6 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1371,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1764,31 +1741,181 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1800,13 +1927,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1830,158 +1951,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16605,8 +16587,8 @@
   </sheetPr>
   <dimension ref="A1:DF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ33" sqref="AY1:BJ38"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CX14" sqref="CT7:CX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16657,8 +16639,8 @@
     <col min="98" max="98" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="9.1796875" customWidth="1"/>
     <col min="100" max="100" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.1796875" style="206" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="6.08984375" customWidth="1"/>
     <col min="106" max="106" width="5.81640625" customWidth="1"/>
     <col min="107" max="107" width="6.54296875" customWidth="1"/>
@@ -16668,121 +16650,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AE1" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="146"/>
-      <c r="AO1" s="146"/>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="146"/>
-      <c r="AT1" s="146"/>
-      <c r="AU1" s="146"/>
-      <c r="AV1" s="147"/>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="142" t="s">
+      <c r="AE1" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="196"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="196"/>
+      <c r="AO1" s="196"/>
+      <c r="AP1" s="196"/>
+      <c r="AQ1" s="196"/>
+      <c r="AR1" s="196"/>
+      <c r="AS1" s="196"/>
+      <c r="AT1" s="196"/>
+      <c r="AU1" s="196"/>
+      <c r="AV1" s="197"/>
+      <c r="AY1" s="139"/>
+      <c r="AZ1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="144"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="185"/>
       <c r="BF1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="BG1" s="150"/>
+      <c r="BG1" s="157"/>
       <c r="BH1" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="BI1" s="150"/>
-      <c r="BJ1" s="182" t="s">
+      <c r="BI1" s="157"/>
+      <c r="BJ1" s="169" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="178" t="s">
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="178" t="s">
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="180"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="176"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="142" t="s">
+      <c r="AE2" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="142" t="s">
+      <c r="AF2" s="191"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="142" t="s">
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="191"/>
+      <c r="AN2" s="191"/>
+      <c r="AO2" s="191"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="144"/>
+      <c r="AR2" s="191"/>
+      <c r="AS2" s="191"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="191"/>
+      <c r="AV2" s="185"/>
       <c r="AY2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="160" t="s">
+      <c r="AZ2" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" s="207"/>
-      <c r="BB2" s="142" t="s">
+      <c r="BA2" s="183"/>
+      <c r="BB2" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="144"/>
-      <c r="BD2" s="207" t="s">
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="BE2" s="161"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="161"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="161"/>
-      <c r="BJ2" s="183"/>
+      <c r="BE2" s="158"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="158"/>
+      <c r="BH2" s="150"/>
+      <c r="BI2" s="158"/>
+      <c r="BJ2" s="170"/>
       <c r="CJ2" t="s">
         <v>115</v>
       </c>
@@ -16938,27 +16920,27 @@
       <c r="AY3" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="185" t="s">
+      <c r="AZ3" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="BA3" s="169"/>
-      <c r="BB3" s="168" t="s">
+      <c r="BA3" s="152"/>
+      <c r="BB3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BC3" s="169"/>
-      <c r="BD3" s="168" t="s">
+      <c r="BC3" s="152"/>
+      <c r="BD3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BE3" s="169"/>
-      <c r="BF3" s="189" t="s">
+      <c r="BE3" s="152"/>
+      <c r="BF3" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="169"/>
-      <c r="BH3" s="192" t="s">
+      <c r="BG3" s="152"/>
+      <c r="BH3" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="BI3" s="169"/>
-      <c r="BJ3" s="186" t="s">
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="166" t="s">
         <v>32</v>
       </c>
       <c r="CJ3">
@@ -16972,10 +16954,10 @@
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="181" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="10">
@@ -17056,7 +17038,7 @@
       <c r="AA4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="182" t="s">
+      <c r="AC4" s="169" t="s">
         <v>74</v>
       </c>
       <c r="AD4" s="125">
@@ -17119,18 +17101,18 @@
         <f>AVERAGE(AQ4:AU4)</f>
         <v>2.1795882600000001</v>
       </c>
-      <c r="AY4" s="158"/>
-      <c r="AZ4" s="170"/>
-      <c r="BA4" s="171"/>
-      <c r="BB4" s="170"/>
-      <c r="BC4" s="171"/>
-      <c r="BD4" s="170"/>
-      <c r="BE4" s="171"/>
-      <c r="BF4" s="190"/>
-      <c r="BG4" s="171"/>
-      <c r="BH4" s="170"/>
-      <c r="BI4" s="171"/>
-      <c r="BJ4" s="187"/>
+      <c r="AY4" s="149"/>
+      <c r="AZ4" s="153"/>
+      <c r="BA4" s="154"/>
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="154"/>
+      <c r="BD4" s="153"/>
+      <c r="BE4" s="154"/>
+      <c r="BF4" s="172"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="153"/>
+      <c r="BI4" s="154"/>
+      <c r="BJ4" s="167"/>
       <c r="CJ4" t="s">
         <v>111</v>
       </c>
@@ -17142,8 +17124,8 @@
       </c>
     </row>
     <row r="5" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="170"/>
-      <c r="B5" s="176"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="5">
         <v>100000</v>
       </c>
@@ -17228,7 +17210,7 @@
         <f>Z5/Z4</f>
         <v>3.9995570447787228</v>
       </c>
-      <c r="AC5" s="183"/>
+      <c r="AC5" s="170"/>
       <c r="AD5" s="126">
         <v>100000</v>
       </c>
@@ -17289,18 +17271,18 @@
         <f t="shared" ref="AV5:AV39" si="5">AVERAGE(AQ5:AU5)</f>
         <v>8.7173875799999987</v>
       </c>
-      <c r="AY5" s="158"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="171"/>
-      <c r="BB5" s="170"/>
-      <c r="BC5" s="171"/>
-      <c r="BD5" s="170"/>
-      <c r="BE5" s="171"/>
-      <c r="BF5" s="190"/>
-      <c r="BG5" s="171"/>
-      <c r="BH5" s="170"/>
-      <c r="BI5" s="171"/>
-      <c r="BJ5" s="187"/>
+      <c r="AY5" s="149"/>
+      <c r="AZ5" s="153"/>
+      <c r="BA5" s="154"/>
+      <c r="BB5" s="153"/>
+      <c r="BC5" s="154"/>
+      <c r="BD5" s="153"/>
+      <c r="BE5" s="154"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="154"/>
+      <c r="BH5" s="153"/>
+      <c r="BI5" s="154"/>
+      <c r="BJ5" s="167"/>
       <c r="CJ5">
         <v>0.9614096982514736</v>
       </c>
@@ -17312,8 +17294,8 @@
       </c>
     </row>
     <row r="6" spans="1:110" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="170"/>
-      <c r="B6" s="176"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="5">
         <v>175000</v>
       </c>
@@ -17398,7 +17380,7 @@
         <f t="shared" ref="AA6:AA9" si="10">Z6/Z5</f>
         <v>3.0337699267467926</v>
       </c>
-      <c r="AC6" s="183"/>
+      <c r="AC6" s="170"/>
       <c r="AD6" s="126">
         <v>175000</v>
       </c>
@@ -17459,48 +17441,48 @@
         <f t="shared" si="5"/>
         <v>26.446548279999995</v>
       </c>
-      <c r="AY6" s="158"/>
-      <c r="AZ6" s="170"/>
-      <c r="BA6" s="171"/>
-      <c r="BB6" s="170"/>
-      <c r="BC6" s="171"/>
-      <c r="BD6" s="170"/>
-      <c r="BE6" s="171"/>
-      <c r="BF6" s="190"/>
-      <c r="BG6" s="171"/>
-      <c r="BH6" s="170"/>
-      <c r="BI6" s="171"/>
-      <c r="BJ6" s="187"/>
-      <c r="CG6" s="199"/>
-      <c r="CH6" s="199"/>
-      <c r="CI6" s="199"/>
-      <c r="CJ6" s="199" t="s">
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="153"/>
+      <c r="BA6" s="154"/>
+      <c r="BB6" s="153"/>
+      <c r="BC6" s="154"/>
+      <c r="BD6" s="153"/>
+      <c r="BE6" s="154"/>
+      <c r="BF6" s="172"/>
+      <c r="BG6" s="154"/>
+      <c r="BH6" s="153"/>
+      <c r="BI6" s="154"/>
+      <c r="BJ6" s="167"/>
+      <c r="CG6" s="147"/>
+      <c r="CH6" s="147"/>
+      <c r="CI6" s="147"/>
+      <c r="CJ6" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="CK6" s="199"/>
-      <c r="CL6" s="199"/>
-      <c r="CM6" s="199" t="s">
+      <c r="CK6" s="147"/>
+      <c r="CL6" s="147"/>
+      <c r="CM6" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="CN6" s="199"/>
-      <c r="CO6" s="199"/>
-      <c r="CP6" s="199" t="s">
+      <c r="CN6" s="147"/>
+      <c r="CO6" s="147"/>
+      <c r="CP6" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="CQ6" s="199"/>
-      <c r="CR6" s="199"/>
+      <c r="CQ6" s="147"/>
+      <c r="CR6" s="147"/>
       <c r="DA6" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="DB6" s="149"/>
-      <c r="DC6" s="149"/>
-      <c r="DD6" s="149"/>
-      <c r="DE6" s="149"/>
-      <c r="DF6" s="150"/>
+        <v>126</v>
+      </c>
+      <c r="DB6" s="198"/>
+      <c r="DC6" s="198"/>
+      <c r="DD6" s="198"/>
+      <c r="DE6" s="198"/>
+      <c r="DF6" s="157"/>
     </row>
     <row r="7" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="170"/>
-      <c r="B7" s="176"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="5">
         <v>300000</v>
       </c>
@@ -17585,7 +17567,7 @@
         <f t="shared" si="10"/>
         <v>3.0714327427533772</v>
       </c>
-      <c r="AC7" s="183"/>
+      <c r="AC7" s="170"/>
       <c r="AD7" s="126">
         <v>300000</v>
       </c>
@@ -17646,18 +17628,18 @@
         <f t="shared" si="5"/>
         <v>81.228794319999992</v>
       </c>
-      <c r="AY7" s="158"/>
-      <c r="AZ7" s="170"/>
-      <c r="BA7" s="171"/>
-      <c r="BB7" s="170"/>
-      <c r="BC7" s="171"/>
-      <c r="BD7" s="170"/>
-      <c r="BE7" s="171"/>
-      <c r="BF7" s="190"/>
-      <c r="BG7" s="171"/>
-      <c r="BH7" s="170"/>
-      <c r="BI7" s="171"/>
-      <c r="BJ7" s="187"/>
+      <c r="AY7" s="149"/>
+      <c r="AZ7" s="153"/>
+      <c r="BA7" s="154"/>
+      <c r="BB7" s="153"/>
+      <c r="BC7" s="154"/>
+      <c r="BD7" s="153"/>
+      <c r="BE7" s="154"/>
+      <c r="BF7" s="172"/>
+      <c r="BG7" s="154"/>
+      <c r="BH7" s="153"/>
+      <c r="BI7" s="154"/>
+      <c r="BJ7" s="167"/>
       <c r="CI7" s="8" t="s">
         <v>7</v>
       </c>
@@ -17688,27 +17670,27 @@
       <c r="CR7" t="s">
         <v>113</v>
       </c>
-      <c r="CU7" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="CV7" s="143"/>
-      <c r="CW7" s="144"/>
-      <c r="DA7" s="142" t="s">
+      <c r="CU7" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV7" s="191"/>
+      <c r="CW7" s="185"/>
+      <c r="DA7" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="DB7" s="144"/>
-      <c r="DC7" s="142" t="s">
+      <c r="DB7" s="185"/>
+      <c r="DC7" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="DD7" s="144"/>
-      <c r="DE7" s="142" t="s">
+      <c r="DD7" s="185"/>
+      <c r="DE7" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="DF7" s="144"/>
+      <c r="DF7" s="185"/>
     </row>
     <row r="8" spans="1:110" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="170"/>
-      <c r="B8" s="176"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="5">
         <v>425000</v>
       </c>
@@ -17793,7 +17775,7 @@
         <f t="shared" si="10"/>
         <v>1.963418614730462</v>
       </c>
-      <c r="AC8" s="183"/>
+      <c r="AC8" s="170"/>
       <c r="AD8" s="126">
         <v>425000</v>
       </c>
@@ -17854,18 +17836,18 @@
         <f t="shared" si="5"/>
         <v>159.48612682000001</v>
       </c>
-      <c r="AY8" s="160"/>
-      <c r="AZ8" s="172"/>
-      <c r="BA8" s="173"/>
-      <c r="BB8" s="172"/>
-      <c r="BC8" s="173"/>
-      <c r="BD8" s="172"/>
-      <c r="BE8" s="173"/>
-      <c r="BF8" s="191"/>
-      <c r="BG8" s="173"/>
-      <c r="BH8" s="172"/>
-      <c r="BI8" s="173"/>
-      <c r="BJ8" s="188"/>
+      <c r="AY8" s="150"/>
+      <c r="AZ8" s="155"/>
+      <c r="BA8" s="156"/>
+      <c r="BB8" s="155"/>
+      <c r="BC8" s="156"/>
+      <c r="BD8" s="155"/>
+      <c r="BE8" s="156"/>
+      <c r="BF8" s="173"/>
+      <c r="BG8" s="156"/>
+      <c r="BH8" s="155"/>
+      <c r="BI8" s="156"/>
+      <c r="BJ8" s="168"/>
       <c r="CG8" s="118"/>
       <c r="CH8" s="118"/>
       <c r="CI8" s="10">
@@ -17914,36 +17896,36 @@
         <v>121</v>
       </c>
       <c r="CV8" s="104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CW8" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="CX8" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="CZ8" s="141" t="s">
-        <v>126</v>
-      </c>
-      <c r="DA8" s="151">
+      <c r="CX8" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ8" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA8" s="199">
         <f>CJ5*CJ3</f>
         <v>2.4337746375311883E-8</v>
       </c>
-      <c r="DB8" s="152"/>
-      <c r="DC8" s="151">
+      <c r="DB8" s="200"/>
+      <c r="DC8" s="199">
         <f>CM5*CM3</f>
         <v>1.2313228334184902E-9</v>
       </c>
-      <c r="DD8" s="155"/>
-      <c r="DE8" s="156">
+      <c r="DD8" s="203"/>
+      <c r="DE8" s="204">
         <f>CP5*CP3</f>
         <v>1.3115219541798144E-9</v>
       </c>
-      <c r="DF8" s="155"/>
+      <c r="DF8" s="203"/>
     </row>
     <row r="9" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="172"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="6">
         <v>550000</v>
       </c>
@@ -18028,7 +18010,7 @@
         <f t="shared" si="10"/>
         <v>1.6478172919492053</v>
       </c>
-      <c r="AC9" s="184"/>
+      <c r="AC9" s="180"/>
       <c r="AD9" s="127">
         <v>550000</v>
       </c>
@@ -18089,30 +18071,30 @@
         <f t="shared" si="5"/>
         <v>262.80399759999995</v>
       </c>
-      <c r="AY9" s="158" t="s">
+      <c r="AY9" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="AZ9" s="168" t="s">
+      <c r="AZ9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BA9" s="169"/>
-      <c r="BB9" s="168" t="s">
+      <c r="BA9" s="152"/>
+      <c r="BB9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BC9" s="169"/>
-      <c r="BD9" s="168" t="s">
+      <c r="BC9" s="152"/>
+      <c r="BD9" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BE9" s="169"/>
-      <c r="BF9" s="189" t="s">
+      <c r="BE9" s="152"/>
+      <c r="BF9" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="BG9" s="169"/>
-      <c r="BH9" s="174" t="s">
+      <c r="BG9" s="152"/>
+      <c r="BH9" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="BI9" s="169"/>
-      <c r="BJ9" s="186" t="s">
+      <c r="BI9" s="152"/>
+      <c r="BJ9" s="166" t="s">
         <v>33</v>
       </c>
       <c r="CG9" s="118"/>
@@ -18171,31 +18153,31 @@
         <f>AP16</f>
         <v>9.8480000000000006E-5</v>
       </c>
-      <c r="CX9" s="136">
-        <f>(CW9-CV9)^2</f>
-        <v>7.7551155354036665E-10</v>
+      <c r="CX9" s="208">
+        <f>(ABS(CW9-CV9)/CW9)*100</f>
+        <v>28.277831104103495</v>
       </c>
       <c r="CZ9" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="DA9" s="153">
+        <v>123</v>
+      </c>
+      <c r="DA9" s="201">
         <v>2.2260016807825204E-4</v>
       </c>
-      <c r="DB9" s="154"/>
-      <c r="DC9" s="153">
+      <c r="DB9" s="202"/>
+      <c r="DC9" s="201">
         <v>1.3509744137860583E-6</v>
       </c>
-      <c r="DD9" s="157"/>
-      <c r="DE9" s="154">
+      <c r="DD9" s="205"/>
+      <c r="DE9" s="202">
         <v>9.8332985830954472E-8</v>
       </c>
-      <c r="DF9" s="157"/>
+      <c r="DF9" s="205"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="181" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="10">
@@ -18276,7 +18258,7 @@
       <c r="AA10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" s="183" t="s">
+      <c r="AC10" s="170" t="s">
         <v>75</v>
       </c>
       <c r="AD10" s="125">
@@ -18339,18 +18321,18 @@
         <f t="shared" si="5"/>
         <v>0.8840920000000001</v>
       </c>
-      <c r="AY10" s="158"/>
-      <c r="AZ10" s="170"/>
-      <c r="BA10" s="171"/>
-      <c r="BB10" s="170"/>
-      <c r="BC10" s="171"/>
-      <c r="BD10" s="170"/>
-      <c r="BE10" s="171"/>
-      <c r="BF10" s="190"/>
-      <c r="BG10" s="171"/>
-      <c r="BH10" s="170"/>
-      <c r="BI10" s="171"/>
-      <c r="BJ10" s="187"/>
+      <c r="AY10" s="149"/>
+      <c r="AZ10" s="153"/>
+      <c r="BA10" s="154"/>
+      <c r="BB10" s="153"/>
+      <c r="BC10" s="154"/>
+      <c r="BD10" s="153"/>
+      <c r="BE10" s="154"/>
+      <c r="BF10" s="172"/>
+      <c r="BG10" s="154"/>
+      <c r="BH10" s="153"/>
+      <c r="BI10" s="154"/>
+      <c r="BJ10" s="167"/>
       <c r="CG10" s="118"/>
       <c r="CH10" s="118"/>
       <c r="CI10" s="5">
@@ -18403,18 +18385,18 @@
         <f t="shared" si="20"/>
         <v>1.377693878155776E-4</v>
       </c>
-      <c r="CW10" s="137">
+      <c r="CW10" s="136">
         <f t="shared" ref="CW10:CW14" si="22">AP17</f>
         <v>1.4724000000000001E-4</v>
       </c>
-      <c r="CX10" s="138">
-        <f t="shared" ref="CX10:CX14" si="23">(CW10-CV10)^2</f>
-        <v>8.9692495147730142E-11</v>
+      <c r="CX10" s="211">
+        <f t="shared" ref="CX10:CX13" si="23">(ABS(CW10-CV10)/CW10)*100</f>
+        <v>6.4320919481271428</v>
       </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A11" s="170"/>
-      <c r="B11" s="176"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="5">
         <v>100000</v>
       </c>
@@ -18499,7 +18481,7 @@
         <f>Z11/Z10</f>
         <v>4.0183193604285528</v>
       </c>
-      <c r="AC11" s="183"/>
+      <c r="AC11" s="170"/>
       <c r="AD11" s="126">
         <v>100000</v>
       </c>
@@ -18560,18 +18542,18 @@
         <f t="shared" si="5"/>
         <v>3.5525640000000003</v>
       </c>
-      <c r="AY11" s="158"/>
-      <c r="AZ11" s="170"/>
-      <c r="BA11" s="171"/>
-      <c r="BB11" s="170"/>
-      <c r="BC11" s="171"/>
-      <c r="BD11" s="170"/>
-      <c r="BE11" s="171"/>
-      <c r="BF11" s="190"/>
-      <c r="BG11" s="171"/>
-      <c r="BH11" s="170"/>
-      <c r="BI11" s="171"/>
-      <c r="BJ11" s="187"/>
+      <c r="AY11" s="149"/>
+      <c r="AZ11" s="153"/>
+      <c r="BA11" s="154"/>
+      <c r="BB11" s="153"/>
+      <c r="BC11" s="154"/>
+      <c r="BD11" s="153"/>
+      <c r="BE11" s="154"/>
+      <c r="BF11" s="172"/>
+      <c r="BG11" s="154"/>
+      <c r="BH11" s="153"/>
+      <c r="BI11" s="154"/>
+      <c r="BJ11" s="167"/>
       <c r="CG11" s="118"/>
       <c r="CH11" s="118"/>
       <c r="CI11" s="5">
@@ -18624,18 +18606,18 @@
         <f t="shared" si="20"/>
         <v>2.3395654113913096E-4</v>
       </c>
-      <c r="CW11" s="137">
+      <c r="CW11" s="136">
         <f t="shared" si="22"/>
         <v>2.6708E-4</v>
       </c>
-      <c r="CX11" s="138">
+      <c r="CX11" s="211">
         <f t="shared" si="23"/>
-        <v>1.0971635269076833E-9</v>
+        <v>12.402073858345453</v>
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A12" s="170"/>
-      <c r="B12" s="176"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="5">
         <v>175000</v>
       </c>
@@ -18720,7 +18702,7 @@
         <f t="shared" ref="AA12:AA15" si="26">Z12/Z11</f>
         <v>3.0783359793095917</v>
       </c>
-      <c r="AC12" s="183"/>
+      <c r="AC12" s="170"/>
       <c r="AD12" s="126">
         <v>175000</v>
       </c>
@@ -18781,18 +18763,18 @@
         <f t="shared" si="5"/>
         <v>10.935985580000001</v>
       </c>
-      <c r="AY12" s="158"/>
-      <c r="AZ12" s="170"/>
-      <c r="BA12" s="171"/>
-      <c r="BB12" s="170"/>
-      <c r="BC12" s="171"/>
-      <c r="BD12" s="170"/>
-      <c r="BE12" s="171"/>
-      <c r="BF12" s="190"/>
-      <c r="BG12" s="171"/>
-      <c r="BH12" s="170"/>
-      <c r="BI12" s="171"/>
-      <c r="BJ12" s="187"/>
+      <c r="AY12" s="149"/>
+      <c r="AZ12" s="153"/>
+      <c r="BA12" s="154"/>
+      <c r="BB12" s="153"/>
+      <c r="BC12" s="154"/>
+      <c r="BD12" s="153"/>
+      <c r="BE12" s="154"/>
+      <c r="BF12" s="172"/>
+      <c r="BG12" s="154"/>
+      <c r="BH12" s="153"/>
+      <c r="BI12" s="154"/>
+      <c r="BJ12" s="167"/>
       <c r="CG12" s="118"/>
       <c r="CH12" s="118"/>
       <c r="CI12" s="5">
@@ -18845,18 +18827,18 @@
         <f t="shared" si="20"/>
         <v>3.9732991205526619E-4</v>
       </c>
-      <c r="CW12" s="137">
+      <c r="CW12" s="136">
         <f t="shared" si="22"/>
         <v>5.2304000000000001E-4</v>
       </c>
-      <c r="CX12" s="138">
+      <c r="CX12" s="211">
         <f t="shared" si="23"/>
-        <v>1.580302621107271E-8</v>
+        <v>24.03450748408034</v>
       </c>
     </row>
     <row r="13" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="170"/>
-      <c r="B13" s="176"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="5">
         <v>300000</v>
       </c>
@@ -18941,7 +18923,7 @@
         <f t="shared" si="26"/>
         <v>2.96931732969604</v>
       </c>
-      <c r="AC13" s="183"/>
+      <c r="AC13" s="170"/>
       <c r="AD13" s="126">
         <v>300000</v>
       </c>
@@ -19002,18 +18984,18 @@
         <f t="shared" si="5"/>
         <v>32.4724115</v>
       </c>
-      <c r="AY13" s="158"/>
-      <c r="AZ13" s="170"/>
-      <c r="BA13" s="171"/>
-      <c r="BB13" s="170"/>
-      <c r="BC13" s="171"/>
-      <c r="BD13" s="170"/>
-      <c r="BE13" s="171"/>
-      <c r="BF13" s="190"/>
-      <c r="BG13" s="171"/>
-      <c r="BH13" s="170"/>
-      <c r="BI13" s="171"/>
-      <c r="BJ13" s="187"/>
+      <c r="AY13" s="149"/>
+      <c r="AZ13" s="153"/>
+      <c r="BA13" s="154"/>
+      <c r="BB13" s="153"/>
+      <c r="BC13" s="154"/>
+      <c r="BD13" s="153"/>
+      <c r="BE13" s="154"/>
+      <c r="BF13" s="172"/>
+      <c r="BG13" s="154"/>
+      <c r="BH13" s="153"/>
+      <c r="BI13" s="154"/>
+      <c r="BJ13" s="167"/>
       <c r="CG13" s="118"/>
       <c r="CH13" s="118"/>
       <c r="CI13" s="6">
@@ -19066,18 +19048,18 @@
         <f t="shared" si="20"/>
         <v>5.4442657924767943E-4</v>
       </c>
-      <c r="CW13" s="137">
+      <c r="CW13" s="136">
         <f t="shared" si="22"/>
         <v>6.4141999999999997E-4</v>
       </c>
-      <c r="CX13" s="138">
+      <c r="CX13" s="211">
         <f t="shared" si="23"/>
-        <v>9.407723669236685E-9</v>
+        <v>15.12167078549477</v>
       </c>
     </row>
     <row r="14" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="170"/>
-      <c r="B14" s="176"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="5">
         <v>425000</v>
       </c>
@@ -19162,7 +19144,7 @@
         <f t="shared" si="26"/>
         <v>1.9835906261535272</v>
       </c>
-      <c r="AC14" s="183"/>
+      <c r="AC14" s="170"/>
       <c r="AD14" s="126">
         <v>425000</v>
       </c>
@@ -19223,18 +19205,18 @@
         <f t="shared" si="5"/>
         <v>64.411971059999999</v>
       </c>
-      <c r="AY14" s="160"/>
-      <c r="AZ14" s="172"/>
-      <c r="BA14" s="173"/>
-      <c r="BB14" s="172"/>
-      <c r="BC14" s="173"/>
-      <c r="BD14" s="172"/>
-      <c r="BE14" s="173"/>
-      <c r="BF14" s="191"/>
-      <c r="BG14" s="173"/>
-      <c r="BH14" s="172"/>
-      <c r="BI14" s="173"/>
-      <c r="BJ14" s="188"/>
+      <c r="AY14" s="150"/>
+      <c r="AZ14" s="155"/>
+      <c r="BA14" s="156"/>
+      <c r="BB14" s="155"/>
+      <c r="BC14" s="156"/>
+      <c r="BD14" s="155"/>
+      <c r="BE14" s="156"/>
+      <c r="BF14" s="173"/>
+      <c r="BG14" s="156"/>
+      <c r="BH14" s="155"/>
+      <c r="BI14" s="156"/>
+      <c r="BJ14" s="168"/>
       <c r="CH14" s="118"/>
       <c r="CI14" s="118"/>
       <c r="CK14" s="118"/>
@@ -19260,18 +19242,18 @@
         <f t="shared" si="20"/>
         <v>7.266509839790635E-4</v>
       </c>
-      <c r="CW14" s="139">
+      <c r="CW14" s="137">
         <f t="shared" si="22"/>
         <v>8.0061999999999993E-4</v>
       </c>
-      <c r="CX14" s="140">
-        <f t="shared" si="23"/>
-        <v>5.4714153311055502E-9</v>
+      <c r="CX14" s="56">
+        <f>(ABS(CW14-CV14)/CW14)*100</f>
+        <v>9.2389668033444625</v>
       </c>
     </row>
     <row r="15" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="172"/>
-      <c r="B15" s="177"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="6">
         <v>550000</v>
       </c>
@@ -19356,7 +19338,7 @@
         <f t="shared" si="26"/>
         <v>1.7207020582673658</v>
       </c>
-      <c r="AC15" s="184"/>
+      <c r="AC15" s="180"/>
       <c r="AD15" s="127">
         <v>550000</v>
       </c>
@@ -19420,27 +19402,27 @@
       <c r="AY15" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="AZ15" s="168" t="s">
+      <c r="AZ15" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="BA15" s="169"/>
-      <c r="BB15" s="168" t="s">
+      <c r="BA15" s="152"/>
+      <c r="BB15" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BC15" s="169"/>
-      <c r="BD15" s="168" t="s">
+      <c r="BC15" s="152"/>
+      <c r="BD15" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BE15" s="169"/>
-      <c r="BF15" s="189" t="s">
+      <c r="BE15" s="152"/>
+      <c r="BF15" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="BG15" s="169"/>
-      <c r="BH15" s="174" t="s">
+      <c r="BG15" s="152"/>
+      <c r="BH15" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="BI15" s="169"/>
-      <c r="BJ15" s="186" t="s">
+      <c r="BI15" s="152"/>
+      <c r="BJ15" s="166" t="s">
         <v>32</v>
       </c>
       <c r="CI15" s="118"/>
@@ -19456,12 +19438,14 @@
         <f>SUM(CR8:CR13)</f>
         <v>9.8332985830954472E-8</v>
       </c>
+      <c r="CW15" s="209"/>
+      <c r="CX15" s="210"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="181" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="10">
@@ -19542,7 +19526,7 @@
       <c r="AA16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC16" s="182" t="s">
+      <c r="AC16" s="169" t="s">
         <v>76</v>
       </c>
       <c r="AD16" s="125">
@@ -19605,18 +19589,18 @@
         <f t="shared" si="5"/>
         <v>1.1173522599999999</v>
       </c>
-      <c r="AY16" s="158"/>
-      <c r="AZ16" s="170"/>
-      <c r="BA16" s="171"/>
-      <c r="BB16" s="170"/>
-      <c r="BC16" s="171"/>
-      <c r="BD16" s="170"/>
-      <c r="BE16" s="171"/>
-      <c r="BF16" s="190"/>
-      <c r="BG16" s="171"/>
-      <c r="BH16" s="170"/>
-      <c r="BI16" s="171"/>
-      <c r="BJ16" s="187"/>
+      <c r="AY16" s="149"/>
+      <c r="AZ16" s="153"/>
+      <c r="BA16" s="154"/>
+      <c r="BB16" s="153"/>
+      <c r="BC16" s="154"/>
+      <c r="BD16" s="153"/>
+      <c r="BE16" s="154"/>
+      <c r="BF16" s="172"/>
+      <c r="BG16" s="154"/>
+      <c r="BH16" s="153"/>
+      <c r="BI16" s="154"/>
+      <c r="BJ16" s="167"/>
       <c r="CL16" s="28">
         <f>1-CL15</f>
         <v>0.99977739983192171</v>
@@ -19631,8 +19615,8 @@
       </c>
     </row>
     <row r="17" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A17" s="170"/>
-      <c r="B17" s="176"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="5">
         <v>100000</v>
       </c>
@@ -19717,7 +19701,7 @@
         <f>Z17/Z16</f>
         <v>3.8770868732122135</v>
       </c>
-      <c r="AC17" s="183"/>
+      <c r="AC17" s="170"/>
       <c r="AD17" s="126">
         <v>100000</v>
       </c>
@@ -19778,22 +19762,22 @@
         <f t="shared" si="5"/>
         <v>4.3320717799999997</v>
       </c>
-      <c r="AY17" s="158"/>
-      <c r="AZ17" s="170"/>
-      <c r="BA17" s="171"/>
-      <c r="BB17" s="170"/>
-      <c r="BC17" s="171"/>
-      <c r="BD17" s="170"/>
-      <c r="BE17" s="171"/>
-      <c r="BF17" s="190"/>
-      <c r="BG17" s="171"/>
-      <c r="BH17" s="170"/>
-      <c r="BI17" s="171"/>
-      <c r="BJ17" s="187"/>
+      <c r="AY17" s="149"/>
+      <c r="AZ17" s="153"/>
+      <c r="BA17" s="154"/>
+      <c r="BB17" s="153"/>
+      <c r="BC17" s="154"/>
+      <c r="BD17" s="153"/>
+      <c r="BE17" s="154"/>
+      <c r="BF17" s="172"/>
+      <c r="BG17" s="154"/>
+      <c r="BH17" s="153"/>
+      <c r="BI17" s="154"/>
+      <c r="BJ17" s="167"/>
     </row>
     <row r="18" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A18" s="170"/>
-      <c r="B18" s="176"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="5">
         <v>175000</v>
       </c>
@@ -19878,7 +19862,7 @@
         <f t="shared" ref="AA18:AA21" si="31">Z18/Z17</f>
         <v>3.0827340215493848</v>
       </c>
-      <c r="AC18" s="183"/>
+      <c r="AC18" s="170"/>
       <c r="AD18" s="126">
         <v>175000</v>
       </c>
@@ -19939,22 +19923,22 @@
         <f t="shared" si="5"/>
         <v>13.35462506</v>
       </c>
-      <c r="AY18" s="158"/>
-      <c r="AZ18" s="170"/>
-      <c r="BA18" s="171"/>
-      <c r="BB18" s="170"/>
-      <c r="BC18" s="171"/>
-      <c r="BD18" s="170"/>
-      <c r="BE18" s="171"/>
-      <c r="BF18" s="190"/>
-      <c r="BG18" s="171"/>
-      <c r="BH18" s="170"/>
-      <c r="BI18" s="171"/>
-      <c r="BJ18" s="187"/>
+      <c r="AY18" s="149"/>
+      <c r="AZ18" s="153"/>
+      <c r="BA18" s="154"/>
+      <c r="BB18" s="153"/>
+      <c r="BC18" s="154"/>
+      <c r="BD18" s="153"/>
+      <c r="BE18" s="154"/>
+      <c r="BF18" s="172"/>
+      <c r="BG18" s="154"/>
+      <c r="BH18" s="153"/>
+      <c r="BI18" s="154"/>
+      <c r="BJ18" s="167"/>
     </row>
     <row r="19" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A19" s="170"/>
-      <c r="B19" s="176"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="5">
         <v>300000</v>
       </c>
@@ -20039,7 +20023,7 @@
         <f t="shared" si="31"/>
         <v>3.0806833059826841</v>
       </c>
-      <c r="AC19" s="183"/>
+      <c r="AC19" s="170"/>
       <c r="AD19" s="126">
         <v>300000</v>
       </c>
@@ -20100,22 +20084,22 @@
         <f t="shared" si="5"/>
         <v>41.141370479999999</v>
       </c>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="170"/>
-      <c r="BA19" s="171"/>
-      <c r="BB19" s="170"/>
-      <c r="BC19" s="171"/>
-      <c r="BD19" s="170"/>
-      <c r="BE19" s="171"/>
-      <c r="BF19" s="190"/>
-      <c r="BG19" s="171"/>
-      <c r="BH19" s="170"/>
-      <c r="BI19" s="171"/>
-      <c r="BJ19" s="187"/>
+      <c r="AY19" s="149"/>
+      <c r="AZ19" s="153"/>
+      <c r="BA19" s="154"/>
+      <c r="BB19" s="153"/>
+      <c r="BC19" s="154"/>
+      <c r="BD19" s="153"/>
+      <c r="BE19" s="154"/>
+      <c r="BF19" s="172"/>
+      <c r="BG19" s="154"/>
+      <c r="BH19" s="153"/>
+      <c r="BI19" s="154"/>
+      <c r="BJ19" s="167"/>
     </row>
     <row r="20" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="170"/>
-      <c r="B20" s="176"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="5">
         <v>425000</v>
       </c>
@@ -20200,7 +20184,7 @@
         <f t="shared" si="31"/>
         <v>2.0027097721514697</v>
       </c>
-      <c r="AC20" s="183"/>
+      <c r="AC20" s="170"/>
       <c r="AD20" s="126">
         <v>425000</v>
       </c>
@@ -20261,22 +20245,22 @@
         <f t="shared" si="5"/>
         <v>82.394224699999995</v>
       </c>
-      <c r="AY20" s="160"/>
-      <c r="AZ20" s="172"/>
-      <c r="BA20" s="173"/>
-      <c r="BB20" s="172"/>
-      <c r="BC20" s="173"/>
-      <c r="BD20" s="172"/>
-      <c r="BE20" s="173"/>
-      <c r="BF20" s="191"/>
-      <c r="BG20" s="173"/>
-      <c r="BH20" s="172"/>
-      <c r="BI20" s="173"/>
-      <c r="BJ20" s="188"/>
+      <c r="AY20" s="150"/>
+      <c r="AZ20" s="155"/>
+      <c r="BA20" s="156"/>
+      <c r="BB20" s="155"/>
+      <c r="BC20" s="156"/>
+      <c r="BD20" s="155"/>
+      <c r="BE20" s="156"/>
+      <c r="BF20" s="173"/>
+      <c r="BG20" s="156"/>
+      <c r="BH20" s="155"/>
+      <c r="BI20" s="156"/>
+      <c r="BJ20" s="168"/>
     </row>
     <row r="21" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="172"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="6">
         <v>550000</v>
       </c>
@@ -20361,7 +20345,7 @@
         <f t="shared" si="31"/>
         <v>1.6499581612059275</v>
       </c>
-      <c r="AC21" s="184"/>
+      <c r="AC21" s="180"/>
       <c r="AD21" s="127">
         <v>550000</v>
       </c>
@@ -20425,35 +20409,35 @@
       <c r="AY21" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="AZ21" s="168" t="s">
+      <c r="AZ21" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BA21" s="169"/>
-      <c r="BB21" s="168" t="s">
+      <c r="BA21" s="152"/>
+      <c r="BB21" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BC21" s="169"/>
-      <c r="BD21" s="168" t="s">
+      <c r="BC21" s="152"/>
+      <c r="BD21" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BE21" s="169"/>
-      <c r="BF21" s="189" t="s">
+      <c r="BE21" s="152"/>
+      <c r="BF21" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="BG21" s="169"/>
-      <c r="BH21" s="174" t="s">
+      <c r="BG21" s="152"/>
+      <c r="BH21" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="BI21" s="169"/>
-      <c r="BJ21" s="186" t="s">
+      <c r="BI21" s="152"/>
+      <c r="BJ21" s="166" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="175" t="s">
+      <c r="B22" s="181" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="10">
@@ -20534,7 +20518,7 @@
       <c r="AA22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="182" t="s">
+      <c r="AC22" s="169" t="s">
         <v>77</v>
       </c>
       <c r="AD22" s="125">
@@ -20597,22 +20581,22 @@
         <f t="shared" si="5"/>
         <v>2.1009380000000001E-2</v>
       </c>
-      <c r="AY22" s="158"/>
-      <c r="AZ22" s="170"/>
-      <c r="BA22" s="171"/>
-      <c r="BB22" s="170"/>
-      <c r="BC22" s="171"/>
-      <c r="BD22" s="170"/>
-      <c r="BE22" s="171"/>
-      <c r="BF22" s="190"/>
-      <c r="BG22" s="171"/>
-      <c r="BH22" s="170"/>
-      <c r="BI22" s="171"/>
-      <c r="BJ22" s="187"/>
+      <c r="AY22" s="149"/>
+      <c r="AZ22" s="153"/>
+      <c r="BA22" s="154"/>
+      <c r="BB22" s="153"/>
+      <c r="BC22" s="154"/>
+      <c r="BD22" s="153"/>
+      <c r="BE22" s="154"/>
+      <c r="BF22" s="172"/>
+      <c r="BG22" s="154"/>
+      <c r="BH22" s="153"/>
+      <c r="BI22" s="154"/>
+      <c r="BJ22" s="167"/>
     </row>
     <row r="23" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="170"/>
-      <c r="B23" s="176"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="5">
         <v>100000</v>
       </c>
@@ -20697,7 +20681,7 @@
         <f>Z23/Z22</f>
         <v>1.8654086888808714</v>
       </c>
-      <c r="AC23" s="183"/>
+      <c r="AC23" s="170"/>
       <c r="AD23" s="126">
         <v>100000</v>
       </c>
@@ -20758,31 +20742,31 @@
         <f t="shared" si="5"/>
         <v>3.9191080000000003E-2</v>
       </c>
-      <c r="AY23" s="158"/>
-      <c r="AZ23" s="170"/>
-      <c r="BA23" s="171"/>
-      <c r="BB23" s="170"/>
-      <c r="BC23" s="171"/>
-      <c r="BD23" s="170"/>
-      <c r="BE23" s="171"/>
-      <c r="BF23" s="190"/>
-      <c r="BG23" s="171"/>
-      <c r="BH23" s="170"/>
-      <c r="BI23" s="171"/>
-      <c r="BJ23" s="187"/>
+      <c r="AY23" s="149"/>
+      <c r="AZ23" s="153"/>
+      <c r="BA23" s="154"/>
+      <c r="BB23" s="153"/>
+      <c r="BC23" s="154"/>
+      <c r="BD23" s="153"/>
+      <c r="BE23" s="154"/>
+      <c r="BF23" s="172"/>
+      <c r="BG23" s="154"/>
+      <c r="BH23" s="153"/>
+      <c r="BI23" s="154"/>
+      <c r="BJ23" s="167"/>
       <c r="CI23" s="8"/>
-      <c r="CJ23" s="206"/>
-      <c r="CK23" s="199"/>
-      <c r="CL23" s="199"/>
-      <c r="CM23" s="199"/>
-      <c r="CN23" s="206"/>
-      <c r="CO23" s="199"/>
-      <c r="CP23" s="199"/>
-      <c r="CQ23" s="199"/>
+      <c r="CJ23" s="146"/>
+      <c r="CK23" s="147"/>
+      <c r="CL23" s="147"/>
+      <c r="CM23" s="147"/>
+      <c r="CN23" s="146"/>
+      <c r="CO23" s="147"/>
+      <c r="CP23" s="147"/>
+      <c r="CQ23" s="147"/>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A24" s="170"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="5">
         <v>175000</v>
       </c>
@@ -20867,7 +20851,7 @@
         <f t="shared" ref="AA24:AA27" si="36">Z24/Z23</f>
         <v>1.7448572481289109</v>
       </c>
-      <c r="AC24" s="183"/>
+      <c r="AC24" s="170"/>
       <c r="AD24" s="126">
         <v>175000</v>
       </c>
@@ -20928,23 +20912,23 @@
         <f t="shared" si="5"/>
         <v>6.838284E-2</v>
       </c>
-      <c r="AY24" s="158"/>
-      <c r="AZ24" s="170"/>
-      <c r="BA24" s="171"/>
-      <c r="BB24" s="170"/>
-      <c r="BC24" s="171"/>
-      <c r="BD24" s="170"/>
-      <c r="BE24" s="171"/>
-      <c r="BF24" s="190"/>
-      <c r="BG24" s="171"/>
-      <c r="BH24" s="170"/>
-      <c r="BI24" s="171"/>
-      <c r="BJ24" s="187"/>
+      <c r="AY24" s="149"/>
+      <c r="AZ24" s="153"/>
+      <c r="BA24" s="154"/>
+      <c r="BB24" s="153"/>
+      <c r="BC24" s="154"/>
+      <c r="BD24" s="153"/>
+      <c r="BE24" s="154"/>
+      <c r="BF24" s="172"/>
+      <c r="BG24" s="154"/>
+      <c r="BH24" s="153"/>
+      <c r="BI24" s="154"/>
+      <c r="BJ24" s="167"/>
       <c r="CI24" s="10"/>
     </row>
     <row r="25" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A25" s="170"/>
-      <c r="B25" s="176"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="5">
         <v>300000</v>
       </c>
@@ -21029,7 +21013,7 @@
         <f t="shared" si="36"/>
         <v>1.7306634237478291</v>
       </c>
-      <c r="AC25" s="183"/>
+      <c r="AC25" s="170"/>
       <c r="AD25" s="126">
         <v>300000</v>
       </c>
@@ -21090,23 +21074,23 @@
         <f t="shared" si="5"/>
         <v>0.11834768</v>
       </c>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="170"/>
-      <c r="BA25" s="171"/>
-      <c r="BB25" s="170"/>
-      <c r="BC25" s="171"/>
-      <c r="BD25" s="170"/>
-      <c r="BE25" s="171"/>
-      <c r="BF25" s="190"/>
-      <c r="BG25" s="171"/>
-      <c r="BH25" s="170"/>
-      <c r="BI25" s="171"/>
-      <c r="BJ25" s="187"/>
+      <c r="AY25" s="149"/>
+      <c r="AZ25" s="153"/>
+      <c r="BA25" s="154"/>
+      <c r="BB25" s="153"/>
+      <c r="BC25" s="154"/>
+      <c r="BD25" s="153"/>
+      <c r="BE25" s="154"/>
+      <c r="BF25" s="172"/>
+      <c r="BG25" s="154"/>
+      <c r="BH25" s="153"/>
+      <c r="BI25" s="154"/>
+      <c r="BJ25" s="167"/>
       <c r="CI25" s="5"/>
     </row>
     <row r="26" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="170"/>
-      <c r="B26" s="176"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="5">
         <v>425000</v>
       </c>
@@ -21191,7 +21175,7 @@
         <f t="shared" si="36"/>
         <v>1.392811587012099</v>
       </c>
-      <c r="AC26" s="183"/>
+      <c r="AC26" s="170"/>
       <c r="AD26" s="126">
         <v>425000</v>
       </c>
@@ -21252,23 +21236,23 @@
         <f t="shared" si="5"/>
         <v>0.16483602000000003</v>
       </c>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="172"/>
-      <c r="BA26" s="173"/>
-      <c r="BB26" s="172"/>
-      <c r="BC26" s="173"/>
-      <c r="BD26" s="172"/>
-      <c r="BE26" s="173"/>
-      <c r="BF26" s="191"/>
-      <c r="BG26" s="173"/>
-      <c r="BH26" s="172"/>
-      <c r="BI26" s="173"/>
-      <c r="BJ26" s="188"/>
+      <c r="AY26" s="150"/>
+      <c r="AZ26" s="155"/>
+      <c r="BA26" s="156"/>
+      <c r="BB26" s="155"/>
+      <c r="BC26" s="156"/>
+      <c r="BD26" s="155"/>
+      <c r="BE26" s="156"/>
+      <c r="BF26" s="173"/>
+      <c r="BG26" s="156"/>
+      <c r="BH26" s="155"/>
+      <c r="BI26" s="156"/>
+      <c r="BJ26" s="168"/>
       <c r="CI26" s="5"/>
     </row>
     <row r="27" spans="1:95" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="172"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="6">
         <v>550000</v>
       </c>
@@ -21353,7 +21337,7 @@
         <f t="shared" si="36"/>
         <v>1.3191136257718428</v>
       </c>
-      <c r="AC27" s="184"/>
+      <c r="AC27" s="180"/>
       <c r="AD27" s="127">
         <v>550000</v>
       </c>
@@ -21417,36 +21401,36 @@
       <c r="AY27" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="AZ27" s="168" t="s">
+      <c r="AZ27" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BA27" s="169"/>
-      <c r="BB27" s="168" t="s">
+      <c r="BA27" s="152"/>
+      <c r="BB27" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BC27" s="169"/>
-      <c r="BD27" s="168" t="s">
+      <c r="BC27" s="152"/>
+      <c r="BD27" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BE27" s="169"/>
-      <c r="BF27" s="189" t="s">
+      <c r="BE27" s="152"/>
+      <c r="BF27" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="BG27" s="169"/>
-      <c r="BH27" s="193" t="s">
+      <c r="BG27" s="152"/>
+      <c r="BH27" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="BI27" s="194"/>
-      <c r="BJ27" s="186" t="s">
+      <c r="BI27" s="160"/>
+      <c r="BJ27" s="166" t="s">
         <v>33</v>
       </c>
       <c r="CI27" s="5"/>
     </row>
     <row r="28" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="175" t="s">
+      <c r="B28" s="181" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="10">
@@ -21527,7 +21511,7 @@
       <c r="AA28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC28" s="182" t="s">
+      <c r="AC28" s="169" t="s">
         <v>78</v>
       </c>
       <c r="AD28" s="125">
@@ -21590,23 +21574,23 @@
         <f t="shared" si="5"/>
         <v>2.1247800000000002E-3</v>
       </c>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="170"/>
-      <c r="BA28" s="171"/>
-      <c r="BB28" s="170"/>
-      <c r="BC28" s="171"/>
-      <c r="BD28" s="170"/>
-      <c r="BE28" s="171"/>
-      <c r="BF28" s="190"/>
-      <c r="BG28" s="171"/>
-      <c r="BH28" s="195"/>
-      <c r="BI28" s="196"/>
-      <c r="BJ28" s="187"/>
+      <c r="AY28" s="149"/>
+      <c r="AZ28" s="153"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="153"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="153"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="172"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="161"/>
+      <c r="BI28" s="162"/>
+      <c r="BJ28" s="167"/>
       <c r="CI28" s="5"/>
     </row>
     <row r="29" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="170"/>
-      <c r="B29" s="176"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="5">
         <v>100000</v>
       </c>
@@ -21691,7 +21675,7 @@
         <f>Z29/Z28</f>
         <v>1.9656246764370895</v>
       </c>
-      <c r="AC29" s="183"/>
+      <c r="AC29" s="170"/>
       <c r="AD29" s="126">
         <v>100000</v>
       </c>
@@ -21752,23 +21736,23 @@
         <f t="shared" si="5"/>
         <v>4.1765199999999995E-3</v>
       </c>
-      <c r="AY29" s="158"/>
-      <c r="AZ29" s="170"/>
-      <c r="BA29" s="171"/>
-      <c r="BB29" s="170"/>
-      <c r="BC29" s="171"/>
-      <c r="BD29" s="170"/>
-      <c r="BE29" s="171"/>
-      <c r="BF29" s="190"/>
-      <c r="BG29" s="171"/>
-      <c r="BH29" s="195"/>
-      <c r="BI29" s="196"/>
-      <c r="BJ29" s="187"/>
+      <c r="AY29" s="149"/>
+      <c r="AZ29" s="153"/>
+      <c r="BA29" s="154"/>
+      <c r="BB29" s="153"/>
+      <c r="BC29" s="154"/>
+      <c r="BD29" s="153"/>
+      <c r="BE29" s="154"/>
+      <c r="BF29" s="172"/>
+      <c r="BG29" s="154"/>
+      <c r="BH29" s="161"/>
+      <c r="BI29" s="162"/>
+      <c r="BJ29" s="167"/>
       <c r="CI29" s="6"/>
     </row>
     <row r="30" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A30" s="170"/>
-      <c r="B30" s="176"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="5">
         <v>175000</v>
       </c>
@@ -21853,7 +21837,7 @@
         <f t="shared" ref="AA30:AA33" si="41">Z30/Z29</f>
         <v>1.8989589418942088</v>
       </c>
-      <c r="AC30" s="183"/>
+      <c r="AC30" s="170"/>
       <c r="AD30" s="126">
         <v>175000</v>
       </c>
@@ -21914,22 +21898,22 @@
         <f t="shared" si="5"/>
         <v>7.9310400000000003E-3</v>
       </c>
-      <c r="AY30" s="158"/>
-      <c r="AZ30" s="170"/>
-      <c r="BA30" s="171"/>
-      <c r="BB30" s="170"/>
-      <c r="BC30" s="171"/>
-      <c r="BD30" s="170"/>
-      <c r="BE30" s="171"/>
-      <c r="BF30" s="190"/>
-      <c r="BG30" s="171"/>
-      <c r="BH30" s="195"/>
-      <c r="BI30" s="196"/>
-      <c r="BJ30" s="187"/>
+      <c r="AY30" s="149"/>
+      <c r="AZ30" s="153"/>
+      <c r="BA30" s="154"/>
+      <c r="BB30" s="153"/>
+      <c r="BC30" s="154"/>
+      <c r="BD30" s="153"/>
+      <c r="BE30" s="154"/>
+      <c r="BF30" s="172"/>
+      <c r="BG30" s="154"/>
+      <c r="BH30" s="161"/>
+      <c r="BI30" s="162"/>
+      <c r="BJ30" s="167"/>
     </row>
     <row r="31" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A31" s="170"/>
-      <c r="B31" s="176"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="5">
         <v>300000</v>
       </c>
@@ -22014,7 +21998,7 @@
         <f t="shared" si="41"/>
         <v>1.7284794932316567</v>
       </c>
-      <c r="AC31" s="183"/>
+      <c r="AC31" s="170"/>
       <c r="AD31" s="126">
         <v>300000</v>
       </c>
@@ -22075,22 +22059,22 @@
         <f t="shared" si="5"/>
         <v>1.3708639999999999E-2</v>
       </c>
-      <c r="AY31" s="158"/>
-      <c r="AZ31" s="170"/>
-      <c r="BA31" s="171"/>
-      <c r="BB31" s="170"/>
-      <c r="BC31" s="171"/>
-      <c r="BD31" s="170"/>
-      <c r="BE31" s="171"/>
-      <c r="BF31" s="190"/>
-      <c r="BG31" s="171"/>
-      <c r="BH31" s="195"/>
-      <c r="BI31" s="196"/>
-      <c r="BJ31" s="187"/>
+      <c r="AY31" s="149"/>
+      <c r="AZ31" s="153"/>
+      <c r="BA31" s="154"/>
+      <c r="BB31" s="153"/>
+      <c r="BC31" s="154"/>
+      <c r="BD31" s="153"/>
+      <c r="BE31" s="154"/>
+      <c r="BF31" s="172"/>
+      <c r="BG31" s="154"/>
+      <c r="BH31" s="161"/>
+      <c r="BI31" s="162"/>
+      <c r="BJ31" s="167"/>
     </row>
     <row r="32" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="170"/>
-      <c r="B32" s="176"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="5">
         <v>425000</v>
       </c>
@@ -22175,7 +22159,7 @@
         <f t="shared" si="41"/>
         <v>1.4505246326404371</v>
       </c>
-      <c r="AC32" s="183"/>
+      <c r="AC32" s="170"/>
       <c r="AD32" s="126">
         <v>425000</v>
       </c>
@@ -22236,22 +22220,22 @@
         <f t="shared" si="5"/>
         <v>1.9884720000000002E-2</v>
       </c>
-      <c r="AY32" s="160"/>
-      <c r="AZ32" s="172"/>
-      <c r="BA32" s="173"/>
-      <c r="BB32" s="172"/>
-      <c r="BC32" s="173"/>
-      <c r="BD32" s="172"/>
-      <c r="BE32" s="173"/>
-      <c r="BF32" s="191"/>
-      <c r="BG32" s="173"/>
-      <c r="BH32" s="197"/>
-      <c r="BI32" s="198"/>
-      <c r="BJ32" s="188"/>
+      <c r="AY32" s="150"/>
+      <c r="AZ32" s="155"/>
+      <c r="BA32" s="156"/>
+      <c r="BB32" s="155"/>
+      <c r="BC32" s="156"/>
+      <c r="BD32" s="155"/>
+      <c r="BE32" s="156"/>
+      <c r="BF32" s="173"/>
+      <c r="BG32" s="156"/>
+      <c r="BH32" s="163"/>
+      <c r="BI32" s="164"/>
+      <c r="BJ32" s="168"/>
     </row>
     <row r="33" spans="1:81" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="172"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="6">
         <v>550000</v>
       </c>
@@ -22336,7 +22320,7 @@
         <f t="shared" si="41"/>
         <v>1.350443958979558</v>
       </c>
-      <c r="AC33" s="184"/>
+      <c r="AC33" s="180"/>
       <c r="AD33" s="127">
         <v>550000</v>
       </c>
@@ -22400,35 +22384,35 @@
       <c r="AY33" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="AZ33" s="168" t="s">
+      <c r="AZ33" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BA33" s="169"/>
-      <c r="BB33" s="168" t="s">
+      <c r="BA33" s="152"/>
+      <c r="BB33" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="BC33" s="169"/>
-      <c r="BD33" s="168" t="s">
+      <c r="BC33" s="152"/>
+      <c r="BD33" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="BE33" s="169"/>
-      <c r="BF33" s="189" t="s">
+      <c r="BE33" s="152"/>
+      <c r="BF33" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="BG33" s="169"/>
-      <c r="BH33" s="193" t="s">
+      <c r="BG33" s="152"/>
+      <c r="BH33" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="BI33" s="194"/>
-      <c r="BJ33" s="187" t="s">
+      <c r="BI33" s="160"/>
+      <c r="BJ33" s="167" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.35">
-      <c r="A34" s="174" t="s">
+      <c r="A34" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="177" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
@@ -22509,7 +22493,7 @@
       <c r="AA34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AC34" s="182" t="s">
+      <c r="AC34" s="169" t="s">
         <v>79</v>
       </c>
       <c r="AD34" s="128">
@@ -22572,22 +22556,22 @@
         <f t="shared" si="5"/>
         <v>1.7947400000000002E-3</v>
       </c>
-      <c r="AY34" s="158"/>
-      <c r="AZ34" s="170"/>
-      <c r="BA34" s="171"/>
-      <c r="BB34" s="170"/>
-      <c r="BC34" s="171"/>
-      <c r="BD34" s="170"/>
-      <c r="BE34" s="171"/>
-      <c r="BF34" s="190"/>
-      <c r="BG34" s="171"/>
-      <c r="BH34" s="195"/>
-      <c r="BI34" s="196"/>
-      <c r="BJ34" s="187"/>
+      <c r="AY34" s="149"/>
+      <c r="AZ34" s="153"/>
+      <c r="BA34" s="154"/>
+      <c r="BB34" s="153"/>
+      <c r="BC34" s="154"/>
+      <c r="BD34" s="153"/>
+      <c r="BE34" s="154"/>
+      <c r="BF34" s="172"/>
+      <c r="BG34" s="154"/>
+      <c r="BH34" s="161"/>
+      <c r="BI34" s="162"/>
+      <c r="BJ34" s="167"/>
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.35">
-      <c r="A35" s="170"/>
-      <c r="B35" s="176"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="5">
         <v>100000</v>
       </c>
@@ -22672,7 +22656,7 @@
         <f>Z35/Z34</f>
         <v>1.8185475333474483</v>
       </c>
-      <c r="AC35" s="183"/>
+      <c r="AC35" s="170"/>
       <c r="AD35" s="126">
         <v>100000</v>
       </c>
@@ -22733,22 +22717,22 @@
         <f t="shared" si="5"/>
         <v>3.2638199999999997E-3</v>
       </c>
-      <c r="AY35" s="158"/>
-      <c r="AZ35" s="170"/>
-      <c r="BA35" s="171"/>
-      <c r="BB35" s="170"/>
-      <c r="BC35" s="171"/>
-      <c r="BD35" s="170"/>
-      <c r="BE35" s="171"/>
-      <c r="BF35" s="190"/>
-      <c r="BG35" s="171"/>
-      <c r="BH35" s="195"/>
-      <c r="BI35" s="196"/>
-      <c r="BJ35" s="187"/>
+      <c r="AY35" s="149"/>
+      <c r="AZ35" s="153"/>
+      <c r="BA35" s="154"/>
+      <c r="BB35" s="153"/>
+      <c r="BC35" s="154"/>
+      <c r="BD35" s="153"/>
+      <c r="BE35" s="154"/>
+      <c r="BF35" s="172"/>
+      <c r="BG35" s="154"/>
+      <c r="BH35" s="161"/>
+      <c r="BI35" s="162"/>
+      <c r="BJ35" s="167"/>
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.35">
-      <c r="A36" s="170"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="5">
         <v>175000</v>
       </c>
@@ -22833,7 +22817,7 @@
         <f t="shared" ref="AA36:AA39" si="46">Z36/Z35</f>
         <v>1.9171645495155982</v>
       </c>
-      <c r="AC36" s="183"/>
+      <c r="AC36" s="170"/>
       <c r="AD36" s="126">
         <v>175000</v>
       </c>
@@ -22894,22 +22878,22 @@
         <f t="shared" si="5"/>
         <v>6.2572799999999996E-3</v>
       </c>
-      <c r="AY36" s="158"/>
-      <c r="AZ36" s="170"/>
-      <c r="BA36" s="171"/>
-      <c r="BB36" s="170"/>
-      <c r="BC36" s="171"/>
-      <c r="BD36" s="170"/>
-      <c r="BE36" s="171"/>
-      <c r="BF36" s="190"/>
-      <c r="BG36" s="171"/>
-      <c r="BH36" s="195"/>
-      <c r="BI36" s="196"/>
-      <c r="BJ36" s="187"/>
+      <c r="AY36" s="149"/>
+      <c r="AZ36" s="153"/>
+      <c r="BA36" s="154"/>
+      <c r="BB36" s="153"/>
+      <c r="BC36" s="154"/>
+      <c r="BD36" s="153"/>
+      <c r="BE36" s="154"/>
+      <c r="BF36" s="172"/>
+      <c r="BG36" s="154"/>
+      <c r="BH36" s="161"/>
+      <c r="BI36" s="162"/>
+      <c r="BJ36" s="167"/>
     </row>
     <row r="37" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="170"/>
-      <c r="B37" s="176"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="5">
         <v>300000</v>
       </c>
@@ -22994,7 +22978,7 @@
         <f t="shared" si="46"/>
         <v>1.7226270839725886</v>
       </c>
-      <c r="AC37" s="183"/>
+      <c r="AC37" s="170"/>
       <c r="AD37" s="126">
         <v>300000</v>
       </c>
@@ -23055,22 +23039,22 @@
         <f t="shared" si="5"/>
         <v>1.0778959999999999E-2</v>
       </c>
-      <c r="AY37" s="158"/>
-      <c r="AZ37" s="170"/>
-      <c r="BA37" s="171"/>
-      <c r="BB37" s="170"/>
-      <c r="BC37" s="171"/>
-      <c r="BD37" s="170"/>
-      <c r="BE37" s="171"/>
-      <c r="BF37" s="190"/>
-      <c r="BG37" s="171"/>
-      <c r="BH37" s="195"/>
-      <c r="BI37" s="196"/>
-      <c r="BJ37" s="187"/>
+      <c r="AY37" s="149"/>
+      <c r="AZ37" s="153"/>
+      <c r="BA37" s="154"/>
+      <c r="BB37" s="153"/>
+      <c r="BC37" s="154"/>
+      <c r="BD37" s="153"/>
+      <c r="BE37" s="154"/>
+      <c r="BF37" s="172"/>
+      <c r="BG37" s="154"/>
+      <c r="BH37" s="161"/>
+      <c r="BI37" s="162"/>
+      <c r="BJ37" s="167"/>
     </row>
     <row r="38" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="170"/>
-      <c r="B38" s="176"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="5">
         <v>425000</v>
       </c>
@@ -23155,7 +23139,7 @@
         <f t="shared" si="46"/>
         <v>1.4102213942718038</v>
       </c>
-      <c r="AC38" s="183"/>
+      <c r="AC38" s="170"/>
       <c r="AD38" s="126">
         <v>425000</v>
       </c>
@@ -23216,33 +23200,33 @@
         <f t="shared" si="5"/>
         <v>1.5200720000000001E-2</v>
       </c>
-      <c r="AY38" s="160"/>
-      <c r="AZ38" s="172"/>
-      <c r="BA38" s="173"/>
-      <c r="BB38" s="172"/>
-      <c r="BC38" s="173"/>
-      <c r="BD38" s="172"/>
-      <c r="BE38" s="173"/>
-      <c r="BF38" s="191"/>
-      <c r="BG38" s="173"/>
-      <c r="BH38" s="197"/>
-      <c r="BI38" s="198"/>
-      <c r="BJ38" s="188"/>
+      <c r="AY38" s="150"/>
+      <c r="AZ38" s="155"/>
+      <c r="BA38" s="156"/>
+      <c r="BB38" s="155"/>
+      <c r="BC38" s="156"/>
+      <c r="BD38" s="155"/>
+      <c r="BE38" s="156"/>
+      <c r="BF38" s="173"/>
+      <c r="BG38" s="156"/>
+      <c r="BH38" s="163"/>
+      <c r="BI38" s="164"/>
+      <c r="BJ38" s="168"/>
       <c r="BU38" s="2"/>
       <c r="BV38" s="2"/>
       <c r="BW38" s="2"/>
-      <c r="BX38" s="200" t="s">
+      <c r="BX38" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="BY38" s="201"/>
-      <c r="BZ38" s="201"/>
-      <c r="CA38" s="201"/>
-      <c r="CB38" s="201"/>
-      <c r="CC38" s="202"/>
+      <c r="BY38" s="141"/>
+      <c r="BZ38" s="141"/>
+      <c r="CA38" s="141"/>
+      <c r="CB38" s="141"/>
+      <c r="CC38" s="142"/>
     </row>
     <row r="39" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="172"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="179"/>
       <c r="C39" s="6">
         <v>550000</v>
       </c>
@@ -23327,7 +23311,7 @@
         <f t="shared" si="46"/>
         <v>1.3519912214684566</v>
       </c>
-      <c r="AC39" s="184"/>
+      <c r="AC39" s="180"/>
       <c r="AD39" s="127">
         <v>550000</v>
       </c>
@@ -23391,46 +23375,46 @@
       <c r="BU39" s="2"/>
       <c r="BV39" s="2"/>
       <c r="BW39" s="2"/>
-      <c r="BX39" s="203"/>
-      <c r="BY39" s="204"/>
-      <c r="BZ39" s="204"/>
-      <c r="CA39" s="204"/>
-      <c r="CB39" s="204"/>
-      <c r="CC39" s="205"/>
+      <c r="BX39" s="143"/>
+      <c r="BY39" s="144"/>
+      <c r="BZ39" s="144"/>
+      <c r="CA39" s="144"/>
+      <c r="CB39" s="144"/>
+      <c r="CC39" s="145"/>
     </row>
     <row r="40" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BM40" s="200" t="s">
+      <c r="BM40" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="BN40" s="201"/>
-      <c r="BO40" s="201"/>
-      <c r="BP40" s="201"/>
-      <c r="BQ40" s="201"/>
-      <c r="BR40" s="202"/>
+      <c r="BN40" s="141"/>
+      <c r="BO40" s="141"/>
+      <c r="BP40" s="141"/>
+      <c r="BQ40" s="141"/>
+      <c r="BR40" s="142"/>
       <c r="BU40" s="2"/>
       <c r="BV40" s="2"/>
       <c r="BW40" s="2"/>
-      <c r="BX40" s="142" t="s">
+      <c r="BX40" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="BY40" s="143"/>
-      <c r="BZ40" s="143"/>
-      <c r="CA40" s="143"/>
-      <c r="CB40" s="143"/>
-      <c r="CC40" s="144"/>
+      <c r="BY40" s="191"/>
+      <c r="BZ40" s="191"/>
+      <c r="CA40" s="191"/>
+      <c r="CB40" s="191"/>
+      <c r="CC40" s="185"/>
     </row>
     <row r="41" spans="1:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BM41" s="203"/>
-      <c r="BN41" s="204"/>
-      <c r="BO41" s="204"/>
-      <c r="BP41" s="204"/>
-      <c r="BQ41" s="204"/>
-      <c r="BR41" s="205"/>
+      <c r="BM41" s="143"/>
+      <c r="BN41" s="144"/>
+      <c r="BO41" s="144"/>
+      <c r="BP41" s="144"/>
+      <c r="BQ41" s="144"/>
+      <c r="BR41" s="145"/>
       <c r="BU41" s="2"/>
-      <c r="BV41" s="142" t="s">
+      <c r="BV41" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="BW41" s="143"/>
+      <c r="BW41" s="191"/>
       <c r="BX41" s="106" t="s">
         <v>74</v>
       </c>
@@ -23469,13 +23453,13 @@
       <c r="BR42" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="BU42" s="162" t="s">
+      <c r="BU42" s="188" t="s">
         <v>73</v>
       </c>
       <c r="BV42" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="BW42" s="150"/>
+      <c r="BW42" s="157"/>
       <c r="BX42" s="59" t="s">
         <v>16</v>
       </c>
@@ -23520,10 +23504,10 @@
         <f t="shared" ref="BR43:BR48" si="51">AJ4/AJ10</f>
         <v>4.4267301949777993</v>
       </c>
-      <c r="BU43" s="163"/>
-      <c r="BV43" s="158"/>
-      <c r="BW43" s="159"/>
-      <c r="BX43" s="167" t="s">
+      <c r="BU43" s="189"/>
+      <c r="BV43" s="149"/>
+      <c r="BW43" s="187"/>
+      <c r="BX43" s="194" t="s">
         <v>16</v>
       </c>
       <c r="BY43" s="60">
@@ -23567,10 +23551,10 @@
         <f t="shared" si="51"/>
         <v>4.7312611075937205</v>
       </c>
-      <c r="BU44" s="163"/>
-      <c r="BV44" s="158"/>
-      <c r="BW44" s="159"/>
-      <c r="BX44" s="167"/>
+      <c r="BU44" s="189"/>
+      <c r="BV44" s="149"/>
+      <c r="BW44" s="187"/>
+      <c r="BX44" s="194"/>
       <c r="BY44" s="72">
         <v>0.21136013787000474</v>
       </c>
@@ -23612,10 +23596,10 @@
         <f t="shared" si="51"/>
         <v>4.5324674435135561</v>
       </c>
-      <c r="BU45" s="163"/>
-      <c r="BV45" s="158"/>
-      <c r="BW45" s="159"/>
-      <c r="BX45" s="167"/>
+      <c r="BU45" s="189"/>
+      <c r="BV45" s="149"/>
+      <c r="BW45" s="187"/>
+      <c r="BX45" s="194"/>
       <c r="BY45" s="80">
         <v>0.22063037682291717</v>
       </c>
@@ -23657,10 +23641,10 @@
         <f t="shared" si="51"/>
         <v>4.7843622467332123</v>
       </c>
-      <c r="BU46" s="163"/>
-      <c r="BV46" s="158"/>
-      <c r="BW46" s="159"/>
-      <c r="BX46" s="167"/>
+      <c r="BU46" s="189"/>
+      <c r="BV46" s="149"/>
+      <c r="BW46" s="187"/>
+      <c r="BX46" s="194"/>
       <c r="BY46" s="72">
         <v>0.20901427367520201</v>
       </c>
@@ -23702,10 +23686,10 @@
         <f t="shared" si="51"/>
         <v>4.6125902770138607</v>
       </c>
-      <c r="BU47" s="163"/>
-      <c r="BV47" s="158"/>
-      <c r="BW47" s="159"/>
-      <c r="BX47" s="167"/>
+      <c r="BU47" s="189"/>
+      <c r="BV47" s="149"/>
+      <c r="BW47" s="187"/>
+      <c r="BX47" s="194"/>
       <c r="BY47" s="72">
         <v>0.21679792479799201</v>
       </c>
@@ -23747,10 +23731,10 @@
         <f t="shared" si="51"/>
         <v>4.5083799496524684</v>
       </c>
-      <c r="BU48" s="163"/>
-      <c r="BV48" s="160"/>
-      <c r="BW48" s="161"/>
-      <c r="BX48" s="167"/>
+      <c r="BU48" s="189"/>
+      <c r="BV48" s="150"/>
+      <c r="BW48" s="158"/>
+      <c r="BX48" s="194"/>
       <c r="BY48" s="84">
         <v>0.2218091667444945</v>
       </c>
@@ -23786,11 +23770,11 @@
       <c r="BR49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="BU49" s="163"/>
+      <c r="BU49" s="189"/>
       <c r="BV49" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="BW49" s="150"/>
+      <c r="BW49" s="157"/>
       <c r="BX49" s="112" t="s">
         <v>89</v>
       </c>
@@ -23835,13 +23819,13 @@
         <f t="shared" ref="BR50:BR55" si="56">AJ4/AJ16</f>
         <v>6.8657994977091894</v>
       </c>
-      <c r="BU50" s="163"/>
-      <c r="BV50" s="158"/>
-      <c r="BW50" s="159"/>
+      <c r="BU50" s="189"/>
+      <c r="BV50" s="149"/>
+      <c r="BW50" s="187"/>
       <c r="BX50" s="61">
         <v>4.4267301949777993</v>
       </c>
-      <c r="BY50" s="165" t="s">
+      <c r="BY50" s="192" t="s">
         <v>16</v>
       </c>
       <c r="BZ50" s="61">
@@ -23882,13 +23866,13 @@
         <f t="shared" si="56"/>
         <v>7.406071133680654</v>
       </c>
-      <c r="BU51" s="163"/>
-      <c r="BV51" s="158"/>
-      <c r="BW51" s="159"/>
+      <c r="BU51" s="189"/>
+      <c r="BV51" s="149"/>
+      <c r="BW51" s="187"/>
       <c r="BX51" s="72">
         <v>4.7312611075937205</v>
       </c>
-      <c r="BY51" s="165"/>
+      <c r="BY51" s="192"/>
       <c r="BZ51" s="71">
         <v>0.63883549350171953</v>
       </c>
@@ -23927,13 +23911,13 @@
         <f t="shared" si="56"/>
         <v>7.1980224023610671</v>
       </c>
-      <c r="BU52" s="163"/>
-      <c r="BV52" s="158"/>
-      <c r="BW52" s="159"/>
+      <c r="BU52" s="189"/>
+      <c r="BV52" s="149"/>
+      <c r="BW52" s="187"/>
       <c r="BX52" s="72">
         <v>4.5324674435135561</v>
       </c>
-      <c r="BY52" s="165"/>
+      <c r="BY52" s="192"/>
       <c r="BZ52" s="71">
         <v>0.62968231969198019</v>
       </c>
@@ -23972,13 +23956,13 @@
         <f t="shared" si="56"/>
         <v>7.4891872009526663</v>
       </c>
-      <c r="BU53" s="163"/>
-      <c r="BV53" s="158"/>
-      <c r="BW53" s="159"/>
+      <c r="BU53" s="189"/>
+      <c r="BV53" s="149"/>
+      <c r="BW53" s="187"/>
       <c r="BX53" s="72">
         <v>4.7843622467332123</v>
       </c>
-      <c r="BY53" s="165"/>
+      <c r="BY53" s="192"/>
       <c r="BZ53" s="71">
         <v>0.63883598024156951</v>
       </c>
@@ -24017,13 +24001,13 @@
         <f t="shared" si="56"/>
         <v>7.6305177539244724</v>
       </c>
-      <c r="BU54" s="163"/>
-      <c r="BV54" s="158"/>
-      <c r="BW54" s="159"/>
+      <c r="BU54" s="189"/>
+      <c r="BV54" s="149"/>
+      <c r="BW54" s="187"/>
       <c r="BX54" s="72">
         <v>4.6125902770138607</v>
       </c>
-      <c r="BY54" s="165"/>
+      <c r="BY54" s="192"/>
       <c r="BZ54" s="71">
         <v>0.60449243757300042</v>
       </c>
@@ -24066,13 +24050,13 @@
         <f t="shared" si="56"/>
         <v>7.4634895127569365</v>
       </c>
-      <c r="BU55" s="163"/>
-      <c r="BV55" s="160"/>
-      <c r="BW55" s="161"/>
+      <c r="BU55" s="189"/>
+      <c r="BV55" s="150"/>
+      <c r="BW55" s="158"/>
       <c r="BX55" s="84">
         <v>4.5083799496524684</v>
       </c>
-      <c r="BY55" s="165"/>
+      <c r="BY55" s="192"/>
       <c r="BZ55" s="83">
         <v>0.60405791981706947</v>
       </c>
@@ -24109,11 +24093,11 @@
       <c r="BR56" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="BU56" s="163"/>
+      <c r="BU56" s="189"/>
       <c r="BV56" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="BW56" s="150"/>
+      <c r="BW56" s="157"/>
       <c r="BX56" s="112" t="s">
         <v>90</v>
       </c>
@@ -24162,16 +24146,16 @@
         <f t="shared" ref="BR57:BR62" si="61">AJ4/AJ22</f>
         <v>141.03457948165538</v>
       </c>
-      <c r="BU57" s="163"/>
-      <c r="BV57" s="158"/>
-      <c r="BW57" s="159"/>
+      <c r="BU57" s="189"/>
+      <c r="BV57" s="149"/>
+      <c r="BW57" s="187"/>
       <c r="BX57" s="61">
         <v>6.8657994977091894</v>
       </c>
       <c r="BY57" s="60">
         <v>1.5509866640389685</v>
       </c>
-      <c r="BZ57" s="167" t="s">
+      <c r="BZ57" s="194" t="s">
         <v>16</v>
       </c>
       <c r="CA57" s="63">
@@ -24213,16 +24197,16 @@
         <f t="shared" si="61"/>
         <v>330.54592420141995</v>
       </c>
-      <c r="BU58" s="163"/>
-      <c r="BV58" s="158"/>
-      <c r="BW58" s="159"/>
+      <c r="BU58" s="189"/>
+      <c r="BV58" s="149"/>
+      <c r="BW58" s="187"/>
       <c r="BX58" s="79">
         <v>7.406071133680654</v>
       </c>
       <c r="BY58" s="80">
         <v>1.5653482158898053</v>
       </c>
-      <c r="BZ58" s="167"/>
+      <c r="BZ58" s="194"/>
       <c r="CA58" s="93">
         <v>2.2405573904967363E-2</v>
       </c>
@@ -24262,16 +24246,16 @@
         <f t="shared" si="61"/>
         <v>587.39657604533772</v>
       </c>
-      <c r="BU59" s="163"/>
-      <c r="BV59" s="158"/>
-      <c r="BW59" s="159"/>
+      <c r="BU59" s="189"/>
+      <c r="BV59" s="149"/>
+      <c r="BW59" s="187"/>
       <c r="BX59" s="79">
         <v>7.1980224023610671</v>
       </c>
       <c r="BY59" s="80">
         <v>1.5881023950127218</v>
       </c>
-      <c r="BZ59" s="167"/>
+      <c r="BZ59" s="194"/>
       <c r="CA59" s="93">
         <v>1.2254110248346925E-2</v>
       </c>
@@ -24311,16 +24295,16 @@
         <f t="shared" si="61"/>
         <v>1030.6202094815626</v>
       </c>
-      <c r="BU60" s="163"/>
-      <c r="BV60" s="158"/>
-      <c r="BW60" s="159"/>
+      <c r="BU60" s="189"/>
+      <c r="BV60" s="149"/>
+      <c r="BW60" s="187"/>
       <c r="BX60" s="79">
         <v>7.4891872009526663</v>
       </c>
       <c r="BY60" s="80">
         <v>1.5653470232247406</v>
       </c>
-      <c r="BZ60" s="167"/>
+      <c r="BZ60" s="194"/>
       <c r="CA60" s="93">
         <v>7.266679938985463E-3</v>
       </c>
@@ -24360,16 +24344,16 @@
         <f t="shared" si="61"/>
         <v>1494.6401870085053</v>
       </c>
-      <c r="BU61" s="163"/>
-      <c r="BV61" s="158"/>
-      <c r="BW61" s="159"/>
+      <c r="BU61" s="189"/>
+      <c r="BV61" s="149"/>
+      <c r="BW61" s="187"/>
       <c r="BX61" s="71">
         <v>7.6305177539244724</v>
       </c>
       <c r="BY61" s="72">
         <v>1.6542804141850607</v>
       </c>
-      <c r="BZ61" s="167"/>
+      <c r="BZ61" s="194"/>
       <c r="CA61" s="93">
         <v>5.1052539736649348E-3</v>
       </c>
@@ -24409,16 +24393,16 @@
         <f t="shared" si="61"/>
         <v>1860.7376165331611</v>
       </c>
-      <c r="BU62" s="163"/>
-      <c r="BV62" s="160"/>
-      <c r="BW62" s="161"/>
+      <c r="BU62" s="189"/>
+      <c r="BV62" s="150"/>
+      <c r="BW62" s="158"/>
       <c r="BX62" s="83">
         <v>7.4634895127569365</v>
       </c>
       <c r="BY62" s="84">
         <v>1.6554703898308893</v>
       </c>
-      <c r="BZ62" s="167"/>
+      <c r="BZ62" s="194"/>
       <c r="CA62" s="95">
         <v>4.011038120819291E-3</v>
       </c>
@@ -24452,11 +24436,11 @@
       <c r="BR63" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="BU63" s="163"/>
+      <c r="BU63" s="189"/>
       <c r="BV63" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="BW63" s="150"/>
+      <c r="BW63" s="157"/>
       <c r="BX63" s="112" t="s">
         <v>95</v>
       </c>
@@ -24501,9 +24485,9 @@
         <f t="shared" ref="BR64:BR69" si="66">AJ4/AJ28</f>
         <v>1032.5936798452644</v>
       </c>
-      <c r="BU64" s="163"/>
-      <c r="BV64" s="158"/>
-      <c r="BW64" s="159"/>
+      <c r="BU64" s="189"/>
+      <c r="BV64" s="149"/>
+      <c r="BW64" s="187"/>
       <c r="BX64" s="61">
         <v>141.03457948165538</v>
       </c>
@@ -24513,7 +24497,7 @@
       <c r="BZ64" s="61">
         <v>20.541610562427916</v>
       </c>
-      <c r="CA64" s="165" t="s">
+      <c r="CA64" s="192" t="s">
         <v>16</v>
       </c>
       <c r="CB64" s="61">
@@ -24548,9 +24532,9 @@
         <f t="shared" si="66"/>
         <v>2066.4136007541692</v>
       </c>
-      <c r="BU65" s="163"/>
-      <c r="BV65" s="158"/>
-      <c r="BW65" s="159"/>
+      <c r="BU65" s="189"/>
+      <c r="BV65" s="149"/>
+      <c r="BW65" s="187"/>
       <c r="BX65" s="71">
         <v>330.54592420141995</v>
       </c>
@@ -24560,7 +24544,7 @@
       <c r="BZ65" s="74">
         <v>44.631751199120046</v>
       </c>
-      <c r="CA65" s="165"/>
+      <c r="CA65" s="192"/>
       <c r="CB65" s="79">
         <v>0.15996116367061375</v>
       </c>
@@ -24593,9 +24577,9 @@
         <f t="shared" si="66"/>
         <v>3528.0602830199446</v>
       </c>
-      <c r="BU66" s="163"/>
-      <c r="BV66" s="158"/>
-      <c r="BW66" s="159"/>
+      <c r="BU66" s="189"/>
+      <c r="BV66" s="149"/>
+      <c r="BW66" s="187"/>
       <c r="BX66" s="79">
         <v>587.39657604533772</v>
       </c>
@@ -24605,7 +24589,7 @@
       <c r="BZ66" s="82">
         <v>81.605272005358344</v>
       </c>
-      <c r="CA66" s="165"/>
+      <c r="CA66" s="192"/>
       <c r="CB66" s="79">
         <v>0.16649278326461553</v>
       </c>
@@ -24638,9 +24622,9 @@
         <f t="shared" si="66"/>
         <v>6013.4195221985592</v>
       </c>
-      <c r="BU67" s="163"/>
-      <c r="BV67" s="158"/>
-      <c r="BW67" s="159"/>
+      <c r="BU67" s="189"/>
+      <c r="BV67" s="149"/>
+      <c r="BW67" s="187"/>
       <c r="BX67" s="71">
         <v>1030.6202094815626</v>
       </c>
@@ -24650,7 +24634,7 @@
       <c r="BZ67" s="74">
         <v>137.61442755102476</v>
       </c>
-      <c r="CA67" s="165"/>
+      <c r="CA67" s="192"/>
       <c r="CB67" s="79">
         <v>0.17138671361228405</v>
       </c>
@@ -24683,9 +24667,9 @@
         <f t="shared" si="66"/>
         <v>8458.8542254671192</v>
       </c>
-      <c r="BU68" s="163"/>
-      <c r="BV68" s="158"/>
-      <c r="BW68" s="159"/>
+      <c r="BU68" s="189"/>
+      <c r="BV68" s="149"/>
+      <c r="BW68" s="187"/>
       <c r="BX68" s="79">
         <v>1494.6401870085053</v>
       </c>
@@ -24695,7 +24679,7 @@
       <c r="BZ68" s="80">
         <v>195.87664103655257</v>
       </c>
-      <c r="CA68" s="165"/>
+      <c r="CA68" s="192"/>
       <c r="CB68" s="79">
         <v>0.17669534752219559</v>
       </c>
@@ -24728,9 +24712,9 @@
         <f t="shared" si="66"/>
         <v>10343.665044887484</v>
       </c>
-      <c r="BU69" s="163"/>
-      <c r="BV69" s="160"/>
-      <c r="BW69" s="161"/>
+      <c r="BU69" s="189"/>
+      <c r="BV69" s="150"/>
+      <c r="BW69" s="158"/>
       <c r="BX69" s="83">
         <v>1860.7376165331611</v>
       </c>
@@ -24740,7 +24724,7 @@
       <c r="BZ69" s="86">
         <v>249.31201596152891</v>
       </c>
-      <c r="CA69" s="165"/>
+      <c r="CA69" s="192"/>
       <c r="CB69" s="83">
         <v>0.17989151895950645</v>
       </c>
@@ -24767,11 +24751,11 @@
       <c r="BR70" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BU70" s="163"/>
+      <c r="BU70" s="189"/>
       <c r="BV70" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="BW70" s="150"/>
+      <c r="BW70" s="157"/>
       <c r="BX70" s="112" t="s">
         <v>104</v>
       </c>
@@ -24816,9 +24800,9 @@
         <f t="shared" ref="BR71:BR76" si="71">AJ4/AJ34</f>
         <v>506.23671394799061</v>
       </c>
-      <c r="BU71" s="163"/>
-      <c r="BV71" s="158"/>
-      <c r="BW71" s="159"/>
+      <c r="BU71" s="189"/>
+      <c r="BV71" s="149"/>
+      <c r="BW71" s="187"/>
       <c r="BX71" s="67">
         <v>1032.5936798452644</v>
       </c>
@@ -24831,7 +24815,7 @@
       <c r="CA71" s="68">
         <v>7.3215638578876021</v>
       </c>
-      <c r="CB71" s="167" t="s">
+      <c r="CB71" s="194" t="s">
         <v>16</v>
       </c>
       <c r="CC71" s="60">
@@ -24863,9 +24847,9 @@
         <f t="shared" si="71"/>
         <v>1009.7975426495044</v>
       </c>
-      <c r="BU72" s="163"/>
-      <c r="BV72" s="158"/>
-      <c r="BW72" s="159"/>
+      <c r="BU72" s="189"/>
+      <c r="BV72" s="149"/>
+      <c r="BW72" s="187"/>
       <c r="BX72" s="61">
         <v>2066.4136007541692</v>
       </c>
@@ -24878,7 +24862,7 @@
       <c r="CA72" s="60">
         <v>6.2515174124337074</v>
       </c>
-      <c r="CB72" s="167"/>
+      <c r="CB72" s="194"/>
       <c r="CC72" s="72">
         <v>2.0463642596438865</v>
       </c>
@@ -24908,9 +24892,9 @@
         <f t="shared" si="71"/>
         <v>1678.4077029091275</v>
       </c>
-      <c r="BU73" s="163"/>
-      <c r="BV73" s="158"/>
-      <c r="BW73" s="159"/>
+      <c r="BU73" s="189"/>
+      <c r="BV73" s="149"/>
+      <c r="BW73" s="187"/>
       <c r="BX73" s="71">
         <v>3528.0602830199446</v>
       </c>
@@ -24923,7 +24907,7 @@
       <c r="CA73" s="72">
         <v>6.0062663401491019</v>
       </c>
-      <c r="CB73" s="167"/>
+      <c r="CB73" s="194"/>
       <c r="CC73" s="72">
         <v>2.1020281764108186</v>
       </c>
@@ -24953,9 +24937,9 @@
         <f t="shared" si="71"/>
         <v>2684.5820860299405</v>
       </c>
-      <c r="BU74" s="163"/>
-      <c r="BV74" s="158"/>
-      <c r="BW74" s="159"/>
+      <c r="BU74" s="189"/>
+      <c r="BV74" s="149"/>
+      <c r="BW74" s="187"/>
       <c r="BX74" s="79">
         <v>6013.4195221985592</v>
       </c>
@@ -24968,7 +24952,7 @@
       <c r="CA74" s="80">
         <v>5.8347580096682909</v>
       </c>
-      <c r="CB74" s="167"/>
+      <c r="CB74" s="194"/>
       <c r="CC74" s="72">
         <v>2.2399834795483669</v>
       </c>
@@ -24998,9 +24982,9 @@
         <f t="shared" si="71"/>
         <v>3809.2457444155866</v>
       </c>
-      <c r="BU75" s="163"/>
-      <c r="BV75" s="158"/>
-      <c r="BW75" s="159"/>
+      <c r="BU75" s="189"/>
+      <c r="BV75" s="149"/>
+      <c r="BW75" s="187"/>
       <c r="BX75" s="71">
         <v>8458.8542254671192</v>
       </c>
@@ -25013,7 +24997,7 @@
       <c r="CA75" s="72">
         <v>5.6594585767142789</v>
       </c>
-      <c r="CB75" s="167"/>
+      <c r="CB75" s="194"/>
       <c r="CC75" s="72">
         <v>2.2206113212485517</v>
       </c>
@@ -25043,9 +25027,9 @@
         <f t="shared" si="71"/>
         <v>4538.9949230856182</v>
       </c>
-      <c r="BU76" s="163"/>
-      <c r="BV76" s="160"/>
-      <c r="BW76" s="161"/>
+      <c r="BU76" s="189"/>
+      <c r="BV76" s="150"/>
+      <c r="BW76" s="158"/>
       <c r="BX76" s="83">
         <v>10343.665044887484</v>
       </c>
@@ -25058,17 +25042,17 @@
       <c r="CA76" s="84">
         <v>5.5589057548905334</v>
       </c>
-      <c r="CB76" s="167"/>
+      <c r="CB76" s="194"/>
       <c r="CC76" s="84">
         <v>2.2788448148022686</v>
       </c>
     </row>
     <row r="77" spans="65:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BU77" s="163"/>
+      <c r="BU77" s="189"/>
       <c r="BV77" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="BW77" s="150"/>
+      <c r="BW77" s="157"/>
       <c r="BX77" s="112" t="s">
         <v>109</v>
       </c>
@@ -25089,9 +25073,9 @@
       </c>
     </row>
     <row r="78" spans="65:81" x14ac:dyDescent="0.35">
-      <c r="BU78" s="163"/>
-      <c r="BV78" s="158"/>
-      <c r="BW78" s="159"/>
+      <c r="BU78" s="189"/>
+      <c r="BV78" s="149"/>
+      <c r="BW78" s="187"/>
       <c r="BX78" s="67">
         <v>506.23671394799061</v>
       </c>
@@ -25107,14 +25091,14 @@
       <c r="CB78" s="70">
         <v>0.4902574205411086</v>
       </c>
-      <c r="CC78" s="165" t="s">
+      <c r="CC78" s="192" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="65:81" x14ac:dyDescent="0.35">
-      <c r="BU79" s="163"/>
-      <c r="BV79" s="158"/>
-      <c r="BW79" s="159"/>
+      <c r="BU79" s="189"/>
+      <c r="BV79" s="149"/>
+      <c r="BW79" s="187"/>
       <c r="BX79" s="79">
         <v>1009.7975426495044</v>
       </c>
@@ -25130,12 +25114,12 @@
       <c r="CB79" s="82">
         <v>0.48867155262671685</v>
       </c>
-      <c r="CC79" s="165"/>
+      <c r="CC79" s="192"/>
     </row>
     <row r="80" spans="65:81" x14ac:dyDescent="0.35">
-      <c r="BU80" s="163"/>
-      <c r="BV80" s="158"/>
-      <c r="BW80" s="159"/>
+      <c r="BU80" s="189"/>
+      <c r="BV80" s="149"/>
+      <c r="BW80" s="187"/>
       <c r="BX80" s="79">
         <v>1678.4077029091275</v>
       </c>
@@ -25151,12 +25135,12 @@
       <c r="CB80" s="82">
         <v>0.47573101598832274</v>
       </c>
-      <c r="CC80" s="165"/>
+      <c r="CC80" s="192"/>
     </row>
     <row r="81" spans="73:81" x14ac:dyDescent="0.35">
-      <c r="BU81" s="163"/>
-      <c r="BV81" s="158"/>
-      <c r="BW81" s="159"/>
+      <c r="BU81" s="189"/>
+      <c r="BV81" s="149"/>
+      <c r="BW81" s="187"/>
       <c r="BX81" s="75">
         <v>2684.5820860299405</v>
       </c>
@@ -25172,12 +25156,12 @@
       <c r="CB81" s="78">
         <v>0.44643186395357853</v>
       </c>
-      <c r="CC81" s="165"/>
+      <c r="CC81" s="192"/>
     </row>
     <row r="82" spans="73:81" x14ac:dyDescent="0.35">
-      <c r="BU82" s="163"/>
-      <c r="BV82" s="158"/>
-      <c r="BW82" s="159"/>
+      <c r="BU82" s="189"/>
+      <c r="BV82" s="149"/>
+      <c r="BW82" s="187"/>
       <c r="BX82" s="75">
         <v>3809.2457444155866</v>
       </c>
@@ -25193,12 +25177,12 @@
       <c r="CB82" s="78">
         <v>0.45032644408826311</v>
       </c>
-      <c r="CC82" s="165"/>
+      <c r="CC82" s="192"/>
     </row>
     <row r="83" spans="73:81" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BU83" s="164"/>
-      <c r="BV83" s="160"/>
-      <c r="BW83" s="161"/>
+      <c r="BU83" s="190"/>
+      <c r="BV83" s="150"/>
+      <c r="BW83" s="158"/>
       <c r="BX83" s="42">
         <v>4538.9949230856182</v>
       </c>
@@ -25214,96 +25198,10 @@
       <c r="CB83" s="42">
         <v>0.43881882324960692</v>
       </c>
-      <c r="CC83" s="166"/>
+      <c r="CC83" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="BM40:BR41"/>
-    <mergeCell ref="BX38:CC39"/>
-    <mergeCell ref="CJ23:CM23"/>
-    <mergeCell ref="CN23:CQ23"/>
-    <mergeCell ref="AY21:AY26"/>
-    <mergeCell ref="AY27:AY32"/>
-    <mergeCell ref="AY33:AY38"/>
-    <mergeCell ref="AY3:AY8"/>
-    <mergeCell ref="AY9:AY14"/>
-    <mergeCell ref="AY15:AY20"/>
-    <mergeCell ref="BH3:BI8"/>
-    <mergeCell ref="BH1:BI2"/>
-    <mergeCell ref="BH33:BI38"/>
-    <mergeCell ref="BH27:BI32"/>
-    <mergeCell ref="BH21:BI26"/>
-    <mergeCell ref="BH15:BI20"/>
-    <mergeCell ref="BH9:BI14"/>
-    <mergeCell ref="BJ27:BJ32"/>
-    <mergeCell ref="BJ33:BJ38"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BJ3:BJ8"/>
-    <mergeCell ref="BJ9:BJ14"/>
-    <mergeCell ref="BJ15:BJ20"/>
-    <mergeCell ref="BJ21:BJ26"/>
-    <mergeCell ref="BF27:BG32"/>
-    <mergeCell ref="BF33:BG38"/>
-    <mergeCell ref="BF3:BG8"/>
-    <mergeCell ref="BF9:BG14"/>
-    <mergeCell ref="BF15:BG20"/>
-    <mergeCell ref="BF21:BG26"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AC28:AC33"/>
-    <mergeCell ref="AC34:AC39"/>
-    <mergeCell ref="AC4:AC9"/>
-    <mergeCell ref="AC10:AC15"/>
-    <mergeCell ref="AC16:AC21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="AZ33:BA38"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="AZ9:BA14"/>
-    <mergeCell ref="AZ15:BA20"/>
-    <mergeCell ref="AZ21:BA26"/>
-    <mergeCell ref="AZ27:BA32"/>
-    <mergeCell ref="BB9:BC14"/>
-    <mergeCell ref="BB15:BC20"/>
-    <mergeCell ref="BB21:BC26"/>
-    <mergeCell ref="BB27:BC32"/>
-    <mergeCell ref="BB33:BC38"/>
-    <mergeCell ref="BD33:BE38"/>
-    <mergeCell ref="BD27:BE32"/>
-    <mergeCell ref="BD9:BE14"/>
-    <mergeCell ref="BD15:BE20"/>
-    <mergeCell ref="AZ3:BA8"/>
-    <mergeCell ref="BB3:BC8"/>
-    <mergeCell ref="BD21:BE26"/>
-    <mergeCell ref="BV77:BW83"/>
-    <mergeCell ref="BV56:BW62"/>
-    <mergeCell ref="BU42:BU83"/>
-    <mergeCell ref="BV41:BW41"/>
-    <mergeCell ref="BX40:CC40"/>
-    <mergeCell ref="CC78:CC83"/>
-    <mergeCell ref="CB71:CB76"/>
-    <mergeCell ref="BY50:BY55"/>
-    <mergeCell ref="BZ57:BZ62"/>
-    <mergeCell ref="BX43:BX48"/>
-    <mergeCell ref="CA64:CA69"/>
-    <mergeCell ref="BV42:BW48"/>
-    <mergeCell ref="BV49:BW55"/>
-    <mergeCell ref="BV63:BW69"/>
-    <mergeCell ref="BV70:BW76"/>
     <mergeCell ref="CU7:CW7"/>
     <mergeCell ref="AE1:AV1"/>
     <mergeCell ref="DA6:DF6"/>
@@ -25326,6 +25224,92 @@
     <mergeCell ref="CG6:CI6"/>
     <mergeCell ref="CM6:CO6"/>
     <mergeCell ref="CP6:CR6"/>
+    <mergeCell ref="BV77:BW83"/>
+    <mergeCell ref="BV56:BW62"/>
+    <mergeCell ref="BU42:BU83"/>
+    <mergeCell ref="BV41:BW41"/>
+    <mergeCell ref="BX40:CC40"/>
+    <mergeCell ref="CC78:CC83"/>
+    <mergeCell ref="CB71:CB76"/>
+    <mergeCell ref="BY50:BY55"/>
+    <mergeCell ref="BZ57:BZ62"/>
+    <mergeCell ref="BX43:BX48"/>
+    <mergeCell ref="CA64:CA69"/>
+    <mergeCell ref="BV42:BW48"/>
+    <mergeCell ref="BV49:BW55"/>
+    <mergeCell ref="BV63:BW69"/>
+    <mergeCell ref="BV70:BW76"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="AZ9:BA14"/>
+    <mergeCell ref="AZ15:BA20"/>
+    <mergeCell ref="AZ21:BA26"/>
+    <mergeCell ref="AZ27:BA32"/>
+    <mergeCell ref="BB9:BC14"/>
+    <mergeCell ref="BB15:BC20"/>
+    <mergeCell ref="BB21:BC26"/>
+    <mergeCell ref="BB27:BC32"/>
+    <mergeCell ref="BD27:BE32"/>
+    <mergeCell ref="BD9:BE14"/>
+    <mergeCell ref="BD15:BE20"/>
+    <mergeCell ref="AZ3:BA8"/>
+    <mergeCell ref="BB3:BC8"/>
+    <mergeCell ref="BD21:BE26"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AC28:AC33"/>
+    <mergeCell ref="AC34:AC39"/>
+    <mergeCell ref="AC4:AC9"/>
+    <mergeCell ref="AC10:AC15"/>
+    <mergeCell ref="AC16:AC21"/>
+    <mergeCell ref="BH1:BI2"/>
+    <mergeCell ref="BH33:BI38"/>
+    <mergeCell ref="BH27:BI32"/>
+    <mergeCell ref="BH21:BI26"/>
+    <mergeCell ref="BH15:BI20"/>
+    <mergeCell ref="BH9:BI14"/>
+    <mergeCell ref="BJ27:BJ32"/>
+    <mergeCell ref="BJ33:BJ38"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BJ3:BJ8"/>
+    <mergeCell ref="BJ9:BJ14"/>
+    <mergeCell ref="BJ15:BJ20"/>
+    <mergeCell ref="BJ21:BJ26"/>
+    <mergeCell ref="BM40:BR41"/>
+    <mergeCell ref="BX38:CC39"/>
+    <mergeCell ref="CJ23:CM23"/>
+    <mergeCell ref="CN23:CQ23"/>
+    <mergeCell ref="AY21:AY26"/>
+    <mergeCell ref="AY27:AY32"/>
+    <mergeCell ref="AY33:AY38"/>
+    <mergeCell ref="AY3:AY8"/>
+    <mergeCell ref="AY9:AY14"/>
+    <mergeCell ref="AY15:AY20"/>
+    <mergeCell ref="BH3:BI8"/>
+    <mergeCell ref="BF27:BG32"/>
+    <mergeCell ref="BF33:BG38"/>
+    <mergeCell ref="BF3:BG8"/>
+    <mergeCell ref="BF9:BG14"/>
+    <mergeCell ref="BF15:BG20"/>
+    <mergeCell ref="BF21:BG26"/>
+    <mergeCell ref="AZ33:BA38"/>
+    <mergeCell ref="BB33:BC38"/>
+    <mergeCell ref="BD33:BE38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
